--- a/BackTest/2020-01-22 BackTest MXC.xlsx
+++ b/BackTest/2020-01-22 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.73</v>
+        <v>1.703</v>
       </c>
       <c r="C2" t="n">
-        <v>1.73</v>
+        <v>1.702</v>
       </c>
       <c r="D2" t="n">
-        <v>1.73</v>
+        <v>1.703</v>
       </c>
       <c r="E2" t="n">
-        <v>1.73</v>
+        <v>1.702</v>
       </c>
       <c r="F2" t="n">
-        <v>290</v>
+        <v>80000</v>
       </c>
       <c r="G2" t="n">
-        <v>1.714816666666666</v>
+        <v>1.713983333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>1.73</v>
       </c>
       <c r="F3" t="n">
-        <v>1700</v>
+        <v>290</v>
       </c>
       <c r="G3" t="n">
-        <v>1.715149999999999</v>
+        <v>1.714816666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>1.73</v>
       </c>
       <c r="C4" t="n">
-        <v>1.739</v>
+        <v>1.73</v>
       </c>
       <c r="D4" t="n">
-        <v>1.739</v>
+        <v>1.73</v>
       </c>
       <c r="E4" t="n">
         <v>1.73</v>
       </c>
       <c r="F4" t="n">
-        <v>48908</v>
+        <v>1700</v>
       </c>
       <c r="G4" t="n">
-        <v>1.715649999999999</v>
+        <v>1.715149999999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.739</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.74</v>
-      </c>
       <c r="D5" t="n">
-        <v>1.74</v>
+        <v>1.739</v>
       </c>
       <c r="E5" t="n">
-        <v>1.739</v>
+        <v>1.73</v>
       </c>
       <c r="F5" t="n">
-        <v>39904</v>
+        <v>48908</v>
       </c>
       <c r="G5" t="n">
-        <v>1.716599999999999</v>
+        <v>1.715649999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.74</v>
+        <v>1.739</v>
       </c>
       <c r="C6" t="n">
         <v>1.74</v>
@@ -582,13 +582,13 @@
         <v>1.74</v>
       </c>
       <c r="E6" t="n">
-        <v>1.74</v>
+        <v>1.739</v>
       </c>
       <c r="F6" t="n">
-        <v>11855.8014</v>
+        <v>39904</v>
       </c>
       <c r="G6" t="n">
-        <v>1.717099999999999</v>
+        <v>1.716599999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="C7" t="n">
-        <v>1.734</v>
+        <v>1.74</v>
       </c>
       <c r="D7" t="n">
-        <v>1.734</v>
+        <v>1.74</v>
       </c>
       <c r="E7" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="F7" t="n">
-        <v>506537.7559</v>
+        <v>11855.8014</v>
       </c>
       <c r="G7" t="n">
-        <v>1.717499999999999</v>
+        <v>1.717099999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.711</v>
+        <v>1.72</v>
       </c>
       <c r="C8" t="n">
-        <v>1.731</v>
+        <v>1.734</v>
       </c>
       <c r="D8" t="n">
-        <v>1.731</v>
+        <v>1.734</v>
       </c>
       <c r="E8" t="n">
-        <v>1.711</v>
+        <v>1.72</v>
       </c>
       <c r="F8" t="n">
-        <v>702676.6317</v>
+        <v>506537.7559</v>
       </c>
       <c r="G8" t="n">
-        <v>1.717849999999999</v>
+        <v>1.717499999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.71</v>
+        <v>1.711</v>
       </c>
       <c r="C9" t="n">
-        <v>1.72</v>
+        <v>1.731</v>
       </c>
       <c r="D9" t="n">
-        <v>1.72</v>
+        <v>1.731</v>
       </c>
       <c r="E9" t="n">
-        <v>1.71</v>
+        <v>1.711</v>
       </c>
       <c r="F9" t="n">
-        <v>2000</v>
+        <v>702676.6317</v>
       </c>
       <c r="G9" t="n">
-        <v>1.718016666666666</v>
+        <v>1.717849999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="C10" t="n">
         <v>1.72</v>
@@ -722,13 +722,13 @@
         <v>1.72</v>
       </c>
       <c r="E10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F10" t="n">
-        <v>981515.8731</v>
+        <v>2000</v>
       </c>
       <c r="G10" t="n">
-        <v>1.718183333333333</v>
+        <v>1.718016666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.711</v>
+        <v>1.72</v>
       </c>
       <c r="C11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="D11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="E11" t="n">
-        <v>1.702</v>
+        <v>1.72</v>
       </c>
       <c r="F11" t="n">
-        <v>1904725.5218</v>
+        <v>981515.8731</v>
       </c>
       <c r="G11" t="n">
-        <v>1.718516666666666</v>
+        <v>1.718183333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.715</v>
+        <v>1.711</v>
       </c>
       <c r="C12" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="D12" t="n">
-        <v>1.715</v>
+        <v>1.73</v>
       </c>
       <c r="E12" t="n">
-        <v>1.71</v>
+        <v>1.702</v>
       </c>
       <c r="F12" t="n">
-        <v>225339.3798</v>
+        <v>1904725.5218</v>
       </c>
       <c r="G12" t="n">
-        <v>1.718849999999999</v>
+        <v>1.718516666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="C13" t="n">
         <v>1.71</v>
       </c>
       <c r="D13" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="E13" t="n">
         <v>1.71</v>
       </c>
       <c r="F13" t="n">
-        <v>103673</v>
+        <v>225339.3798</v>
       </c>
       <c r="G13" t="n">
-        <v>1.719183333333333</v>
+        <v>1.718849999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>1.71</v>
       </c>
       <c r="F14" t="n">
-        <v>220000</v>
+        <v>103673</v>
       </c>
       <c r="G14" t="n">
-        <v>1.719516666666666</v>
+        <v>1.719183333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>1.71</v>
       </c>
       <c r="C15" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="D15" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="E15" t="n">
         <v>1.71</v>
       </c>
       <c r="F15" t="n">
-        <v>42528</v>
+        <v>220000</v>
       </c>
       <c r="G15" t="n">
-        <v>1.719683333333333</v>
+        <v>1.719516666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="C16" t="n">
-        <v>1.719</v>
+        <v>1.72</v>
       </c>
       <c r="D16" t="n">
-        <v>1.719</v>
+        <v>1.72</v>
       </c>
       <c r="E16" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="F16" t="n">
-        <v>60000</v>
+        <v>42528</v>
       </c>
       <c r="G16" t="n">
-        <v>1.719833333333333</v>
+        <v>1.719683333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.715</v>
+        <v>1.719</v>
       </c>
       <c r="C17" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="D17" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="E17" t="n">
-        <v>1.715</v>
+        <v>1.719</v>
       </c>
       <c r="F17" t="n">
-        <v>220000</v>
+        <v>60000</v>
       </c>
       <c r="G17" t="n">
-        <v>1.720383333333333</v>
+        <v>1.719833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.718</v>
+        <v>1.715</v>
       </c>
       <c r="C18" t="n">
         <v>1.718</v>
@@ -1002,23 +1002,29 @@
         <v>1.718</v>
       </c>
       <c r="E18" t="n">
-        <v>1.718</v>
+        <v>1.715</v>
       </c>
       <c r="F18" t="n">
-        <v>20000</v>
+        <v>220000</v>
       </c>
       <c r="G18" t="n">
-        <v>1.720516666666666</v>
+        <v>1.720383333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1.719</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1040,10 +1046,10 @@
         <v>1.718</v>
       </c>
       <c r="F19" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G19" t="n">
-        <v>1.720816666666666</v>
+        <v>1.720516666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1059,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1075,10 +1085,10 @@
         <v>1.718</v>
       </c>
       <c r="F20" t="n">
-        <v>207634</v>
+        <v>40000</v>
       </c>
       <c r="G20" t="n">
-        <v>1.721283333333333</v>
+        <v>1.720816666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1098,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1101,19 +1115,19 @@
         <v>1.718</v>
       </c>
       <c r="C21" t="n">
-        <v>1.719</v>
+        <v>1.718</v>
       </c>
       <c r="D21" t="n">
-        <v>1.719</v>
+        <v>1.718</v>
       </c>
       <c r="E21" t="n">
         <v>1.718</v>
       </c>
       <c r="F21" t="n">
-        <v>60000</v>
+        <v>207634</v>
       </c>
       <c r="G21" t="n">
-        <v>1.721766666666666</v>
+        <v>1.721283333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1137,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.719</v>
+        <v>1.718</v>
       </c>
       <c r="C22" t="n">
         <v>1.719</v>
@@ -1142,13 +1160,13 @@
         <v>1.719</v>
       </c>
       <c r="E22" t="n">
-        <v>1.719</v>
+        <v>1.718</v>
       </c>
       <c r="F22" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G22" t="n">
-        <v>1.722249999999999</v>
+        <v>1.721766666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1176,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,32 +1190,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.702</v>
+        <v>1.719</v>
       </c>
       <c r="C23" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="D23" t="n">
-        <v>1.702</v>
+        <v>1.719</v>
       </c>
       <c r="E23" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="F23" t="n">
-        <v>470000</v>
+        <v>40000</v>
       </c>
       <c r="G23" t="n">
-        <v>1.722083333333333</v>
+        <v>1.722249999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1.719</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,19 +1231,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.71</v>
+        <v>1.702</v>
       </c>
       <c r="C24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="D24" t="n">
-        <v>1.71</v>
+        <v>1.702</v>
       </c>
       <c r="E24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F24" t="n">
-        <v>60000</v>
+        <v>470000</v>
       </c>
       <c r="G24" t="n">
         <v>1.722083333333333</v>
@@ -1228,7 +1256,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1241,19 +1273,19 @@
         <v>1.71</v>
       </c>
       <c r="C25" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="D25" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="E25" t="n">
         <v>1.71</v>
       </c>
       <c r="F25" t="n">
-        <v>340686</v>
+        <v>60000</v>
       </c>
       <c r="G25" t="n">
-        <v>1.722183333333333</v>
+        <v>1.722083333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1295,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1309,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C26" t="n">
         <v>1.715</v>
       </c>
-      <c r="C26" t="n">
-        <v>1.728</v>
-      </c>
       <c r="D26" t="n">
-        <v>1.728</v>
+        <v>1.715</v>
       </c>
       <c r="E26" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="F26" t="n">
-        <v>20000</v>
+        <v>340686</v>
       </c>
       <c r="G26" t="n">
-        <v>1.722516666666666</v>
+        <v>1.722183333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1334,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1348,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.727</v>
+        <v>1.715</v>
       </c>
       <c r="C27" t="n">
-        <v>1.727</v>
+        <v>1.728</v>
       </c>
       <c r="D27" t="n">
-        <v>1.727</v>
+        <v>1.728</v>
       </c>
       <c r="E27" t="n">
-        <v>1.727</v>
+        <v>1.715</v>
       </c>
       <c r="F27" t="n">
-        <v>587.7169</v>
+        <v>20000</v>
       </c>
       <c r="G27" t="n">
-        <v>1.722833333333333</v>
+        <v>1.722516666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1373,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1387,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.728</v>
+        <v>1.727</v>
       </c>
       <c r="C28" t="n">
-        <v>1.739</v>
+        <v>1.727</v>
       </c>
       <c r="D28" t="n">
-        <v>1.739</v>
+        <v>1.727</v>
       </c>
       <c r="E28" t="n">
-        <v>1.728</v>
+        <v>1.727</v>
       </c>
       <c r="F28" t="n">
-        <v>405438</v>
+        <v>587.7169</v>
       </c>
       <c r="G28" t="n">
-        <v>1.72335</v>
+        <v>1.722833333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1412,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1426,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.727</v>
+        <v>1.728</v>
       </c>
       <c r="C29" t="n">
-        <v>1.727</v>
+        <v>1.739</v>
       </c>
       <c r="D29" t="n">
-        <v>1.727</v>
+        <v>1.739</v>
       </c>
       <c r="E29" t="n">
-        <v>1.727</v>
+        <v>1.728</v>
       </c>
       <c r="F29" t="n">
-        <v>17044.3407</v>
+        <v>405438</v>
       </c>
       <c r="G29" t="n">
-        <v>1.723666666666666</v>
+        <v>1.72335</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1451,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1465,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.735</v>
+        <v>1.727</v>
       </c>
       <c r="C30" t="n">
-        <v>1.735</v>
+        <v>1.727</v>
       </c>
       <c r="D30" t="n">
-        <v>1.735</v>
+        <v>1.727</v>
       </c>
       <c r="E30" t="n">
-        <v>1.735</v>
+        <v>1.727</v>
       </c>
       <c r="F30" t="n">
-        <v>17291.0663</v>
+        <v>17044.3407</v>
       </c>
       <c r="G30" t="n">
-        <v>1.724116666666667</v>
+        <v>1.723666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1490,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1504,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.731</v>
+        <v>1.735</v>
       </c>
       <c r="C31" t="n">
-        <v>1.731</v>
+        <v>1.735</v>
       </c>
       <c r="D31" t="n">
-        <v>1.731</v>
+        <v>1.735</v>
       </c>
       <c r="E31" t="n">
-        <v>1.731</v>
+        <v>1.735</v>
       </c>
       <c r="F31" t="n">
-        <v>17005.77700751011</v>
+        <v>17291.0663</v>
       </c>
       <c r="G31" t="n">
-        <v>1.724466666666667</v>
+        <v>1.724116666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1529,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1543,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.719</v>
+        <v>1.731</v>
       </c>
       <c r="C32" t="n">
-        <v>1.719</v>
+        <v>1.731</v>
       </c>
       <c r="D32" t="n">
-        <v>1.719</v>
+        <v>1.731</v>
       </c>
       <c r="E32" t="n">
-        <v>1.719</v>
+        <v>1.731</v>
       </c>
       <c r="F32" t="n">
-        <v>7355</v>
+        <v>17005.77700751011</v>
       </c>
       <c r="G32" t="n">
-        <v>1.724616666666666</v>
+        <v>1.724466666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1568,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1582,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.731</v>
+        <v>1.719</v>
       </c>
       <c r="C33" t="n">
-        <v>1.731</v>
+        <v>1.719</v>
       </c>
       <c r="D33" t="n">
-        <v>1.731</v>
+        <v>1.719</v>
       </c>
       <c r="E33" t="n">
-        <v>1.731</v>
+        <v>1.719</v>
       </c>
       <c r="F33" t="n">
-        <v>290</v>
+        <v>7355</v>
       </c>
       <c r="G33" t="n">
-        <v>1.724966666666667</v>
+        <v>1.724616666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1607,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1621,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.719</v>
+        <v>1.731</v>
       </c>
       <c r="C34" t="n">
-        <v>1.719</v>
+        <v>1.731</v>
       </c>
       <c r="D34" t="n">
-        <v>1.719</v>
+        <v>1.731</v>
       </c>
       <c r="E34" t="n">
-        <v>1.719</v>
+        <v>1.731</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0742</v>
+        <v>290</v>
       </c>
       <c r="G34" t="n">
-        <v>1.725116666666666</v>
+        <v>1.724966666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1646,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1591,19 +1663,19 @@
         <v>1.719</v>
       </c>
       <c r="C35" t="n">
-        <v>1.73</v>
+        <v>1.719</v>
       </c>
       <c r="D35" t="n">
-        <v>1.73</v>
+        <v>1.719</v>
       </c>
       <c r="E35" t="n">
         <v>1.719</v>
       </c>
       <c r="F35" t="n">
-        <v>40000</v>
+        <v>0.0742</v>
       </c>
       <c r="G35" t="n">
-        <v>1.725283333333333</v>
+        <v>1.725116666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1685,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,19 +1699,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.711</v>
+        <v>1.719</v>
       </c>
       <c r="C36" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="D36" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E36" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="F36" t="n">
-        <v>371417.1558</v>
+        <v>40000</v>
       </c>
       <c r="G36" t="n">
         <v>1.725283333333333</v>
@@ -1648,7 +1724,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1738,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.702</v>
+        <v>1.711</v>
       </c>
       <c r="C37" t="n">
-        <v>1.702</v>
+        <v>1.72</v>
       </c>
       <c r="D37" t="n">
-        <v>1.702</v>
+        <v>1.72</v>
       </c>
       <c r="E37" t="n">
-        <v>1.702</v>
+        <v>1.71</v>
       </c>
       <c r="F37" t="n">
-        <v>300</v>
+        <v>371417.1558</v>
       </c>
       <c r="G37" t="n">
-        <v>1.725483333333333</v>
+        <v>1.725283333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1763,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1777,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.719</v>
+        <v>1.702</v>
       </c>
       <c r="C38" t="n">
-        <v>1.719</v>
+        <v>1.702</v>
       </c>
       <c r="D38" t="n">
-        <v>1.719</v>
+        <v>1.702</v>
       </c>
       <c r="E38" t="n">
-        <v>1.719</v>
+        <v>1.702</v>
       </c>
       <c r="F38" t="n">
-        <v>160000</v>
+        <v>300</v>
       </c>
       <c r="G38" t="n">
-        <v>1.725133333333333</v>
+        <v>1.725483333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1802,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1740,10 +1828,10 @@
         <v>1.719</v>
       </c>
       <c r="F39" t="n">
-        <v>116057.7323</v>
+        <v>160000</v>
       </c>
       <c r="G39" t="n">
-        <v>1.724783333333333</v>
+        <v>1.725133333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1841,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1775,10 +1867,10 @@
         <v>1.719</v>
       </c>
       <c r="F40" t="n">
-        <v>20000</v>
+        <v>116057.7323</v>
       </c>
       <c r="G40" t="n">
-        <v>1.72445</v>
+        <v>1.724783333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1880,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,10 +1906,10 @@
         <v>1.719</v>
       </c>
       <c r="F41" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="G41" t="n">
-        <v>1.7243</v>
+        <v>1.72445</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1919,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,10 +1945,10 @@
         <v>1.719</v>
       </c>
       <c r="F42" t="n">
-        <v>5002.9405</v>
+        <v>60000</v>
       </c>
       <c r="G42" t="n">
-        <v>1.7242</v>
+        <v>1.7243</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1958,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1871,19 +1975,19 @@
         <v>1.719</v>
       </c>
       <c r="C43" t="n">
-        <v>1.72</v>
+        <v>1.719</v>
       </c>
       <c r="D43" t="n">
-        <v>1.72</v>
+        <v>1.719</v>
       </c>
       <c r="E43" t="n">
         <v>1.719</v>
       </c>
       <c r="F43" t="n">
-        <v>174383</v>
+        <v>5002.9405</v>
       </c>
       <c r="G43" t="n">
-        <v>1.723883333333333</v>
+        <v>1.7242</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1997,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,7 +2011,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.72</v>
+        <v>1.719</v>
       </c>
       <c r="C44" t="n">
         <v>1.72</v>
@@ -1912,13 +2020,13 @@
         <v>1.72</v>
       </c>
       <c r="E44" t="n">
-        <v>1.72</v>
+        <v>1.719</v>
       </c>
       <c r="F44" t="n">
-        <v>40000</v>
+        <v>174383</v>
       </c>
       <c r="G44" t="n">
-        <v>1.723616666666666</v>
+        <v>1.723883333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2036,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2050,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.705</v>
+        <v>1.72</v>
       </c>
       <c r="C45" t="n">
-        <v>1.705</v>
+        <v>1.72</v>
       </c>
       <c r="D45" t="n">
-        <v>1.705</v>
+        <v>1.72</v>
       </c>
       <c r="E45" t="n">
-        <v>1.705</v>
+        <v>1.72</v>
       </c>
       <c r="F45" t="n">
-        <v>4571.2601</v>
+        <v>40000</v>
       </c>
       <c r="G45" t="n">
-        <v>1.723099999999999</v>
+        <v>1.723616666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2075,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2089,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.71</v>
+        <v>1.705</v>
       </c>
       <c r="C46" t="n">
-        <v>1.71</v>
+        <v>1.705</v>
       </c>
       <c r="D46" t="n">
-        <v>1.71</v>
+        <v>1.705</v>
       </c>
       <c r="E46" t="n">
-        <v>1.71</v>
+        <v>1.705</v>
       </c>
       <c r="F46" t="n">
-        <v>197729.6446</v>
+        <v>4571.2601</v>
       </c>
       <c r="G46" t="n">
-        <v>1.722633333333333</v>
+        <v>1.723099999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2114,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2128,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.705</v>
+        <v>1.71</v>
       </c>
       <c r="C47" t="n">
-        <v>1.702</v>
+        <v>1.71</v>
       </c>
       <c r="D47" t="n">
-        <v>1.705</v>
+        <v>1.71</v>
       </c>
       <c r="E47" t="n">
-        <v>1.702</v>
+        <v>1.71</v>
       </c>
       <c r="F47" t="n">
-        <v>893452.6376</v>
+        <v>197729.6446</v>
       </c>
       <c r="G47" t="n">
-        <v>1.722116666666666</v>
+        <v>1.722633333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2153,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2167,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.72</v>
+        <v>1.705</v>
       </c>
       <c r="C48" t="n">
-        <v>1.729</v>
+        <v>1.702</v>
       </c>
       <c r="D48" t="n">
-        <v>1.729</v>
+        <v>1.705</v>
       </c>
       <c r="E48" t="n">
-        <v>1.72</v>
+        <v>1.702</v>
       </c>
       <c r="F48" t="n">
-        <v>200000</v>
+        <v>893452.6376</v>
       </c>
       <c r="G48" t="n">
-        <v>1.721966666666666</v>
+        <v>1.722116666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2192,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2206,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.723</v>
+        <v>1.72</v>
       </c>
       <c r="C49" t="n">
-        <v>1.723</v>
+        <v>1.729</v>
       </c>
       <c r="D49" t="n">
-        <v>1.723</v>
+        <v>1.729</v>
       </c>
       <c r="E49" t="n">
-        <v>1.723</v>
+        <v>1.72</v>
       </c>
       <c r="F49" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G49" t="n">
-        <v>1.721766666666666</v>
+        <v>1.721966666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2231,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2245,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="C50" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="D50" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="E50" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="F50" t="n">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="G50" t="n">
-        <v>1.721516666666666</v>
+        <v>1.721766666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2270,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2284,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.715</v>
+        <v>1.72</v>
       </c>
       <c r="C51" t="n">
-        <v>1.715</v>
+        <v>1.72</v>
       </c>
       <c r="D51" t="n">
-        <v>1.715</v>
+        <v>1.72</v>
       </c>
       <c r="E51" t="n">
-        <v>1.715</v>
+        <v>1.72</v>
       </c>
       <c r="F51" t="n">
-        <v>11617</v>
+        <v>100000</v>
       </c>
       <c r="G51" t="n">
-        <v>1.720999999999999</v>
+        <v>1.721516666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2309,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2323,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="C52" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="D52" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="E52" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="F52" t="n">
-        <v>62147</v>
+        <v>11617</v>
       </c>
       <c r="G52" t="n">
-        <v>1.720433333333333</v>
+        <v>1.720999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2348,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2230,10 +2374,10 @@
         <v>1.71</v>
       </c>
       <c r="F53" t="n">
-        <v>47675</v>
+        <v>62147</v>
       </c>
       <c r="G53" t="n">
-        <v>1.720116666666666</v>
+        <v>1.720433333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2387,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2265,10 +2413,10 @@
         <v>1.71</v>
       </c>
       <c r="F54" t="n">
-        <v>280000</v>
+        <v>47675</v>
       </c>
       <c r="G54" t="n">
-        <v>1.719633333333332</v>
+        <v>1.720116666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2426,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2452,10 @@
         <v>1.71</v>
       </c>
       <c r="F55" t="n">
-        <v>120000</v>
+        <v>280000</v>
       </c>
       <c r="G55" t="n">
-        <v>1.719149999999999</v>
+        <v>1.719633333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2465,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2335,7 +2491,7 @@
         <v>1.71</v>
       </c>
       <c r="F56" t="n">
-        <v>23620.8097</v>
+        <v>120000</v>
       </c>
       <c r="G56" t="n">
         <v>1.719149999999999</v>
@@ -2348,7 +2504,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2518,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="C57" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="D57" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="E57" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="F57" t="n">
-        <v>211589</v>
+        <v>23620.8097</v>
       </c>
       <c r="G57" t="n">
-        <v>1.719399999999999</v>
+        <v>1.719149999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2543,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2557,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.708</v>
+        <v>1.715</v>
       </c>
       <c r="C58" t="n">
-        <v>1.708</v>
+        <v>1.715</v>
       </c>
       <c r="D58" t="n">
-        <v>1.708</v>
+        <v>1.715</v>
       </c>
       <c r="E58" t="n">
-        <v>1.708</v>
+        <v>1.715</v>
       </c>
       <c r="F58" t="n">
-        <v>588620.3329</v>
+        <v>211589</v>
       </c>
       <c r="G58" t="n">
-        <v>1.719533333333332</v>
+        <v>1.719399999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2582,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2608,10 @@
         <v>1.708</v>
       </c>
       <c r="F59" t="n">
-        <v>207160</v>
+        <v>588620.3329</v>
       </c>
       <c r="G59" t="n">
-        <v>1.719633333333332</v>
+        <v>1.719533333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2621,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2635,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.704</v>
+        <v>1.708</v>
       </c>
       <c r="C60" t="n">
-        <v>1.704</v>
+        <v>1.708</v>
       </c>
       <c r="D60" t="n">
-        <v>1.704</v>
+        <v>1.708</v>
       </c>
       <c r="E60" t="n">
-        <v>1.704</v>
+        <v>1.708</v>
       </c>
       <c r="F60" t="n">
-        <v>11842.2276</v>
+        <v>207160</v>
       </c>
       <c r="G60" t="n">
-        <v>1.719199999999999</v>
+        <v>1.719633333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2660,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2674,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.703</v>
+        <v>1.704</v>
       </c>
       <c r="C61" t="n">
-        <v>1.7</v>
+        <v>1.704</v>
       </c>
       <c r="D61" t="n">
-        <v>1.714</v>
+        <v>1.704</v>
       </c>
       <c r="E61" t="n">
-        <v>1.684</v>
+        <v>1.704</v>
       </c>
       <c r="F61" t="n">
-        <v>6157051.673</v>
+        <v>11842.2276</v>
       </c>
       <c r="G61" t="n">
-        <v>1.719166666666665</v>
+        <v>1.719199999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2699,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2713,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.684</v>
+        <v>1.703</v>
       </c>
       <c r="C62" t="n">
-        <v>1.684</v>
+        <v>1.7</v>
       </c>
       <c r="D62" t="n">
-        <v>1.7</v>
+        <v>1.714</v>
       </c>
       <c r="E62" t="n">
         <v>1.684</v>
       </c>
       <c r="F62" t="n">
-        <v>2833372.5267</v>
+        <v>6157051.673</v>
       </c>
       <c r="G62" t="n">
-        <v>1.718399999999999</v>
+        <v>1.719166666666665</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2738,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2571,19 +2755,19 @@
         <v>1.684</v>
       </c>
       <c r="C63" t="n">
-        <v>1.683</v>
+        <v>1.684</v>
       </c>
       <c r="D63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E63" t="n">
         <v>1.684</v>
       </c>
-      <c r="E63" t="n">
-        <v>1.683</v>
-      </c>
       <c r="F63" t="n">
-        <v>48159.2218</v>
+        <v>2833372.5267</v>
       </c>
       <c r="G63" t="n">
-        <v>1.717616666666665</v>
+        <v>1.718399999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2777,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2791,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.683</v>
+        <v>1.684</v>
       </c>
       <c r="C64" t="n">
         <v>1.683</v>
       </c>
       <c r="D64" t="n">
-        <v>1.683</v>
+        <v>1.684</v>
       </c>
       <c r="E64" t="n">
         <v>1.683</v>
       </c>
       <c r="F64" t="n">
-        <v>11854.5136</v>
+        <v>48159.2218</v>
       </c>
       <c r="G64" t="n">
-        <v>1.716683333333332</v>
+        <v>1.717616666666665</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2816,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2830,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.682</v>
+        <v>1.683</v>
       </c>
       <c r="C65" t="n">
-        <v>1.682</v>
+        <v>1.683</v>
       </c>
       <c r="D65" t="n">
-        <v>1.682</v>
+        <v>1.683</v>
       </c>
       <c r="E65" t="n">
-        <v>1.682</v>
+        <v>1.683</v>
       </c>
       <c r="F65" t="n">
-        <v>156639.0076</v>
+        <v>11854.5136</v>
       </c>
       <c r="G65" t="n">
-        <v>1.715716666666665</v>
+        <v>1.716683333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2855,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2881,10 @@
         <v>1.682</v>
       </c>
       <c r="F66" t="n">
-        <v>20805.36</v>
+        <v>156639.0076</v>
       </c>
       <c r="G66" t="n">
-        <v>1.714749999999999</v>
+        <v>1.715716666666665</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2894,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +2920,10 @@
         <v>1.682</v>
       </c>
       <c r="F67" t="n">
-        <v>438906.5297</v>
+        <v>20805.36</v>
       </c>
       <c r="G67" t="n">
-        <v>1.713883333333332</v>
+        <v>1.714749999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2933,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2959,10 @@
         <v>1.682</v>
       </c>
       <c r="F68" t="n">
-        <v>239364.79</v>
+        <v>438906.5297</v>
       </c>
       <c r="G68" t="n">
-        <v>1.713066666666666</v>
+        <v>1.713883333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2972,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,36 +2986,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.696</v>
+        <v>1.682</v>
       </c>
       <c r="C69" t="n">
-        <v>1.696</v>
+        <v>1.682</v>
       </c>
       <c r="D69" t="n">
-        <v>1.696</v>
+        <v>1.682</v>
       </c>
       <c r="E69" t="n">
-        <v>1.696</v>
+        <v>1.682</v>
       </c>
       <c r="F69" t="n">
-        <v>367.2527</v>
+        <v>239364.79</v>
       </c>
       <c r="G69" t="n">
-        <v>1.712666666666666</v>
+        <v>1.713066666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2817,22 +3025,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.69</v>
+        <v>1.696</v>
       </c>
       <c r="C70" t="n">
-        <v>1.713</v>
+        <v>1.696</v>
       </c>
       <c r="D70" t="n">
-        <v>1.713</v>
+        <v>1.696</v>
       </c>
       <c r="E70" t="n">
-        <v>1.69</v>
+        <v>1.696</v>
       </c>
       <c r="F70" t="n">
-        <v>420933.2902</v>
+        <v>367.2527</v>
       </c>
       <c r="G70" t="n">
-        <v>1.712549999999999</v>
+        <v>1.712666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2841,12 +3049,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -2858,22 +3064,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="C71" t="n">
-        <v>1.7</v>
+        <v>1.713</v>
       </c>
       <c r="D71" t="n">
-        <v>1.7</v>
+        <v>1.713</v>
       </c>
       <c r="E71" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="F71" t="n">
-        <v>974749.2561999999</v>
+        <v>420933.2902</v>
       </c>
       <c r="G71" t="n">
-        <v>1.712049999999999</v>
+        <v>1.712549999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2882,12 +3088,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -2911,10 +3115,10 @@
         <v>1.7</v>
       </c>
       <c r="F72" t="n">
-        <v>430764</v>
+        <v>974749.2561999999</v>
       </c>
       <c r="G72" t="n">
-        <v>1.711883333333333</v>
+        <v>1.712049999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2924,7 +3128,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2934,22 +3142,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.683</v>
+        <v>1.7</v>
       </c>
       <c r="C73" t="n">
-        <v>1.683</v>
+        <v>1.7</v>
       </c>
       <c r="D73" t="n">
-        <v>1.683</v>
+        <v>1.7</v>
       </c>
       <c r="E73" t="n">
-        <v>1.683</v>
+        <v>1.7</v>
       </c>
       <c r="F73" t="n">
-        <v>774356.0946</v>
+        <v>430764</v>
       </c>
       <c r="G73" t="n">
-        <v>1.711433333333333</v>
+        <v>1.711883333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2959,7 +3167,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2969,22 +3181,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.7</v>
+        <v>1.683</v>
       </c>
       <c r="C74" t="n">
-        <v>1.7</v>
+        <v>1.683</v>
       </c>
       <c r="D74" t="n">
-        <v>1.7</v>
+        <v>1.683</v>
       </c>
       <c r="E74" t="n">
-        <v>1.7</v>
+        <v>1.683</v>
       </c>
       <c r="F74" t="n">
-        <v>113685.1078</v>
+        <v>774356.0946</v>
       </c>
       <c r="G74" t="n">
-        <v>1.711266666666666</v>
+        <v>1.711433333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2994,7 +3206,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3016,10 +3232,10 @@
         <v>1.7</v>
       </c>
       <c r="F75" t="n">
-        <v>75143.9457</v>
+        <v>113685.1078</v>
       </c>
       <c r="G75" t="n">
-        <v>1.710933333333333</v>
+        <v>1.711266666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3029,7 +3245,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3039,22 +3259,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.714</v>
+        <v>1.7</v>
       </c>
       <c r="C76" t="n">
-        <v>1.714</v>
+        <v>1.7</v>
       </c>
       <c r="D76" t="n">
-        <v>1.714</v>
+        <v>1.7</v>
       </c>
       <c r="E76" t="n">
-        <v>1.714</v>
+        <v>1.7</v>
       </c>
       <c r="F76" t="n">
-        <v>5100</v>
+        <v>75143.9457</v>
       </c>
       <c r="G76" t="n">
-        <v>1.71085</v>
+        <v>1.710933333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3064,7 +3284,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3074,22 +3298,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.696</v>
+        <v>1.714</v>
       </c>
       <c r="C77" t="n">
-        <v>1.695</v>
+        <v>1.714</v>
       </c>
       <c r="D77" t="n">
-        <v>1.696</v>
+        <v>1.714</v>
       </c>
       <c r="E77" t="n">
-        <v>1.695</v>
+        <v>1.714</v>
       </c>
       <c r="F77" t="n">
-        <v>18851</v>
+        <v>5100</v>
       </c>
       <c r="G77" t="n">
-        <v>1.710466666666666</v>
+        <v>1.71085</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3099,7 +3323,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3109,22 +3337,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="C78" t="n">
         <v>1.695</v>
       </c>
-      <c r="C78" t="n">
-        <v>1.714</v>
-      </c>
       <c r="D78" t="n">
-        <v>1.714</v>
+        <v>1.696</v>
       </c>
       <c r="E78" t="n">
-        <v>1.693</v>
+        <v>1.695</v>
       </c>
       <c r="F78" t="n">
-        <v>429067.5304</v>
+        <v>18851</v>
       </c>
       <c r="G78" t="n">
-        <v>1.710399999999999</v>
+        <v>1.710466666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3134,7 +3362,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3144,22 +3376,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C79" t="n">
         <v>1.714</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1.692</v>
       </c>
       <c r="D79" t="n">
         <v>1.714</v>
       </c>
       <c r="E79" t="n">
-        <v>1.692</v>
+        <v>1.693</v>
       </c>
       <c r="F79" t="n">
-        <v>368784.9553</v>
+        <v>429067.5304</v>
       </c>
       <c r="G79" t="n">
-        <v>1.709966666666666</v>
+        <v>1.710399999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3169,7 +3401,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3179,22 +3415,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="C80" t="n">
         <v>1.692</v>
       </c>
-      <c r="C80" t="n">
-        <v>1.691</v>
-      </c>
       <c r="D80" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E80" t="n">
         <v>1.692</v>
       </c>
-      <c r="E80" t="n">
-        <v>1.691</v>
-      </c>
       <c r="F80" t="n">
-        <v>955119.1341</v>
+        <v>368784.9553</v>
       </c>
       <c r="G80" t="n">
-        <v>1.709516666666666</v>
+        <v>1.709966666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3204,7 +3440,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3214,22 +3454,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.69</v>
+        <v>1.692</v>
       </c>
       <c r="C81" t="n">
-        <v>1.692</v>
+        <v>1.691</v>
       </c>
       <c r="D81" t="n">
         <v>1.692</v>
       </c>
       <c r="E81" t="n">
-        <v>1.69</v>
+        <v>1.691</v>
       </c>
       <c r="F81" t="n">
-        <v>832993.0694</v>
+        <v>955119.1341</v>
       </c>
       <c r="G81" t="n">
-        <v>1.709066666666666</v>
+        <v>1.709516666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3239,7 +3479,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3249,7 +3493,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.692</v>
+        <v>1.69</v>
       </c>
       <c r="C82" t="n">
         <v>1.692</v>
@@ -3258,13 +3502,13 @@
         <v>1.692</v>
       </c>
       <c r="E82" t="n">
-        <v>1.692</v>
+        <v>1.69</v>
       </c>
       <c r="F82" t="n">
-        <v>767055.206</v>
+        <v>832993.0694</v>
       </c>
       <c r="G82" t="n">
-        <v>1.708616666666666</v>
+        <v>1.709066666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3274,7 +3518,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3284,22 +3532,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.691</v>
+        <v>1.692</v>
       </c>
       <c r="C83" t="n">
-        <v>1.693</v>
+        <v>1.692</v>
       </c>
       <c r="D83" t="n">
-        <v>1.693</v>
+        <v>1.692</v>
       </c>
       <c r="E83" t="n">
-        <v>1.689</v>
+        <v>1.692</v>
       </c>
       <c r="F83" t="n">
-        <v>383987.8759</v>
+        <v>767055.206</v>
       </c>
       <c r="G83" t="n">
-        <v>1.708499999999999</v>
+        <v>1.708616666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3309,7 +3557,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3319,22 +3571,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C84" t="n">
         <v>1.693</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.688</v>
       </c>
       <c r="D84" t="n">
         <v>1.693</v>
       </c>
       <c r="E84" t="n">
-        <v>1.688</v>
+        <v>1.689</v>
       </c>
       <c r="F84" t="n">
-        <v>646203.6396</v>
+        <v>383987.8759</v>
       </c>
       <c r="G84" t="n">
-        <v>1.708133333333333</v>
+        <v>1.708499999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3344,7 +3596,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3610,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="C85" t="n">
         <v>1.688</v>
       </c>
-      <c r="C85" t="n">
-        <v>1.691</v>
-      </c>
       <c r="D85" t="n">
-        <v>1.691</v>
+        <v>1.693</v>
       </c>
       <c r="E85" t="n">
         <v>1.688</v>
       </c>
       <c r="F85" t="n">
-        <v>461890.1319</v>
+        <v>646203.6396</v>
       </c>
       <c r="G85" t="n">
-        <v>1.707733333333333</v>
+        <v>1.708133333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3379,7 +3635,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3389,22 +3649,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="C86" t="n">
         <v>1.691</v>
       </c>
-      <c r="C86" t="n">
-        <v>1.692</v>
-      </c>
       <c r="D86" t="n">
-        <v>1.692</v>
+        <v>1.691</v>
       </c>
       <c r="E86" t="n">
-        <v>1.691</v>
+        <v>1.688</v>
       </c>
       <c r="F86" t="n">
-        <v>268323</v>
+        <v>461890.1319</v>
       </c>
       <c r="G86" t="n">
-        <v>1.707133333333333</v>
+        <v>1.707733333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3414,7 +3674,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3427,19 +3691,19 @@
         <v>1.691</v>
       </c>
       <c r="C87" t="n">
-        <v>1.691</v>
+        <v>1.692</v>
       </c>
       <c r="D87" t="n">
         <v>1.692</v>
       </c>
       <c r="E87" t="n">
-        <v>1.688</v>
+        <v>1.691</v>
       </c>
       <c r="F87" t="n">
-        <v>281974.5126</v>
+        <v>268323</v>
       </c>
       <c r="G87" t="n">
-        <v>1.706533333333333</v>
+        <v>1.707133333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3449,7 +3713,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3462,19 +3730,19 @@
         <v>1.691</v>
       </c>
       <c r="C88" t="n">
-        <v>1.692</v>
+        <v>1.691</v>
       </c>
       <c r="D88" t="n">
         <v>1.692</v>
       </c>
       <c r="E88" t="n">
-        <v>1.691</v>
+        <v>1.688</v>
       </c>
       <c r="F88" t="n">
-        <v>380644.89</v>
+        <v>281974.5126</v>
       </c>
       <c r="G88" t="n">
-        <v>1.705749999999999</v>
+        <v>1.706533333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3484,7 +3752,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3494,36 +3766,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.692</v>
+        <v>1.691</v>
       </c>
       <c r="C89" t="n">
         <v>1.692</v>
       </c>
       <c r="D89" t="n">
-        <v>1.693</v>
+        <v>1.692</v>
       </c>
       <c r="E89" t="n">
-        <v>1.692</v>
+        <v>1.691</v>
       </c>
       <c r="F89" t="n">
-        <v>315015.21</v>
+        <v>380644.89</v>
       </c>
       <c r="G89" t="n">
-        <v>1.705166666666666</v>
+        <v>1.705749999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1.692</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -3538,29 +3808,27 @@
         <v>1.692</v>
       </c>
       <c r="C90" t="n">
-        <v>1.714</v>
+        <v>1.692</v>
       </c>
       <c r="D90" t="n">
-        <v>1.714</v>
+        <v>1.693</v>
       </c>
       <c r="E90" t="n">
         <v>1.692</v>
       </c>
       <c r="F90" t="n">
-        <v>71183.19</v>
+        <v>315015.21</v>
       </c>
       <c r="G90" t="n">
-        <v>1.704816666666666</v>
+        <v>1.705166666666666</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1.692</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3576,32 +3844,30 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.691</v>
+        <v>1.692</v>
       </c>
       <c r="C91" t="n">
-        <v>1.691</v>
+        <v>1.714</v>
       </c>
       <c r="D91" t="n">
-        <v>1.691</v>
+        <v>1.714</v>
       </c>
       <c r="E91" t="n">
-        <v>1.691</v>
+        <v>1.692</v>
       </c>
       <c r="F91" t="n">
-        <v>29516.2089</v>
+        <v>71183.19</v>
       </c>
       <c r="G91" t="n">
-        <v>1.704149999999999</v>
+        <v>1.704816666666666</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1.714</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3629,10 +3895,10 @@
         <v>1.691</v>
       </c>
       <c r="F92" t="n">
-        <v>207137.4</v>
+        <v>29516.2089</v>
       </c>
       <c r="G92" t="n">
-        <v>1.703683333333333</v>
+        <v>1.704149999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3668,10 +3934,10 @@
         <v>1.691</v>
       </c>
       <c r="F93" t="n">
-        <v>27745.2</v>
+        <v>207137.4</v>
       </c>
       <c r="G93" t="n">
-        <v>1.703016666666666</v>
+        <v>1.703683333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3698,19 +3964,19 @@
         <v>1.691</v>
       </c>
       <c r="C94" t="n">
-        <v>1.714</v>
+        <v>1.691</v>
       </c>
       <c r="D94" t="n">
-        <v>1.714</v>
+        <v>1.691</v>
       </c>
       <c r="E94" t="n">
         <v>1.691</v>
       </c>
       <c r="F94" t="n">
-        <v>534306.4824</v>
+        <v>27745.2</v>
       </c>
       <c r="G94" t="n">
-        <v>1.702933333333333</v>
+        <v>1.703016666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3734,22 +4000,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.71</v>
+        <v>1.691</v>
       </c>
       <c r="C95" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="D95" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="E95" t="n">
-        <v>1.71</v>
+        <v>1.691</v>
       </c>
       <c r="F95" t="n">
-        <v>650</v>
+        <v>534306.4824</v>
       </c>
       <c r="G95" t="n">
-        <v>1.702599999999999</v>
+        <v>1.702933333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3785,10 +4051,10 @@
         <v>1.71</v>
       </c>
       <c r="F96" t="n">
-        <v>20000</v>
+        <v>650</v>
       </c>
       <c r="G96" t="n">
-        <v>1.702433333333332</v>
+        <v>1.702599999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3824,10 +4090,10 @@
         <v>1.71</v>
       </c>
       <c r="F97" t="n">
-        <v>320281</v>
+        <v>20000</v>
       </c>
       <c r="G97" t="n">
-        <v>1.702566666666666</v>
+        <v>1.702433333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3863,10 +4129,10 @@
         <v>1.71</v>
       </c>
       <c r="F98" t="n">
-        <v>550286</v>
+        <v>320281</v>
       </c>
       <c r="G98" t="n">
-        <v>1.702416666666666</v>
+        <v>1.702566666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3902,10 +4168,10 @@
         <v>1.71</v>
       </c>
       <c r="F99" t="n">
-        <v>15162</v>
+        <v>550286</v>
       </c>
       <c r="G99" t="n">
-        <v>1.702266666666666</v>
+        <v>1.702416666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3929,22 +4195,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C100" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="D100" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E100" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="F100" t="n">
-        <v>2343</v>
+        <v>15162</v>
       </c>
       <c r="G100" t="n">
-        <v>1.702099999999999</v>
+        <v>1.702266666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3968,22 +4234,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="C101" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="E101" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="F101" t="n">
-        <v>118279.5292</v>
+        <v>2343</v>
       </c>
       <c r="G101" t="n">
-        <v>1.701949999999999</v>
+        <v>1.702099999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4007,22 +4273,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C102" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="D102" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E102" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="F102" t="n">
-        <v>200000</v>
+        <v>118279.5292</v>
       </c>
       <c r="G102" t="n">
-        <v>1.701783333333333</v>
+        <v>1.701949999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4046,22 +4312,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="C103" t="n">
         <v>1.709</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="E103" t="n">
         <v>1.709</v>
       </c>
       <c r="F103" t="n">
-        <v>440000</v>
+        <v>200000</v>
       </c>
       <c r="G103" t="n">
-        <v>1.701599999999999</v>
+        <v>1.701783333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4085,22 +4351,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C104" t="n">
         <v>1.709</v>
       </c>
       <c r="D104" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E104" t="n">
         <v>1.709</v>
       </c>
       <c r="F104" t="n">
-        <v>200000</v>
+        <v>440000</v>
       </c>
       <c r="G104" t="n">
-        <v>1.701416666666666</v>
+        <v>1.701599999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4127,36 +4393,34 @@
         <v>1.709</v>
       </c>
       <c r="C105" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="D105" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="E105" t="n">
         <v>1.709</v>
       </c>
       <c r="F105" t="n">
-        <v>275444</v>
+        <v>200000</v>
       </c>
       <c r="G105" t="n">
-        <v>1.701499999999999</v>
+        <v>1.701416666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4175,7 +4439,7 @@
         <v>1.709</v>
       </c>
       <c r="F106" t="n">
-        <v>896357.2036</v>
+        <v>275444</v>
       </c>
       <c r="G106" t="n">
         <v>1.701499999999999</v>
@@ -4188,11 +4452,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4202,7 +4462,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="C107" t="n">
         <v>1.71</v>
@@ -4211,27 +4471,23 @@
         <v>1.71</v>
       </c>
       <c r="E107" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="F107" t="n">
-        <v>1234.166</v>
+        <v>896357.2036</v>
       </c>
       <c r="G107" t="n">
-        <v>1.701633333333333</v>
+        <v>1.701499999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4253,10 +4509,10 @@
         <v>1.71</v>
       </c>
       <c r="F108" t="n">
-        <v>2110</v>
+        <v>1234.166</v>
       </c>
       <c r="G108" t="n">
-        <v>1.701316666666666</v>
+        <v>1.701633333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4266,11 +4522,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4292,10 +4544,10 @@
         <v>1.71</v>
       </c>
       <c r="F109" t="n">
-        <v>4092</v>
+        <v>2110</v>
       </c>
       <c r="G109" t="n">
-        <v>1.701099999999999</v>
+        <v>1.701316666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4305,11 +4557,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4319,22 +4567,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C110" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="D110" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E110" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="F110" t="n">
-        <v>60000</v>
+        <v>4092</v>
       </c>
       <c r="G110" t="n">
-        <v>1.700916666666666</v>
+        <v>1.701099999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4344,11 +4592,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4364,30 +4608,26 @@
         <v>1.709</v>
       </c>
       <c r="D111" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="E111" t="n">
         <v>1.709</v>
       </c>
       <c r="F111" t="n">
-        <v>360000</v>
+        <v>60000</v>
       </c>
       <c r="G111" t="n">
-        <v>1.700816666666666</v>
+        <v>1.700916666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4409,25 +4649,23 @@
         <v>1.709</v>
       </c>
       <c r="F112" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="G112" t="n">
-        <v>1.700799999999999</v>
+        <v>1.700816666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4440,22 +4678,22 @@
         <v>1.709</v>
       </c>
       <c r="D113" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E113" t="n">
         <v>1.709</v>
       </c>
       <c r="F113" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="G113" t="n">
-        <v>1.700783333333333</v>
+        <v>1.700799999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4469,28 +4707,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.708</v>
+        <v>1.709</v>
       </c>
       <c r="C114" t="n">
-        <v>1.708</v>
+        <v>1.709</v>
       </c>
       <c r="D114" t="n">
-        <v>1.708</v>
+        <v>1.709</v>
       </c>
       <c r="E114" t="n">
-        <v>1.708</v>
+        <v>1.709</v>
       </c>
       <c r="F114" t="n">
         <v>20000</v>
       </c>
       <c r="G114" t="n">
-        <v>1.70075</v>
+        <v>1.700783333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4516,10 +4754,10 @@
         <v>1.708</v>
       </c>
       <c r="F115" t="n">
-        <v>236166</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="n">
-        <v>1.700716666666666</v>
+        <v>1.70075</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4551,10 +4789,10 @@
         <v>1.708</v>
       </c>
       <c r="F116" t="n">
-        <v>4574</v>
+        <v>236166</v>
       </c>
       <c r="G116" t="n">
-        <v>1.700683333333333</v>
+        <v>1.700716666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4577,19 +4815,19 @@
         <v>1.708</v>
       </c>
       <c r="C117" t="n">
-        <v>1.709</v>
+        <v>1.708</v>
       </c>
       <c r="D117" t="n">
-        <v>1.709</v>
+        <v>1.708</v>
       </c>
       <c r="E117" t="n">
         <v>1.708</v>
       </c>
       <c r="F117" t="n">
-        <v>40000</v>
+        <v>4574</v>
       </c>
       <c r="G117" t="n">
-        <v>1.700583333333333</v>
+        <v>1.700683333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4609,22 +4847,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.709</v>
+        <v>1.708</v>
       </c>
       <c r="C118" t="n">
         <v>1.709</v>
       </c>
       <c r="D118" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="E118" t="n">
-        <v>1.709</v>
+        <v>1.708</v>
       </c>
       <c r="F118" t="n">
-        <v>300000</v>
+        <v>40000</v>
       </c>
       <c r="G118" t="n">
-        <v>1.7006</v>
+        <v>1.700583333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4647,7 +4885,7 @@
         <v>1.709</v>
       </c>
       <c r="C119" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="D119" t="n">
         <v>1.71</v>
@@ -4656,10 +4894,10 @@
         <v>1.709</v>
       </c>
       <c r="F119" t="n">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="G119" t="n">
-        <v>1.700633333333333</v>
+        <v>1.7006</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4679,22 +4917,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.707</v>
+        <v>1.709</v>
       </c>
       <c r="C120" t="n">
-        <v>1.707</v>
+        <v>1.71</v>
       </c>
       <c r="D120" t="n">
-        <v>1.707</v>
+        <v>1.71</v>
       </c>
       <c r="E120" t="n">
-        <v>1.707</v>
+        <v>1.709</v>
       </c>
       <c r="F120" t="n">
-        <v>129669.1892</v>
+        <v>100000</v>
       </c>
       <c r="G120" t="n">
-        <v>1.700683333333333</v>
+        <v>1.700633333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4714,22 +4952,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.706</v>
+        <v>1.707</v>
       </c>
       <c r="C121" t="n">
-        <v>1.706</v>
+        <v>1.707</v>
       </c>
       <c r="D121" t="n">
-        <v>1.706</v>
+        <v>1.707</v>
       </c>
       <c r="E121" t="n">
-        <v>1.706</v>
+        <v>1.707</v>
       </c>
       <c r="F121" t="n">
-        <v>300</v>
+        <v>129669.1892</v>
       </c>
       <c r="G121" t="n">
-        <v>1.700783333333333</v>
+        <v>1.700683333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4761,10 +4999,10 @@
         <v>1.706</v>
       </c>
       <c r="F122" t="n">
-        <v>38940.1173</v>
+        <v>300</v>
       </c>
       <c r="G122" t="n">
-        <v>1.70115</v>
+        <v>1.700783333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4784,22 +5022,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.705</v>
+        <v>1.706</v>
       </c>
       <c r="C123" t="n">
-        <v>1.705</v>
+        <v>1.706</v>
       </c>
       <c r="D123" t="n">
-        <v>1.705</v>
+        <v>1.706</v>
       </c>
       <c r="E123" t="n">
-        <v>1.705</v>
+        <v>1.706</v>
       </c>
       <c r="F123" t="n">
-        <v>5692.1046</v>
+        <v>38940.1173</v>
       </c>
       <c r="G123" t="n">
-        <v>1.701516666666666</v>
+        <v>1.70115</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4819,22 +5057,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.709</v>
+        <v>1.705</v>
       </c>
       <c r="C124" t="n">
-        <v>1.709</v>
+        <v>1.705</v>
       </c>
       <c r="D124" t="n">
-        <v>1.709</v>
+        <v>1.705</v>
       </c>
       <c r="E124" t="n">
-        <v>1.709</v>
+        <v>1.705</v>
       </c>
       <c r="F124" t="n">
-        <v>346.4965</v>
+        <v>5692.1046</v>
       </c>
       <c r="G124" t="n">
-        <v>1.70195</v>
+        <v>1.701516666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,10 +5104,10 @@
         <v>1.709</v>
       </c>
       <c r="F125" t="n">
-        <v>46846.0387</v>
+        <v>346.4965</v>
       </c>
       <c r="G125" t="n">
-        <v>1.7024</v>
+        <v>1.70195</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4889,22 +5127,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.704</v>
+        <v>1.709</v>
       </c>
       <c r="C126" t="n">
-        <v>1.704</v>
+        <v>1.709</v>
       </c>
       <c r="D126" t="n">
-        <v>1.704</v>
+        <v>1.709</v>
       </c>
       <c r="E126" t="n">
-        <v>1.704</v>
+        <v>1.709</v>
       </c>
       <c r="F126" t="n">
-        <v>300</v>
+        <v>46846.0387</v>
       </c>
       <c r="G126" t="n">
-        <v>1.702766666666666</v>
+        <v>1.7024</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4924,22 +5162,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.709</v>
+        <v>1.704</v>
       </c>
       <c r="C127" t="n">
-        <v>1.701</v>
+        <v>1.704</v>
       </c>
       <c r="D127" t="n">
-        <v>1.709</v>
+        <v>1.704</v>
       </c>
       <c r="E127" t="n">
-        <v>1.701</v>
+        <v>1.704</v>
       </c>
       <c r="F127" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="G127" t="n">
-        <v>1.703083333333333</v>
+        <v>1.702766666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4962,19 +5200,19 @@
         <v>1.709</v>
       </c>
       <c r="C128" t="n">
-        <v>1.71</v>
+        <v>1.701</v>
       </c>
       <c r="D128" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="E128" t="n">
-        <v>1.709</v>
+        <v>1.701</v>
       </c>
       <c r="F128" t="n">
-        <v>474965.6262</v>
+        <v>1900</v>
       </c>
       <c r="G128" t="n">
-        <v>1.703549999999999</v>
+        <v>1.703083333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4994,7 +5232,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="C129" t="n">
         <v>1.71</v>
@@ -5003,13 +5241,13 @@
         <v>1.71</v>
       </c>
       <c r="E129" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="F129" t="n">
-        <v>825034.3737999999</v>
+        <v>474965.6262</v>
       </c>
       <c r="G129" t="n">
-        <v>1.703783333333333</v>
+        <v>1.703549999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5029,22 +5267,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="C130" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="D130" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="E130" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="F130" t="n">
-        <v>300</v>
+        <v>825034.3737999999</v>
       </c>
       <c r="G130" t="n">
-        <v>1.703616666666666</v>
+        <v>1.703783333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5064,28 +5302,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.715</v>
+        <v>1.703</v>
       </c>
       <c r="C131" t="n">
-        <v>1.715</v>
+        <v>1.703</v>
       </c>
       <c r="D131" t="n">
-        <v>1.715</v>
+        <v>1.703</v>
       </c>
       <c r="E131" t="n">
-        <v>1.715</v>
+        <v>1.703</v>
       </c>
       <c r="F131" t="n">
-        <v>651.3119533527697</v>
+        <v>300</v>
       </c>
       <c r="G131" t="n">
-        <v>1.703866666666666</v>
+        <v>1.703616666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5099,22 +5337,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.703</v>
+        <v>1.715</v>
       </c>
       <c r="C132" t="n">
-        <v>1.703</v>
+        <v>1.715</v>
       </c>
       <c r="D132" t="n">
-        <v>1.703</v>
+        <v>1.715</v>
       </c>
       <c r="E132" t="n">
-        <v>1.703</v>
+        <v>1.715</v>
       </c>
       <c r="F132" t="n">
-        <v>11854.5136</v>
+        <v>651.3119533527697</v>
       </c>
       <c r="G132" t="n">
-        <v>1.703916666666666</v>
+        <v>1.703866666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5129,6 +5367,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="F133" t="n">
+        <v>11854.5136</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.703916666666666</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-22 BackTest MXC.xlsx
+++ b/BackTest/2020-01-22 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>80000</v>
       </c>
       <c r="G2" t="n">
+        <v>1.725466666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.713983333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>290</v>
       </c>
       <c r="G3" t="n">
+        <v>1.725266666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.714816666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1700</v>
       </c>
       <c r="G4" t="n">
+        <v>1.724733333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.715149999999999</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>48908</v>
       </c>
       <c r="G5" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.715649999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>39904</v>
       </c>
       <c r="G6" t="n">
+        <v>1.725333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.716599999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>11855.8014</v>
       </c>
       <c r="G7" t="n">
+        <v>1.724933333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.717099999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>506537.7559</v>
       </c>
       <c r="G8" t="n">
+        <v>1.724266666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.717499999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>702676.6317</v>
       </c>
       <c r="G9" t="n">
+        <v>1.7244</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.717849999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2000</v>
       </c>
       <c r="G10" t="n">
+        <v>1.723133333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.718016666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>981515.8731</v>
       </c>
       <c r="G11" t="n">
+        <v>1.721866666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.718183333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1904725.5218</v>
       </c>
       <c r="G12" t="n">
+        <v>1.7232</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.718516666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>225339.3798</v>
       </c>
       <c r="G13" t="n">
+        <v>1.723866666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.718849999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>103673</v>
       </c>
       <c r="G14" t="n">
+        <v>1.724533333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.719183333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>220000</v>
       </c>
       <c r="G15" t="n">
+        <v>1.725066666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.719516666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>42528</v>
       </c>
       <c r="G16" t="n">
+        <v>1.7244</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.719683333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>60000</v>
       </c>
       <c r="G17" t="n">
+        <v>1.725533333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.719833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,24 +1061,21 @@
         <v>220000</v>
       </c>
       <c r="G18" t="n">
+        <v>1.724733333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.720383333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.719</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1049,22 +1099,21 @@
         <v>20000</v>
       </c>
       <c r="G19" t="n">
+        <v>1.723933333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.720516666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1088,22 +1137,21 @@
         <v>40000</v>
       </c>
       <c r="G20" t="n">
+        <v>1.722533333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.720816666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1127,22 +1175,21 @@
         <v>207634</v>
       </c>
       <c r="G21" t="n">
+        <v>1.721066666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.721283333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,22 +1213,21 @@
         <v>60000</v>
       </c>
       <c r="G22" t="n">
+        <v>1.719666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.721766666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1205,24 +1251,21 @@
         <v>40000</v>
       </c>
       <c r="G23" t="n">
+        <v>1.718666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.722249999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.719</v>
+        <v>0</v>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1246,22 +1289,21 @@
         <v>470000</v>
       </c>
       <c r="G24" t="n">
+        <v>1.7166</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.722083333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,22 +1327,21 @@
         <v>60000</v>
       </c>
       <c r="G25" t="n">
+        <v>1.715933333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.722083333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1324,22 +1365,21 @@
         <v>340686</v>
       </c>
       <c r="G26" t="n">
+        <v>1.7156</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.722183333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,22 +1403,21 @@
         <v>20000</v>
       </c>
       <c r="G27" t="n">
+        <v>1.715466666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.722516666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1402,22 +1441,21 @@
         <v>587.7169</v>
       </c>
       <c r="G28" t="n">
+        <v>1.7166</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.722833333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1441,22 +1479,21 @@
         <v>405438</v>
       </c>
       <c r="G29" t="n">
+        <v>1.718533333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.72335</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,22 +1517,21 @@
         <v>17044.3407</v>
       </c>
       <c r="G30" t="n">
+        <v>1.719666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.723666666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1519,22 +1555,21 @@
         <v>17291.0663</v>
       </c>
       <c r="G31" t="n">
+        <v>1.720666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.724116666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,22 +1593,21 @@
         <v>17005.77700751011</v>
       </c>
       <c r="G32" t="n">
+        <v>1.721466666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.724466666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1597,22 +1631,21 @@
         <v>7355</v>
       </c>
       <c r="G33" t="n">
+        <v>1.721533333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.724616666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1636,22 +1669,21 @@
         <v>290</v>
       </c>
       <c r="G34" t="n">
+        <v>1.7224</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.724966666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,22 +1707,21 @@
         <v>0.0742</v>
       </c>
       <c r="G35" t="n">
+        <v>1.722466666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.725116666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,22 +1745,21 @@
         <v>40000</v>
       </c>
       <c r="G36" t="n">
+        <v>1.723266666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.725283333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,22 +1783,21 @@
         <v>371417.1558</v>
       </c>
       <c r="G37" t="n">
+        <v>1.723333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.725283333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1792,22 +1821,21 @@
         <v>300</v>
       </c>
       <c r="G38" t="n">
+        <v>1.7222</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.725483333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,22 +1859,21 @@
         <v>160000</v>
       </c>
       <c r="G39" t="n">
+        <v>1.723466666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.725133333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1870,22 +1897,21 @@
         <v>116057.7323</v>
       </c>
       <c r="G40" t="n">
+        <v>1.724066666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.724783333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1909,22 +1935,21 @@
         <v>20000</v>
       </c>
       <c r="G41" t="n">
+        <v>1.724333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.72445</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1948,22 +1973,21 @@
         <v>60000</v>
       </c>
       <c r="G42" t="n">
+        <v>1.723733333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.7243</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1987,22 +2011,21 @@
         <v>5002.9405</v>
       </c>
       <c r="G43" t="n">
+        <v>1.723200000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.7242</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,22 +2049,21 @@
         <v>174383</v>
       </c>
       <c r="G44" t="n">
+        <v>1.721933333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.723883333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2065,22 +2087,21 @@
         <v>40000</v>
       </c>
       <c r="G45" t="n">
+        <v>1.721466666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.723616666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2104,22 +2125,21 @@
         <v>4571.2601</v>
       </c>
       <c r="G46" t="n">
+        <v>1.719466666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.723099999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2143,22 +2163,21 @@
         <v>197729.6446</v>
       </c>
       <c r="G47" t="n">
+        <v>1.718066666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.722633333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,22 +2201,21 @@
         <v>893452.6376</v>
       </c>
       <c r="G48" t="n">
+        <v>1.716933333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.722116666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2221,22 +2239,21 @@
         <v>200000</v>
       </c>
       <c r="G49" t="n">
+        <v>1.7168</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.721966666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2260,22 +2277,21 @@
         <v>20000</v>
       </c>
       <c r="G50" t="n">
+        <v>1.717066666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.721766666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2299,22 +2315,21 @@
         <v>100000</v>
       </c>
       <c r="G51" t="n">
+        <v>1.7164</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.721516666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,22 +2353,21 @@
         <v>11617</v>
       </c>
       <c r="G52" t="n">
+        <v>1.716066666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.720999999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2377,22 +2391,21 @@
         <v>62147</v>
       </c>
       <c r="G53" t="n">
+        <v>1.7166</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.720433333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,22 +2429,21 @@
         <v>47675</v>
       </c>
       <c r="G54" t="n">
+        <v>1.716</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.720116666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2455,22 +2467,21 @@
         <v>280000</v>
       </c>
       <c r="G55" t="n">
+        <v>1.7154</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.719633333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,22 +2505,21 @@
         <v>120000</v>
       </c>
       <c r="G56" t="n">
+        <v>1.7148</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.719149999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,22 +2543,21 @@
         <v>23620.8097</v>
       </c>
       <c r="G57" t="n">
+        <v>1.7142</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.719149999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2572,22 +2581,21 @@
         <v>211589</v>
       </c>
       <c r="G58" t="n">
+        <v>1.713933333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.719399999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2611,22 +2619,21 @@
         <v>588620.3329</v>
       </c>
       <c r="G59" t="n">
+        <v>1.713133333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.719533333333332</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2650,22 +2657,21 @@
         <v>207160</v>
       </c>
       <c r="G60" t="n">
+        <v>1.712333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.719633333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,22 +2695,21 @@
         <v>11842.2276</v>
       </c>
       <c r="G61" t="n">
+        <v>1.712266666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.719199999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2728,22 +2733,21 @@
         <v>6157051.673</v>
       </c>
       <c r="G62" t="n">
+        <v>1.7116</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.719166666666665</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2767,22 +2771,21 @@
         <v>2833372.5267</v>
       </c>
       <c r="G63" t="n">
+        <v>1.7104</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.718399999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2806,22 +2809,21 @@
         <v>48159.2218</v>
       </c>
       <c r="G64" t="n">
+        <v>1.707333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.717616666666665</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,22 +2847,21 @@
         <v>11854.5136</v>
       </c>
       <c r="G65" t="n">
+        <v>1.704666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.716683333333332</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2884,22 +2885,21 @@
         <v>156639.0076</v>
       </c>
       <c r="G66" t="n">
+        <v>1.702133333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.715716666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2923,22 +2923,21 @@
         <v>20805.36</v>
       </c>
       <c r="G67" t="n">
+        <v>1.699933333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.714749999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,22 +2961,25 @@
         <v>438906.5297</v>
       </c>
       <c r="G68" t="n">
+        <v>1.698066666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.713883333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3001,22 +3003,29 @@
         <v>239364.79</v>
       </c>
       <c r="G69" t="n">
+        <v>1.6962</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.713066666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,22 +3049,29 @@
         <v>367.2527</v>
       </c>
       <c r="G70" t="n">
+        <v>1.695266666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.712666666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,22 +3095,29 @@
         <v>420933.2902</v>
       </c>
       <c r="G71" t="n">
+        <v>1.695466666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.712549999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,22 +3141,27 @@
         <v>974749.2561999999</v>
       </c>
       <c r="G72" t="n">
+        <v>1.6948</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.712049999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3157,22 +3185,27 @@
         <v>430764</v>
       </c>
       <c r="G73" t="n">
+        <v>1.6938</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.711883333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,22 +3229,27 @@
         <v>774356.0946</v>
       </c>
       <c r="G74" t="n">
+        <v>1.692133333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.711433333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3235,22 +3273,27 @@
         <v>113685.1078</v>
       </c>
       <c r="G75" t="n">
+        <v>1.6916</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.711266666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,22 +3317,27 @@
         <v>75143.9457</v>
       </c>
       <c r="G76" t="n">
+        <v>1.691333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.710933333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3313,22 +3361,27 @@
         <v>5100</v>
       </c>
       <c r="G77" t="n">
+        <v>1.692266666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.71085</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,22 +3405,27 @@
         <v>18851</v>
       </c>
       <c r="G78" t="n">
+        <v>1.692999999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.710466666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3391,22 +3449,27 @@
         <v>429067.5304</v>
       </c>
       <c r="G79" t="n">
+        <v>1.695066666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.710399999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,22 +3493,27 @@
         <v>368784.9553</v>
       </c>
       <c r="G80" t="n">
+        <v>1.695666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.709966666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3469,22 +3537,27 @@
         <v>955119.1341</v>
       </c>
       <c r="G81" t="n">
+        <v>1.696266666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.709516666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,22 +3581,27 @@
         <v>832993.0694</v>
       </c>
       <c r="G82" t="n">
+        <v>1.696933333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.709066666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3547,22 +3625,27 @@
         <v>767055.206</v>
       </c>
       <c r="G83" t="n">
+        <v>1.6976</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.708616666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3586,22 +3669,27 @@
         <v>383987.8759</v>
       </c>
       <c r="G84" t="n">
+        <v>1.698333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.708499999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3625,22 +3713,27 @@
         <v>646203.6396</v>
       </c>
       <c r="G85" t="n">
+        <v>1.6978</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.708133333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3664,22 +3757,27 @@
         <v>461890.1319</v>
       </c>
       <c r="G86" t="n">
+        <v>1.696333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.707733333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,22 +3801,27 @@
         <v>268323</v>
       </c>
       <c r="G87" t="n">
+        <v>1.6958</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.707133333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,22 +3845,27 @@
         <v>281974.5126</v>
       </c>
       <c r="G88" t="n">
+        <v>1.6952</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.706533333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3781,22 +3889,27 @@
         <v>380644.89</v>
       </c>
       <c r="G89" t="n">
+        <v>1.6958</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.705749999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,22 +3933,27 @@
         <v>315015.21</v>
       </c>
       <c r="G90" t="n">
+        <v>1.695266666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.705166666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,22 +3977,27 @@
         <v>71183.19</v>
       </c>
       <c r="G91" t="n">
+        <v>1.6962</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.704816666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,22 +4021,27 @@
         <v>29516.2089</v>
       </c>
       <c r="G92" t="n">
+        <v>1.694666666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.704149999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3937,22 +4065,27 @@
         <v>207137.4</v>
       </c>
       <c r="G93" t="n">
+        <v>1.694399999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.703683333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,22 +4109,27 @@
         <v>27745.2</v>
       </c>
       <c r="G94" t="n">
+        <v>1.692866666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.703016666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,22 +4153,27 @@
         <v>534306.4824</v>
       </c>
       <c r="G95" t="n">
+        <v>1.694333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.702933333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,22 +4197,27 @@
         <v>650</v>
       </c>
       <c r="G96" t="n">
+        <v>1.6956</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.702599999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4093,22 +4241,27 @@
         <v>20000</v>
       </c>
       <c r="G97" t="n">
+        <v>1.6968</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.702433333333332</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,22 +4285,27 @@
         <v>320281</v>
       </c>
       <c r="G98" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.702566666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,22 +4329,27 @@
         <v>550286</v>
       </c>
       <c r="G99" t="n">
+        <v>1.699133333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.702416666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,22 +4373,27 @@
         <v>15162</v>
       </c>
       <c r="G100" t="n">
+        <v>1.7006</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.702266666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4249,22 +4417,27 @@
         <v>2343</v>
       </c>
       <c r="G101" t="n">
+        <v>1.7018</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.702099999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4288,22 +4461,27 @@
         <v>118279.5292</v>
       </c>
       <c r="G102" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.701949999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4327,22 +4505,27 @@
         <v>200000</v>
       </c>
       <c r="G103" t="n">
+        <v>1.7042</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.701783333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,22 +4549,27 @@
         <v>440000</v>
       </c>
       <c r="G104" t="n">
+        <v>1.705333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.701599999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,22 +4593,29 @@
         <v>200000</v>
       </c>
       <c r="G105" t="n">
+        <v>1.706466666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.701416666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4442,18 +4637,27 @@
         <v>275444</v>
       </c>
       <c r="G106" t="n">
+        <v>1.7062</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.701499999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,18 +4681,27 @@
         <v>896357.2036</v>
       </c>
       <c r="G107" t="n">
+        <v>1.707466666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.701499999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4512,18 +4725,27 @@
         <v>1234.166</v>
       </c>
       <c r="G108" t="n">
+        <v>1.708733333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.701633333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4547,18 +4769,27 @@
         <v>2110</v>
       </c>
       <c r="G109" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.701316666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,18 +4813,27 @@
         <v>4092</v>
       </c>
       <c r="G110" t="n">
+        <v>1.709733333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.701099999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4617,18 +4857,27 @@
         <v>60000</v>
       </c>
       <c r="G111" t="n">
+        <v>1.709666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.700916666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,18 +4901,27 @@
         <v>360000</v>
       </c>
       <c r="G112" t="n">
+        <v>1.7096</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.700816666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4687,18 +4945,27 @@
         <v>240000</v>
       </c>
       <c r="G113" t="n">
+        <v>1.709533333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.700799999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4722,18 +4989,27 @@
         <v>20000</v>
       </c>
       <c r="G114" t="n">
+        <v>1.709466666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.700783333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,18 +5033,27 @@
         <v>20000</v>
       </c>
       <c r="G115" t="n">
+        <v>1.709333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.70075</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4792,18 +5077,27 @@
         <v>236166</v>
       </c>
       <c r="G116" t="n">
+        <v>1.709266666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.700716666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4827,18 +5121,27 @@
         <v>4574</v>
       </c>
       <c r="G117" t="n">
+        <v>1.709133333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.700683333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,18 +5165,27 @@
         <v>40000</v>
       </c>
       <c r="G118" t="n">
+        <v>1.709133333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.700583333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4897,18 +5209,27 @@
         <v>300000</v>
       </c>
       <c r="G119" t="n">
+        <v>1.709133333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.7006</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,18 +5253,27 @@
         <v>100000</v>
       </c>
       <c r="G120" t="n">
+        <v>1.7092</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.700633333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4967,18 +5297,27 @@
         <v>129669.1892</v>
       </c>
       <c r="G121" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.700683333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5002,18 +5341,27 @@
         <v>300</v>
       </c>
       <c r="G122" t="n">
+        <v>1.708733333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.700783333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5037,18 +5385,27 @@
         <v>38940.1173</v>
       </c>
       <c r="G123" t="n">
+        <v>1.708466666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.70115</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,18 +5429,27 @@
         <v>5692.1046</v>
       </c>
       <c r="G124" t="n">
+        <v>1.708133333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.701516666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5107,18 +5473,27 @@
         <v>346.4965</v>
       </c>
       <c r="G125" t="n">
+        <v>1.708066666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.70195</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,18 +5517,27 @@
         <v>46846.0387</v>
       </c>
       <c r="G126" t="n">
+        <v>1.708066666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.7024</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5177,18 +5561,27 @@
         <v>300</v>
       </c>
       <c r="G127" t="n">
+        <v>1.707733333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.702766666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5212,18 +5605,27 @@
         <v>1900</v>
       </c>
       <c r="G128" t="n">
+        <v>1.7072</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.703083333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5247,18 +5649,27 @@
         <v>474965.6262</v>
       </c>
       <c r="G129" t="n">
+        <v>1.707266666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.703549999999999</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,18 +5693,27 @@
         <v>825034.3737999999</v>
       </c>
       <c r="G130" t="n">
+        <v>1.7074</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.703783333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5317,18 +5737,27 @@
         <v>300</v>
       </c>
       <c r="G131" t="n">
+        <v>1.707066666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.703616666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5352,18 +5781,27 @@
         <v>651.3119533527697</v>
       </c>
       <c r="G132" t="n">
+        <v>1.707533333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.703866666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5387,19 +5825,468 @@
         <v>11854.5136</v>
       </c>
       <c r="G133" t="n">
+        <v>1.707133333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.703916666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
+      <c r="L133" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="F134" t="n">
+        <v>300</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.707466666666666</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.704433333333333</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F135" t="n">
+        <v>300</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.7078</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.704683333333332</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1159946.186484704</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.709266666666666</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.705166666666666</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F137" t="n">
+        <v>58061.8188</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.710733333333333</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.705399999999999</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="F138" t="n">
+        <v>300</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.7112</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.705699999999999</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F139" t="n">
+        <v>41370</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.712733333333333</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.705933333333332</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F140" t="n">
+        <v>165412</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.706533333333332</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.716066666666667</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.707349999999999</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="F142" t="n">
+        <v>517372.9384</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.7192</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.708333333333332</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="F143" t="n">
+        <v>106604</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.724333333333333</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.709766666666666</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1.052074910820452</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2020-01-22 BackTest MXC.xlsx
+++ b/BackTest/2020-01-22 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="C2" t="n">
-        <v>1.702</v>
+        <v>1.71</v>
       </c>
       <c r="D2" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="E2" t="n">
-        <v>1.702</v>
+        <v>1.71</v>
       </c>
       <c r="F2" t="n">
-        <v>80000</v>
+        <v>35323.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.725466666666666</v>
+        <v>-12004857.90811765</v>
       </c>
       <c r="H2" t="n">
-        <v>1.713983333333332</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="C3" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="D3" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="E3" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="F3" t="n">
-        <v>290</v>
+        <v>11774.6</v>
       </c>
       <c r="G3" t="n">
-        <v>1.725266666666667</v>
+        <v>-12004857.90811765</v>
       </c>
       <c r="H3" t="n">
-        <v>1.714816666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="C4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="D4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="E4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="F4" t="n">
-        <v>1700</v>
+        <v>19202.2662</v>
       </c>
       <c r="G4" t="n">
-        <v>1.724733333333333</v>
+        <v>-12004857.90811765</v>
       </c>
       <c r="H4" t="n">
-        <v>1.715149999999999</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="C5" t="n">
-        <v>1.739</v>
+        <v>1.72</v>
       </c>
       <c r="D5" t="n">
-        <v>1.739</v>
+        <v>1.72</v>
       </c>
       <c r="E5" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="F5" t="n">
-        <v>48908</v>
+        <v>100000</v>
       </c>
       <c r="G5" t="n">
-        <v>1.725</v>
+        <v>-11904857.90811765</v>
       </c>
       <c r="H5" t="n">
-        <v>1.715649999999999</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.739</v>
+        <v>1.72</v>
       </c>
       <c r="C6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="D6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="E6" t="n">
-        <v>1.739</v>
+        <v>1.72</v>
       </c>
       <c r="F6" t="n">
-        <v>39904</v>
+        <v>100000</v>
       </c>
       <c r="G6" t="n">
-        <v>1.725333333333333</v>
+        <v>-11904857.90811765</v>
       </c>
       <c r="H6" t="n">
-        <v>1.716599999999999</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="C7" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="D7" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="F7" t="n">
-        <v>11855.8014</v>
+        <v>560440.3599</v>
       </c>
       <c r="G7" t="n">
-        <v>1.724933333333333</v>
+        <v>-12465298.26801765</v>
       </c>
       <c r="H7" t="n">
-        <v>1.717099999999999</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -669,33 +646,30 @@
         <v>1.72</v>
       </c>
       <c r="C8" t="n">
-        <v>1.734</v>
+        <v>1.74</v>
       </c>
       <c r="D8" t="n">
-        <v>1.734</v>
+        <v>1.74</v>
       </c>
       <c r="E8" t="n">
         <v>1.72</v>
       </c>
       <c r="F8" t="n">
-        <v>506537.7559</v>
+        <v>347757.7309</v>
       </c>
       <c r="G8" t="n">
-        <v>1.724266666666666</v>
+        <v>-12117540.53711765</v>
       </c>
       <c r="H8" t="n">
-        <v>1.717499999999999</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.711</v>
+        <v>1.74</v>
       </c>
       <c r="C9" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="D9" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="E9" t="n">
-        <v>1.711</v>
+        <v>1.74</v>
       </c>
       <c r="F9" t="n">
-        <v>702676.6317</v>
+        <v>9943.652</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7244</v>
+        <v>-12117540.53711765</v>
       </c>
       <c r="H9" t="n">
-        <v>1.717849999999999</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="C10" t="n">
-        <v>1.72</v>
+        <v>1.739</v>
       </c>
       <c r="D10" t="n">
-        <v>1.72</v>
+        <v>1.739</v>
       </c>
       <c r="E10" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="F10" t="n">
-        <v>2000</v>
+        <v>6718437.7963</v>
       </c>
       <c r="G10" t="n">
-        <v>1.723133333333333</v>
+        <v>-18835978.33341765</v>
       </c>
       <c r="H10" t="n">
-        <v>1.718016666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.72</v>
+        <v>1.728</v>
       </c>
       <c r="C11" t="n">
-        <v>1.72</v>
+        <v>1.728</v>
       </c>
       <c r="D11" t="n">
-        <v>1.72</v>
+        <v>1.728</v>
       </c>
       <c r="E11" t="n">
-        <v>1.72</v>
+        <v>1.728</v>
       </c>
       <c r="F11" t="n">
-        <v>981515.8731</v>
+        <v>12385822.3298</v>
       </c>
       <c r="G11" t="n">
-        <v>1.721866666666666</v>
+        <v>-31221800.66321765</v>
       </c>
       <c r="H11" t="n">
-        <v>1.718183333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.711</v>
+        <v>1.725</v>
       </c>
       <c r="C12" t="n">
-        <v>1.73</v>
+        <v>1.725</v>
       </c>
       <c r="D12" t="n">
-        <v>1.73</v>
+        <v>1.725</v>
       </c>
       <c r="E12" t="n">
-        <v>1.702</v>
+        <v>1.725</v>
       </c>
       <c r="F12" t="n">
-        <v>1904725.5218</v>
+        <v>3294.8272</v>
       </c>
       <c r="G12" t="n">
-        <v>1.7232</v>
+        <v>-31225095.49041765</v>
       </c>
       <c r="H12" t="n">
-        <v>1.718516666666666</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.715</v>
+        <v>1.726</v>
       </c>
       <c r="C13" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="D13" t="n">
-        <v>1.715</v>
+        <v>1.739</v>
       </c>
       <c r="E13" t="n">
-        <v>1.71</v>
+        <v>1.726</v>
       </c>
       <c r="F13" t="n">
-        <v>225339.3798</v>
+        <v>716233.8493</v>
       </c>
       <c r="G13" t="n">
-        <v>1.723866666666666</v>
+        <v>-30508861.64111765</v>
       </c>
       <c r="H13" t="n">
-        <v>1.718849999999999</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="C14" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="D14" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="E14" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="F14" t="n">
-        <v>103673</v>
+        <v>74781.7366</v>
       </c>
       <c r="G14" t="n">
-        <v>1.724533333333333</v>
+        <v>-30583643.37771765</v>
       </c>
       <c r="H14" t="n">
-        <v>1.719183333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="C15" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="D15" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="E15" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="F15" t="n">
-        <v>220000</v>
+        <v>6739941.316</v>
       </c>
       <c r="G15" t="n">
-        <v>1.725066666666667</v>
+        <v>-30583643.37771765</v>
       </c>
       <c r="H15" t="n">
-        <v>1.719516666666666</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.71</v>
+        <v>1.738</v>
       </c>
       <c r="C16" t="n">
-        <v>1.72</v>
+        <v>1.738</v>
       </c>
       <c r="D16" t="n">
-        <v>1.72</v>
+        <v>1.738</v>
       </c>
       <c r="E16" t="n">
-        <v>1.71</v>
+        <v>1.738</v>
       </c>
       <c r="F16" t="n">
-        <v>42528</v>
+        <v>172386.0116</v>
       </c>
       <c r="G16" t="n">
-        <v>1.7244</v>
+        <v>-30411257.36611765</v>
       </c>
       <c r="H16" t="n">
-        <v>1.719683333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.719</v>
+        <v>1.733</v>
       </c>
       <c r="C17" t="n">
-        <v>1.719</v>
+        <v>1.733</v>
       </c>
       <c r="D17" t="n">
-        <v>1.719</v>
+        <v>1.733</v>
       </c>
       <c r="E17" t="n">
-        <v>1.719</v>
+        <v>1.733</v>
       </c>
       <c r="F17" t="n">
-        <v>60000</v>
+        <v>6761643.4649</v>
       </c>
       <c r="G17" t="n">
-        <v>1.725533333333333</v>
+        <v>-37172900.83101765</v>
       </c>
       <c r="H17" t="n">
-        <v>1.719833333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.715</v>
+        <v>1.733</v>
       </c>
       <c r="C18" t="n">
-        <v>1.718</v>
+        <v>1.738</v>
       </c>
       <c r="D18" t="n">
-        <v>1.718</v>
+        <v>1.738</v>
       </c>
       <c r="E18" t="n">
-        <v>1.715</v>
+        <v>1.733</v>
       </c>
       <c r="F18" t="n">
-        <v>220000</v>
+        <v>6773481.2003</v>
       </c>
       <c r="G18" t="n">
-        <v>1.724733333333333</v>
+        <v>-30399419.63071765</v>
       </c>
       <c r="H18" t="n">
-        <v>1.720383333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.718</v>
+        <v>1.735</v>
       </c>
       <c r="C19" t="n">
-        <v>1.718</v>
+        <v>1.735</v>
       </c>
       <c r="D19" t="n">
-        <v>1.718</v>
+        <v>1.735</v>
       </c>
       <c r="E19" t="n">
-        <v>1.718</v>
+        <v>1.735</v>
       </c>
       <c r="F19" t="n">
-        <v>20000</v>
+        <v>6493284.0114</v>
       </c>
       <c r="G19" t="n">
-        <v>1.723933333333333</v>
+        <v>-36892703.64211765</v>
       </c>
       <c r="H19" t="n">
-        <v>1.720516666666666</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.718</v>
+        <v>1.735</v>
       </c>
       <c r="C20" t="n">
-        <v>1.718</v>
+        <v>1.735</v>
       </c>
       <c r="D20" t="n">
-        <v>1.718</v>
+        <v>1.735</v>
       </c>
       <c r="E20" t="n">
-        <v>1.718</v>
+        <v>1.735</v>
       </c>
       <c r="F20" t="n">
-        <v>40000</v>
+        <v>6425645.6303</v>
       </c>
       <c r="G20" t="n">
-        <v>1.722533333333333</v>
+        <v>-36892703.64211765</v>
       </c>
       <c r="H20" t="n">
-        <v>1.720816666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.718</v>
+        <v>1.73</v>
       </c>
       <c r="C21" t="n">
-        <v>1.718</v>
+        <v>1.746</v>
       </c>
       <c r="D21" t="n">
-        <v>1.718</v>
+        <v>1.746</v>
       </c>
       <c r="E21" t="n">
-        <v>1.718</v>
+        <v>1.73</v>
       </c>
       <c r="F21" t="n">
-        <v>207634</v>
+        <v>6681788.5966</v>
       </c>
       <c r="G21" t="n">
-        <v>1.721066666666666</v>
+        <v>-30210915.04551765</v>
       </c>
       <c r="H21" t="n">
-        <v>1.721283333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.718</v>
+        <v>1.744</v>
       </c>
       <c r="C22" t="n">
-        <v>1.719</v>
+        <v>1.744</v>
       </c>
       <c r="D22" t="n">
-        <v>1.719</v>
+        <v>1.744</v>
       </c>
       <c r="E22" t="n">
-        <v>1.718</v>
+        <v>1.744</v>
       </c>
       <c r="F22" t="n">
-        <v>60000</v>
+        <v>175231.0877</v>
       </c>
       <c r="G22" t="n">
-        <v>1.719666666666666</v>
+        <v>-30386146.13321765</v>
       </c>
       <c r="H22" t="n">
-        <v>1.721766666666666</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.719</v>
+        <v>1.729</v>
       </c>
       <c r="C23" t="n">
-        <v>1.719</v>
+        <v>1.729</v>
       </c>
       <c r="D23" t="n">
-        <v>1.719</v>
+        <v>1.729</v>
       </c>
       <c r="E23" t="n">
-        <v>1.719</v>
+        <v>1.729</v>
       </c>
       <c r="F23" t="n">
-        <v>40000</v>
+        <v>12636378.6369</v>
       </c>
       <c r="G23" t="n">
-        <v>1.718666666666667</v>
+        <v>-43022524.77011765</v>
       </c>
       <c r="H23" t="n">
-        <v>1.722249999999999</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.702</v>
+        <v>1.729</v>
       </c>
       <c r="C24" t="n">
-        <v>1.7</v>
+        <v>1.739</v>
       </c>
       <c r="D24" t="n">
-        <v>1.702</v>
+        <v>1.739</v>
       </c>
       <c r="E24" t="n">
-        <v>1.7</v>
+        <v>1.729</v>
       </c>
       <c r="F24" t="n">
-        <v>470000</v>
+        <v>6602421.365</v>
       </c>
       <c r="G24" t="n">
-        <v>1.7166</v>
+        <v>-36420103.40511765</v>
       </c>
       <c r="H24" t="n">
-        <v>1.722083333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="C25" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="D25" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="E25" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="F25" t="n">
-        <v>60000</v>
+        <v>3424.1924</v>
       </c>
       <c r="G25" t="n">
-        <v>1.715933333333333</v>
+        <v>-36420103.40511765</v>
       </c>
       <c r="H25" t="n">
-        <v>1.722083333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.71</v>
+        <v>1.718</v>
       </c>
       <c r="C26" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="D26" t="n">
-        <v>1.715</v>
+        <v>1.718</v>
       </c>
       <c r="E26" t="n">
         <v>1.71</v>
       </c>
       <c r="F26" t="n">
-        <v>340686</v>
+        <v>20000</v>
       </c>
       <c r="G26" t="n">
-        <v>1.7156</v>
+        <v>-36440103.40511765</v>
       </c>
       <c r="H26" t="n">
-        <v>1.722183333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="C27" t="n">
-        <v>1.728</v>
+        <v>1.7</v>
       </c>
       <c r="D27" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="E27" t="n">
-        <v>1.715</v>
+        <v>1.7</v>
       </c>
       <c r="F27" t="n">
-        <v>20000</v>
+        <v>350849.3147</v>
       </c>
       <c r="G27" t="n">
-        <v>1.715466666666667</v>
+        <v>-36790952.71981765</v>
       </c>
       <c r="H27" t="n">
-        <v>1.722516666666666</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="C28" t="n">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="D28" t="n">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="E28" t="n">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="F28" t="n">
-        <v>587.7169</v>
+        <v>221877.9344</v>
       </c>
       <c r="G28" t="n">
-        <v>1.7166</v>
+        <v>-36790952.71981765</v>
       </c>
       <c r="H28" t="n">
-        <v>1.722833333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.728</v>
+        <v>1.702</v>
       </c>
       <c r="C29" t="n">
-        <v>1.739</v>
+        <v>1.702</v>
       </c>
       <c r="D29" t="n">
-        <v>1.739</v>
+        <v>1.702</v>
       </c>
       <c r="E29" t="n">
-        <v>1.728</v>
+        <v>1.702</v>
       </c>
       <c r="F29" t="n">
-        <v>405438</v>
+        <v>20000</v>
       </c>
       <c r="G29" t="n">
-        <v>1.718533333333333</v>
+        <v>-36770952.71981765</v>
       </c>
       <c r="H29" t="n">
-        <v>1.72335</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.727</v>
+        <v>1.73</v>
       </c>
       <c r="C30" t="n">
-        <v>1.727</v>
+        <v>1.73</v>
       </c>
       <c r="D30" t="n">
-        <v>1.727</v>
+        <v>1.73</v>
       </c>
       <c r="E30" t="n">
-        <v>1.727</v>
+        <v>1.73</v>
       </c>
       <c r="F30" t="n">
-        <v>17044.3407</v>
+        <v>290</v>
       </c>
       <c r="G30" t="n">
-        <v>1.719666666666667</v>
+        <v>-36770662.71981765</v>
       </c>
       <c r="H30" t="n">
-        <v>1.723666666666666</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.735</v>
+        <v>1.703</v>
       </c>
       <c r="C31" t="n">
-        <v>1.735</v>
+        <v>1.702</v>
       </c>
       <c r="D31" t="n">
-        <v>1.735</v>
+        <v>1.703</v>
       </c>
       <c r="E31" t="n">
-        <v>1.735</v>
+        <v>1.702</v>
       </c>
       <c r="F31" t="n">
-        <v>17291.0663</v>
+        <v>80000</v>
       </c>
       <c r="G31" t="n">
-        <v>1.720666666666667</v>
+        <v>-36850662.71981765</v>
       </c>
       <c r="H31" t="n">
-        <v>1.724116666666667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="C32" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="D32" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="E32" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="F32" t="n">
-        <v>17005.77700751011</v>
+        <v>290</v>
       </c>
       <c r="G32" t="n">
-        <v>1.721466666666667</v>
+        <v>-36850372.71981765</v>
       </c>
       <c r="H32" t="n">
-        <v>1.724466666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.719</v>
+        <v>1.73</v>
       </c>
       <c r="C33" t="n">
-        <v>1.719</v>
+        <v>1.73</v>
       </c>
       <c r="D33" t="n">
-        <v>1.719</v>
+        <v>1.73</v>
       </c>
       <c r="E33" t="n">
-        <v>1.719</v>
+        <v>1.73</v>
       </c>
       <c r="F33" t="n">
-        <v>7355</v>
+        <v>1700</v>
       </c>
       <c r="G33" t="n">
-        <v>1.721533333333334</v>
+        <v>-36850372.71981765</v>
       </c>
       <c r="H33" t="n">
-        <v>1.724616666666666</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="C34" t="n">
-        <v>1.731</v>
+        <v>1.739</v>
       </c>
       <c r="D34" t="n">
-        <v>1.731</v>
+        <v>1.739</v>
       </c>
       <c r="E34" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="F34" t="n">
-        <v>290</v>
+        <v>48908</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7224</v>
+        <v>-36801464.71981765</v>
       </c>
       <c r="H34" t="n">
-        <v>1.724966666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.719</v>
+        <v>1.739</v>
       </c>
       <c r="C35" t="n">
-        <v>1.719</v>
+        <v>1.74</v>
       </c>
       <c r="D35" t="n">
-        <v>1.719</v>
+        <v>1.74</v>
       </c>
       <c r="E35" t="n">
-        <v>1.719</v>
+        <v>1.739</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0742</v>
+        <v>39904</v>
       </c>
       <c r="G35" t="n">
-        <v>1.722466666666667</v>
+        <v>-36761560.71981765</v>
       </c>
       <c r="H35" t="n">
-        <v>1.725116666666666</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.719</v>
+        <v>1.74</v>
       </c>
       <c r="C36" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="D36" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="E36" t="n">
-        <v>1.719</v>
+        <v>1.74</v>
       </c>
       <c r="F36" t="n">
-        <v>40000</v>
+        <v>11855.8014</v>
       </c>
       <c r="G36" t="n">
-        <v>1.723266666666667</v>
+        <v>-36761560.71981765</v>
       </c>
       <c r="H36" t="n">
-        <v>1.725283333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.711</v>
+        <v>1.72</v>
       </c>
       <c r="C37" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="E37" t="n">
         <v>1.72</v>
       </c>
-      <c r="D37" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.71</v>
-      </c>
       <c r="F37" t="n">
-        <v>371417.1558</v>
+        <v>506537.7559</v>
       </c>
       <c r="G37" t="n">
-        <v>1.723333333333334</v>
+        <v>-37268098.47571765</v>
       </c>
       <c r="H37" t="n">
-        <v>1.725283333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.702</v>
+        <v>1.711</v>
       </c>
       <c r="C38" t="n">
-        <v>1.702</v>
+        <v>1.731</v>
       </c>
       <c r="D38" t="n">
-        <v>1.702</v>
+        <v>1.731</v>
       </c>
       <c r="E38" t="n">
-        <v>1.702</v>
+        <v>1.711</v>
       </c>
       <c r="F38" t="n">
-        <v>300</v>
+        <v>702676.6317</v>
       </c>
       <c r="G38" t="n">
-        <v>1.7222</v>
+        <v>-37970775.10741765</v>
       </c>
       <c r="H38" t="n">
-        <v>1.725483333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="C39" t="n">
-        <v>1.719</v>
+        <v>1.72</v>
       </c>
       <c r="D39" t="n">
-        <v>1.719</v>
+        <v>1.72</v>
       </c>
       <c r="E39" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="F39" t="n">
-        <v>160000</v>
+        <v>2000</v>
       </c>
       <c r="G39" t="n">
-        <v>1.723466666666667</v>
+        <v>-37972775.10741765</v>
       </c>
       <c r="H39" t="n">
-        <v>1.725133333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.719</v>
+        <v>1.72</v>
       </c>
       <c r="C40" t="n">
-        <v>1.719</v>
+        <v>1.72</v>
       </c>
       <c r="D40" t="n">
-        <v>1.719</v>
+        <v>1.72</v>
       </c>
       <c r="E40" t="n">
-        <v>1.719</v>
+        <v>1.72</v>
       </c>
       <c r="F40" t="n">
-        <v>116057.7323</v>
+        <v>981515.8731</v>
       </c>
       <c r="G40" t="n">
-        <v>1.724066666666667</v>
+        <v>-37972775.10741765</v>
       </c>
       <c r="H40" t="n">
-        <v>1.724783333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.719</v>
+        <v>1.711</v>
       </c>
       <c r="C41" t="n">
-        <v>1.719</v>
+        <v>1.73</v>
       </c>
       <c r="D41" t="n">
-        <v>1.719</v>
+        <v>1.73</v>
       </c>
       <c r="E41" t="n">
-        <v>1.719</v>
+        <v>1.702</v>
       </c>
       <c r="F41" t="n">
-        <v>20000</v>
+        <v>1904725.5218</v>
       </c>
       <c r="G41" t="n">
-        <v>1.724333333333334</v>
+        <v>-36068049.58561765</v>
       </c>
       <c r="H41" t="n">
-        <v>1.72445</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.719</v>
+        <v>1.715</v>
       </c>
       <c r="C42" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="D42" t="n">
-        <v>1.719</v>
+        <v>1.715</v>
       </c>
       <c r="E42" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="F42" t="n">
-        <v>60000</v>
+        <v>225339.3798</v>
       </c>
       <c r="G42" t="n">
-        <v>1.723733333333334</v>
+        <v>-36293388.96541765</v>
       </c>
       <c r="H42" t="n">
-        <v>1.7243</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="C43" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="D43" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="E43" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="F43" t="n">
-        <v>5002.9405</v>
+        <v>103673</v>
       </c>
       <c r="G43" t="n">
-        <v>1.723200000000001</v>
+        <v>-36293388.96541765</v>
       </c>
       <c r="H43" t="n">
-        <v>1.7242</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="C44" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="D44" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="E44" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="F44" t="n">
-        <v>174383</v>
+        <v>220000</v>
       </c>
       <c r="G44" t="n">
-        <v>1.721933333333334</v>
+        <v>-36293388.96541765</v>
       </c>
       <c r="H44" t="n">
-        <v>1.723883333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="C45" t="n">
         <v>1.72</v>
@@ -2081,27 +1947,24 @@
         <v>1.72</v>
       </c>
       <c r="E45" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F45" t="n">
-        <v>40000</v>
+        <v>42528</v>
       </c>
       <c r="G45" t="n">
-        <v>1.721466666666667</v>
+        <v>-36250860.96541765</v>
       </c>
       <c r="H45" t="n">
-        <v>1.723616666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.705</v>
+        <v>1.719</v>
       </c>
       <c r="C46" t="n">
-        <v>1.705</v>
+        <v>1.719</v>
       </c>
       <c r="D46" t="n">
-        <v>1.705</v>
+        <v>1.719</v>
       </c>
       <c r="E46" t="n">
-        <v>1.705</v>
+        <v>1.719</v>
       </c>
       <c r="F46" t="n">
-        <v>4571.2601</v>
+        <v>60000</v>
       </c>
       <c r="G46" t="n">
-        <v>1.719466666666667</v>
+        <v>-36310860.96541765</v>
       </c>
       <c r="H46" t="n">
-        <v>1.723099999999999</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="C47" t="n">
-        <v>1.71</v>
+        <v>1.718</v>
       </c>
       <c r="D47" t="n">
-        <v>1.71</v>
+        <v>1.718</v>
       </c>
       <c r="E47" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="F47" t="n">
-        <v>197729.6446</v>
+        <v>220000</v>
       </c>
       <c r="G47" t="n">
-        <v>1.718066666666667</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H47" t="n">
-        <v>1.722633333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.705</v>
+        <v>1.718</v>
       </c>
       <c r="C48" t="n">
-        <v>1.702</v>
+        <v>1.718</v>
       </c>
       <c r="D48" t="n">
-        <v>1.705</v>
+        <v>1.718</v>
       </c>
       <c r="E48" t="n">
-        <v>1.702</v>
+        <v>1.718</v>
       </c>
       <c r="F48" t="n">
-        <v>893452.6376</v>
+        <v>20000</v>
       </c>
       <c r="G48" t="n">
-        <v>1.716933333333334</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H48" t="n">
-        <v>1.722116666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="C49" t="n">
-        <v>1.729</v>
+        <v>1.718</v>
       </c>
       <c r="D49" t="n">
-        <v>1.729</v>
+        <v>1.718</v>
       </c>
       <c r="E49" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="F49" t="n">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="G49" t="n">
-        <v>1.7168</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H49" t="n">
-        <v>1.721966666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.723</v>
+        <v>1.718</v>
       </c>
       <c r="C50" t="n">
-        <v>1.723</v>
+        <v>1.718</v>
       </c>
       <c r="D50" t="n">
-        <v>1.723</v>
+        <v>1.718</v>
       </c>
       <c r="E50" t="n">
-        <v>1.723</v>
+        <v>1.718</v>
       </c>
       <c r="F50" t="n">
-        <v>20000</v>
+        <v>207634</v>
       </c>
       <c r="G50" t="n">
-        <v>1.717066666666667</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H50" t="n">
-        <v>1.721766666666666</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="C51" t="n">
-        <v>1.72</v>
+        <v>1.719</v>
       </c>
       <c r="D51" t="n">
-        <v>1.72</v>
+        <v>1.719</v>
       </c>
       <c r="E51" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="F51" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="G51" t="n">
-        <v>1.7164</v>
+        <v>-36470860.96541765</v>
       </c>
       <c r="H51" t="n">
-        <v>1.721516666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.715</v>
+        <v>1.719</v>
       </c>
       <c r="C52" t="n">
-        <v>1.715</v>
+        <v>1.719</v>
       </c>
       <c r="D52" t="n">
-        <v>1.715</v>
+        <v>1.719</v>
       </c>
       <c r="E52" t="n">
-        <v>1.715</v>
+        <v>1.719</v>
       </c>
       <c r="F52" t="n">
-        <v>11617</v>
+        <v>40000</v>
       </c>
       <c r="G52" t="n">
-        <v>1.716066666666667</v>
+        <v>-36470860.96541765</v>
       </c>
       <c r="H52" t="n">
-        <v>1.720999999999999</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.71</v>
+        <v>1.702</v>
       </c>
       <c r="C53" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="D53" t="n">
-        <v>1.71</v>
+        <v>1.702</v>
       </c>
       <c r="E53" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F53" t="n">
-        <v>62147</v>
+        <v>470000</v>
       </c>
       <c r="G53" t="n">
-        <v>1.7166</v>
+        <v>-36940860.96541765</v>
       </c>
       <c r="H53" t="n">
-        <v>1.720433333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,24 +2265,21 @@
         <v>1.71</v>
       </c>
       <c r="F54" t="n">
-        <v>47675</v>
+        <v>60000</v>
       </c>
       <c r="G54" t="n">
-        <v>1.716</v>
+        <v>-36880860.96541765</v>
       </c>
       <c r="H54" t="n">
-        <v>1.720116666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2455,33 +2291,30 @@
         <v>1.71</v>
       </c>
       <c r="C55" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="D55" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="E55" t="n">
         <v>1.71</v>
       </c>
       <c r="F55" t="n">
-        <v>280000</v>
+        <v>340686</v>
       </c>
       <c r="G55" t="n">
-        <v>1.7154</v>
+        <v>-36540174.96541765</v>
       </c>
       <c r="H55" t="n">
-        <v>1.719633333333332</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="C56" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="D56" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="E56" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="F56" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="G56" t="n">
-        <v>1.7148</v>
+        <v>-36520174.96541765</v>
       </c>
       <c r="H56" t="n">
-        <v>1.719149999999999</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.71</v>
+        <v>1.727</v>
       </c>
       <c r="C57" t="n">
-        <v>1.71</v>
+        <v>1.727</v>
       </c>
       <c r="D57" t="n">
-        <v>1.71</v>
+        <v>1.727</v>
       </c>
       <c r="E57" t="n">
-        <v>1.71</v>
+        <v>1.727</v>
       </c>
       <c r="F57" t="n">
-        <v>23620.8097</v>
+        <v>587.7169</v>
       </c>
       <c r="G57" t="n">
-        <v>1.7142</v>
+        <v>-36520762.68231765</v>
       </c>
       <c r="H57" t="n">
-        <v>1.719149999999999</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.715</v>
+        <v>1.728</v>
       </c>
       <c r="C58" t="n">
-        <v>1.715</v>
+        <v>1.739</v>
       </c>
       <c r="D58" t="n">
-        <v>1.715</v>
+        <v>1.739</v>
       </c>
       <c r="E58" t="n">
-        <v>1.715</v>
+        <v>1.728</v>
       </c>
       <c r="F58" t="n">
-        <v>211589</v>
+        <v>405438</v>
       </c>
       <c r="G58" t="n">
-        <v>1.713933333333333</v>
+        <v>-36115324.68231765</v>
       </c>
       <c r="H58" t="n">
-        <v>1.719399999999999</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.708</v>
+        <v>1.727</v>
       </c>
       <c r="C59" t="n">
-        <v>1.708</v>
+        <v>1.727</v>
       </c>
       <c r="D59" t="n">
-        <v>1.708</v>
+        <v>1.727</v>
       </c>
       <c r="E59" t="n">
-        <v>1.708</v>
+        <v>1.727</v>
       </c>
       <c r="F59" t="n">
-        <v>588620.3329</v>
+        <v>17044.3407</v>
       </c>
       <c r="G59" t="n">
-        <v>1.713133333333333</v>
+        <v>-36132369.02301765</v>
       </c>
       <c r="H59" t="n">
-        <v>1.719533333333332</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.708</v>
+        <v>1.735</v>
       </c>
       <c r="C60" t="n">
-        <v>1.708</v>
+        <v>1.735</v>
       </c>
       <c r="D60" t="n">
-        <v>1.708</v>
+        <v>1.735</v>
       </c>
       <c r="E60" t="n">
-        <v>1.708</v>
+        <v>1.735</v>
       </c>
       <c r="F60" t="n">
-        <v>207160</v>
+        <v>17291.0663</v>
       </c>
       <c r="G60" t="n">
-        <v>1.712333333333333</v>
+        <v>-36115077.95671766</v>
       </c>
       <c r="H60" t="n">
-        <v>1.719633333333332</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.704</v>
+        <v>1.731</v>
       </c>
       <c r="C61" t="n">
-        <v>1.704</v>
+        <v>1.731</v>
       </c>
       <c r="D61" t="n">
-        <v>1.704</v>
+        <v>1.731</v>
       </c>
       <c r="E61" t="n">
-        <v>1.704</v>
+        <v>1.731</v>
       </c>
       <c r="F61" t="n">
-        <v>11842.2276</v>
+        <v>17005.77700751011</v>
       </c>
       <c r="G61" t="n">
-        <v>1.712266666666667</v>
+        <v>-36132083.73372517</v>
       </c>
       <c r="H61" t="n">
-        <v>1.719199999999999</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.703</v>
+        <v>1.719</v>
       </c>
       <c r="C62" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="D62" t="n">
-        <v>1.714</v>
+        <v>1.719</v>
       </c>
       <c r="E62" t="n">
-        <v>1.684</v>
+        <v>1.719</v>
       </c>
       <c r="F62" t="n">
-        <v>6157051.673</v>
+        <v>7355</v>
       </c>
       <c r="G62" t="n">
-        <v>1.7116</v>
+        <v>-36139438.73372517</v>
       </c>
       <c r="H62" t="n">
-        <v>1.719166666666665</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.684</v>
+        <v>1.731</v>
       </c>
       <c r="C63" t="n">
-        <v>1.684</v>
+        <v>1.731</v>
       </c>
       <c r="D63" t="n">
-        <v>1.7</v>
+        <v>1.731</v>
       </c>
       <c r="E63" t="n">
-        <v>1.684</v>
+        <v>1.731</v>
       </c>
       <c r="F63" t="n">
-        <v>2833372.5267</v>
+        <v>290</v>
       </c>
       <c r="G63" t="n">
-        <v>1.7104</v>
+        <v>-36139148.73372517</v>
       </c>
       <c r="H63" t="n">
-        <v>1.718399999999999</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.684</v>
+        <v>1.719</v>
       </c>
       <c r="C64" t="n">
-        <v>1.683</v>
+        <v>1.719</v>
       </c>
       <c r="D64" t="n">
-        <v>1.684</v>
+        <v>1.719</v>
       </c>
       <c r="E64" t="n">
-        <v>1.683</v>
+        <v>1.719</v>
       </c>
       <c r="F64" t="n">
-        <v>48159.2218</v>
+        <v>0.0742</v>
       </c>
       <c r="G64" t="n">
-        <v>1.707333333333333</v>
+        <v>-36139148.80792516</v>
       </c>
       <c r="H64" t="n">
-        <v>1.717616666666665</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.683</v>
+        <v>1.719</v>
       </c>
       <c r="C65" t="n">
-        <v>1.683</v>
+        <v>1.73</v>
       </c>
       <c r="D65" t="n">
-        <v>1.683</v>
+        <v>1.73</v>
       </c>
       <c r="E65" t="n">
-        <v>1.683</v>
+        <v>1.719</v>
       </c>
       <c r="F65" t="n">
-        <v>11854.5136</v>
+        <v>40000</v>
       </c>
       <c r="G65" t="n">
-        <v>1.704666666666667</v>
+        <v>-36099148.80792516</v>
       </c>
       <c r="H65" t="n">
-        <v>1.716683333333332</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.682</v>
+        <v>1.711</v>
       </c>
       <c r="C66" t="n">
-        <v>1.682</v>
+        <v>1.72</v>
       </c>
       <c r="D66" t="n">
-        <v>1.682</v>
+        <v>1.72</v>
       </c>
       <c r="E66" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="F66" t="n">
-        <v>156639.0076</v>
+        <v>371417.1558</v>
       </c>
       <c r="G66" t="n">
-        <v>1.702133333333333</v>
+        <v>-36470565.96372516</v>
       </c>
       <c r="H66" t="n">
-        <v>1.715716666666665</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.682</v>
+        <v>1.702</v>
       </c>
       <c r="C67" t="n">
-        <v>1.682</v>
+        <v>1.702</v>
       </c>
       <c r="D67" t="n">
-        <v>1.682</v>
+        <v>1.702</v>
       </c>
       <c r="E67" t="n">
-        <v>1.682</v>
+        <v>1.702</v>
       </c>
       <c r="F67" t="n">
-        <v>20805.36</v>
+        <v>300</v>
       </c>
       <c r="G67" t="n">
-        <v>1.699933333333333</v>
+        <v>-36470865.96372516</v>
       </c>
       <c r="H67" t="n">
-        <v>1.714749999999999</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,40 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.682</v>
+        <v>1.719</v>
       </c>
       <c r="C68" t="n">
-        <v>1.682</v>
+        <v>1.719</v>
       </c>
       <c r="D68" t="n">
-        <v>1.682</v>
+        <v>1.719</v>
       </c>
       <c r="E68" t="n">
-        <v>1.682</v>
+        <v>1.719</v>
       </c>
       <c r="F68" t="n">
-        <v>438906.5297</v>
+        <v>160000</v>
       </c>
       <c r="G68" t="n">
-        <v>1.698066666666666</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H68" t="n">
-        <v>1.713883333333332</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,44 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.682</v>
+        <v>1.719</v>
       </c>
       <c r="C69" t="n">
-        <v>1.682</v>
+        <v>1.719</v>
       </c>
       <c r="D69" t="n">
-        <v>1.682</v>
+        <v>1.719</v>
       </c>
       <c r="E69" t="n">
-        <v>1.682</v>
+        <v>1.719</v>
       </c>
       <c r="F69" t="n">
-        <v>239364.79</v>
+        <v>116057.7323</v>
       </c>
       <c r="G69" t="n">
-        <v>1.6962</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H69" t="n">
-        <v>1.713066666666666</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3034,44 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.696</v>
+        <v>1.719</v>
       </c>
       <c r="C70" t="n">
-        <v>1.696</v>
+        <v>1.719</v>
       </c>
       <c r="D70" t="n">
-        <v>1.696</v>
+        <v>1.719</v>
       </c>
       <c r="E70" t="n">
-        <v>1.696</v>
+        <v>1.719</v>
       </c>
       <c r="F70" t="n">
-        <v>367.2527</v>
+        <v>20000</v>
       </c>
       <c r="G70" t="n">
-        <v>1.695266666666666</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H70" t="n">
-        <v>1.712666666666666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,44 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.69</v>
+        <v>1.719</v>
       </c>
       <c r="C71" t="n">
-        <v>1.713</v>
+        <v>1.719</v>
       </c>
       <c r="D71" t="n">
-        <v>1.713</v>
+        <v>1.719</v>
       </c>
       <c r="E71" t="n">
-        <v>1.69</v>
+        <v>1.719</v>
       </c>
       <c r="F71" t="n">
-        <v>420933.2902</v>
+        <v>60000</v>
       </c>
       <c r="G71" t="n">
-        <v>1.695466666666666</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H71" t="n">
-        <v>1.712549999999999</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1.696</v>
-      </c>
-      <c r="L71" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,42 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="C72" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="D72" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="E72" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="F72" t="n">
-        <v>974749.2561999999</v>
+        <v>5002.9405</v>
       </c>
       <c r="G72" t="n">
-        <v>1.6948</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H72" t="n">
-        <v>1.712049999999999</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3170,42 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="C73" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="D73" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="E73" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="F73" t="n">
-        <v>430764</v>
+        <v>174383</v>
       </c>
       <c r="G73" t="n">
-        <v>1.6938</v>
+        <v>-36136482.96372516</v>
       </c>
       <c r="H73" t="n">
-        <v>1.711883333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,42 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.683</v>
+        <v>1.72</v>
       </c>
       <c r="C74" t="n">
-        <v>1.683</v>
+        <v>1.72</v>
       </c>
       <c r="D74" t="n">
-        <v>1.683</v>
+        <v>1.72</v>
       </c>
       <c r="E74" t="n">
-        <v>1.683</v>
+        <v>1.72</v>
       </c>
       <c r="F74" t="n">
-        <v>774356.0946</v>
+        <v>40000</v>
       </c>
       <c r="G74" t="n">
-        <v>1.692133333333333</v>
+        <v>-36136482.96372516</v>
       </c>
       <c r="H74" t="n">
-        <v>1.711433333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,42 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.7</v>
+        <v>1.705</v>
       </c>
       <c r="C75" t="n">
-        <v>1.7</v>
+        <v>1.705</v>
       </c>
       <c r="D75" t="n">
-        <v>1.7</v>
+        <v>1.705</v>
       </c>
       <c r="E75" t="n">
-        <v>1.7</v>
+        <v>1.705</v>
       </c>
       <c r="F75" t="n">
-        <v>113685.1078</v>
+        <v>4571.2601</v>
       </c>
       <c r="G75" t="n">
-        <v>1.6916</v>
+        <v>-36141054.22382516</v>
       </c>
       <c r="H75" t="n">
-        <v>1.711266666666666</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,42 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="C76" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="D76" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="E76" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F76" t="n">
-        <v>75143.9457</v>
+        <v>197729.6446</v>
       </c>
       <c r="G76" t="n">
-        <v>1.691333333333333</v>
+        <v>-35943324.57922517</v>
       </c>
       <c r="H76" t="n">
-        <v>1.710933333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,42 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.714</v>
+        <v>1.705</v>
       </c>
       <c r="C77" t="n">
-        <v>1.714</v>
+        <v>1.702</v>
       </c>
       <c r="D77" t="n">
-        <v>1.714</v>
+        <v>1.705</v>
       </c>
       <c r="E77" t="n">
-        <v>1.714</v>
+        <v>1.702</v>
       </c>
       <c r="F77" t="n">
-        <v>5100</v>
+        <v>893452.6376</v>
       </c>
       <c r="G77" t="n">
-        <v>1.692266666666666</v>
+        <v>-36836777.21682516</v>
       </c>
       <c r="H77" t="n">
-        <v>1.71085</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3390,42 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.696</v>
+        <v>1.72</v>
       </c>
       <c r="C78" t="n">
-        <v>1.695</v>
+        <v>1.729</v>
       </c>
       <c r="D78" t="n">
-        <v>1.696</v>
+        <v>1.729</v>
       </c>
       <c r="E78" t="n">
-        <v>1.695</v>
+        <v>1.72</v>
       </c>
       <c r="F78" t="n">
-        <v>18851</v>
+        <v>200000</v>
       </c>
       <c r="G78" t="n">
-        <v>1.692999999999999</v>
+        <v>-36636777.21682516</v>
       </c>
       <c r="H78" t="n">
-        <v>1.710466666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,42 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.695</v>
+        <v>1.723</v>
       </c>
       <c r="C79" t="n">
-        <v>1.714</v>
+        <v>1.723</v>
       </c>
       <c r="D79" t="n">
-        <v>1.714</v>
+        <v>1.723</v>
       </c>
       <c r="E79" t="n">
-        <v>1.693</v>
+        <v>1.723</v>
       </c>
       <c r="F79" t="n">
-        <v>429067.5304</v>
+        <v>20000</v>
       </c>
       <c r="G79" t="n">
-        <v>1.695066666666666</v>
+        <v>-36656777.21682516</v>
       </c>
       <c r="H79" t="n">
-        <v>1.710399999999999</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,42 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.714</v>
+        <v>1.72</v>
       </c>
       <c r="C80" t="n">
-        <v>1.692</v>
+        <v>1.72</v>
       </c>
       <c r="D80" t="n">
-        <v>1.714</v>
+        <v>1.72</v>
       </c>
       <c r="E80" t="n">
-        <v>1.692</v>
+        <v>1.72</v>
       </c>
       <c r="F80" t="n">
-        <v>368784.9553</v>
+        <v>100000</v>
       </c>
       <c r="G80" t="n">
-        <v>1.695666666666666</v>
+        <v>-36756777.21682516</v>
       </c>
       <c r="H80" t="n">
-        <v>1.709966666666666</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,42 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.692</v>
+        <v>1.715</v>
       </c>
       <c r="C81" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="D81" t="n">
-        <v>1.692</v>
+        <v>1.715</v>
       </c>
       <c r="E81" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="F81" t="n">
-        <v>955119.1341</v>
+        <v>11617</v>
       </c>
       <c r="G81" t="n">
-        <v>1.696266666666666</v>
+        <v>-36768394.21682516</v>
       </c>
       <c r="H81" t="n">
-        <v>1.709516666666666</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,42 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="C82" t="n">
-        <v>1.692</v>
+        <v>1.71</v>
       </c>
       <c r="D82" t="n">
-        <v>1.692</v>
+        <v>1.71</v>
       </c>
       <c r="E82" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="F82" t="n">
-        <v>832993.0694</v>
+        <v>62147</v>
       </c>
       <c r="G82" t="n">
-        <v>1.696933333333333</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H82" t="n">
-        <v>1.709066666666666</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,42 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.692</v>
+        <v>1.71</v>
       </c>
       <c r="C83" t="n">
-        <v>1.692</v>
+        <v>1.71</v>
       </c>
       <c r="D83" t="n">
-        <v>1.692</v>
+        <v>1.71</v>
       </c>
       <c r="E83" t="n">
-        <v>1.692</v>
+        <v>1.71</v>
       </c>
       <c r="F83" t="n">
-        <v>767055.206</v>
+        <v>47675</v>
       </c>
       <c r="G83" t="n">
-        <v>1.6976</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H83" t="n">
-        <v>1.708616666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3654,42 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.691</v>
+        <v>1.71</v>
       </c>
       <c r="C84" t="n">
-        <v>1.693</v>
+        <v>1.71</v>
       </c>
       <c r="D84" t="n">
-        <v>1.693</v>
+        <v>1.71</v>
       </c>
       <c r="E84" t="n">
-        <v>1.689</v>
+        <v>1.71</v>
       </c>
       <c r="F84" t="n">
-        <v>383987.8759</v>
+        <v>280000</v>
       </c>
       <c r="G84" t="n">
-        <v>1.698333333333333</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H84" t="n">
-        <v>1.708499999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3698,42 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.693</v>
+        <v>1.71</v>
       </c>
       <c r="C85" t="n">
-        <v>1.688</v>
+        <v>1.71</v>
       </c>
       <c r="D85" t="n">
-        <v>1.693</v>
+        <v>1.71</v>
       </c>
       <c r="E85" t="n">
-        <v>1.688</v>
+        <v>1.71</v>
       </c>
       <c r="F85" t="n">
-        <v>646203.6396</v>
+        <v>120000</v>
       </c>
       <c r="G85" t="n">
-        <v>1.6978</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H85" t="n">
-        <v>1.708133333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,42 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.688</v>
+        <v>1.71</v>
       </c>
       <c r="C86" t="n">
-        <v>1.691</v>
+        <v>1.71</v>
       </c>
       <c r="D86" t="n">
-        <v>1.691</v>
+        <v>1.71</v>
       </c>
       <c r="E86" t="n">
-        <v>1.688</v>
+        <v>1.71</v>
       </c>
       <c r="F86" t="n">
-        <v>461890.1319</v>
+        <v>23620.8097</v>
       </c>
       <c r="G86" t="n">
-        <v>1.696333333333333</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H86" t="n">
-        <v>1.707733333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,42 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="C87" t="n">
-        <v>1.692</v>
+        <v>1.715</v>
       </c>
       <c r="D87" t="n">
-        <v>1.692</v>
+        <v>1.715</v>
       </c>
       <c r="E87" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="F87" t="n">
-        <v>268323</v>
+        <v>211589</v>
       </c>
       <c r="G87" t="n">
-        <v>1.6958</v>
+        <v>-36618952.21682516</v>
       </c>
       <c r="H87" t="n">
-        <v>1.707133333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,42 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.691</v>
+        <v>1.708</v>
       </c>
       <c r="C88" t="n">
-        <v>1.691</v>
+        <v>1.708</v>
       </c>
       <c r="D88" t="n">
-        <v>1.692</v>
+        <v>1.708</v>
       </c>
       <c r="E88" t="n">
-        <v>1.688</v>
+        <v>1.708</v>
       </c>
       <c r="F88" t="n">
-        <v>281974.5126</v>
+        <v>588620.3329</v>
       </c>
       <c r="G88" t="n">
-        <v>1.6952</v>
+        <v>-37207572.54972517</v>
       </c>
       <c r="H88" t="n">
-        <v>1.706533333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,42 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.691</v>
+        <v>1.708</v>
       </c>
       <c r="C89" t="n">
-        <v>1.692</v>
+        <v>1.708</v>
       </c>
       <c r="D89" t="n">
-        <v>1.692</v>
+        <v>1.708</v>
       </c>
       <c r="E89" t="n">
-        <v>1.691</v>
+        <v>1.708</v>
       </c>
       <c r="F89" t="n">
-        <v>380644.89</v>
+        <v>207160</v>
       </c>
       <c r="G89" t="n">
-        <v>1.6958</v>
+        <v>-37207572.54972517</v>
       </c>
       <c r="H89" t="n">
-        <v>1.705749999999999</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,42 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.692</v>
+        <v>1.704</v>
       </c>
       <c r="C90" t="n">
-        <v>1.692</v>
+        <v>1.704</v>
       </c>
       <c r="D90" t="n">
-        <v>1.693</v>
+        <v>1.704</v>
       </c>
       <c r="E90" t="n">
-        <v>1.692</v>
+        <v>1.704</v>
       </c>
       <c r="F90" t="n">
-        <v>315015.21</v>
+        <v>11842.2276</v>
       </c>
       <c r="G90" t="n">
-        <v>1.695266666666666</v>
+        <v>-37219414.77732517</v>
       </c>
       <c r="H90" t="n">
-        <v>1.705166666666666</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3962,42 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.692</v>
+        <v>1.703</v>
       </c>
       <c r="C91" t="n">
-        <v>1.714</v>
+        <v>1.7</v>
       </c>
       <c r="D91" t="n">
         <v>1.714</v>
       </c>
       <c r="E91" t="n">
-        <v>1.692</v>
+        <v>1.684</v>
       </c>
       <c r="F91" t="n">
-        <v>71183.19</v>
+        <v>6157051.673</v>
       </c>
       <c r="G91" t="n">
-        <v>1.6962</v>
+        <v>-43376466.45032517</v>
       </c>
       <c r="H91" t="n">
-        <v>1.704816666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,42 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.691</v>
+        <v>1.684</v>
       </c>
       <c r="C92" t="n">
-        <v>1.691</v>
+        <v>1.684</v>
       </c>
       <c r="D92" t="n">
-        <v>1.691</v>
+        <v>1.7</v>
       </c>
       <c r="E92" t="n">
-        <v>1.691</v>
+        <v>1.684</v>
       </c>
       <c r="F92" t="n">
-        <v>29516.2089</v>
+        <v>2833372.5267</v>
       </c>
       <c r="G92" t="n">
-        <v>1.694666666666666</v>
+        <v>-46209838.97702517</v>
       </c>
       <c r="H92" t="n">
-        <v>1.704149999999999</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,42 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.691</v>
+        <v>1.684</v>
       </c>
       <c r="C93" t="n">
-        <v>1.691</v>
+        <v>1.683</v>
       </c>
       <c r="D93" t="n">
-        <v>1.691</v>
+        <v>1.684</v>
       </c>
       <c r="E93" t="n">
-        <v>1.691</v>
+        <v>1.683</v>
       </c>
       <c r="F93" t="n">
-        <v>207137.4</v>
+        <v>48159.2218</v>
       </c>
       <c r="G93" t="n">
-        <v>1.694399999999999</v>
+        <v>-46257998.19882517</v>
       </c>
       <c r="H93" t="n">
-        <v>1.703683333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,42 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.691</v>
+        <v>1.683</v>
       </c>
       <c r="C94" t="n">
-        <v>1.691</v>
+        <v>1.683</v>
       </c>
       <c r="D94" t="n">
-        <v>1.691</v>
+        <v>1.683</v>
       </c>
       <c r="E94" t="n">
-        <v>1.691</v>
+        <v>1.683</v>
       </c>
       <c r="F94" t="n">
-        <v>27745.2</v>
+        <v>11854.5136</v>
       </c>
       <c r="G94" t="n">
-        <v>1.692866666666666</v>
+        <v>-46257998.19882517</v>
       </c>
       <c r="H94" t="n">
-        <v>1.703016666666666</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4138,42 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.691</v>
+        <v>1.682</v>
       </c>
       <c r="C95" t="n">
-        <v>1.714</v>
+        <v>1.682</v>
       </c>
       <c r="D95" t="n">
-        <v>1.714</v>
+        <v>1.682</v>
       </c>
       <c r="E95" t="n">
-        <v>1.691</v>
+        <v>1.682</v>
       </c>
       <c r="F95" t="n">
-        <v>534306.4824</v>
+        <v>156639.0076</v>
       </c>
       <c r="G95" t="n">
-        <v>1.694333333333333</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H95" t="n">
-        <v>1.702933333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4182,42 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="C96" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="E96" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="F96" t="n">
-        <v>650</v>
+        <v>20805.36</v>
       </c>
       <c r="G96" t="n">
-        <v>1.6956</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H96" t="n">
-        <v>1.702599999999999</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4226,42 +3758,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="C97" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="D97" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="E97" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="F97" t="n">
-        <v>20000</v>
+        <v>438906.5297</v>
       </c>
       <c r="G97" t="n">
-        <v>1.6968</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H97" t="n">
-        <v>1.702433333333332</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,42 +3797,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="C98" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="D98" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="E98" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="F98" t="n">
-        <v>320281</v>
+        <v>239364.79</v>
       </c>
       <c r="G98" t="n">
-        <v>1.698</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H98" t="n">
-        <v>1.702566666666666</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,42 +3840,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.71</v>
+        <v>1.696</v>
       </c>
       <c r="C99" t="n">
-        <v>1.71</v>
+        <v>1.696</v>
       </c>
       <c r="D99" t="n">
-        <v>1.71</v>
+        <v>1.696</v>
       </c>
       <c r="E99" t="n">
-        <v>1.71</v>
+        <v>1.696</v>
       </c>
       <c r="F99" t="n">
-        <v>550286</v>
+        <v>367.2527</v>
       </c>
       <c r="G99" t="n">
-        <v>1.699133333333333</v>
+        <v>-46414269.95372517</v>
       </c>
       <c r="H99" t="n">
-        <v>1.702416666666666</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4358,42 +3883,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="C100" t="n">
-        <v>1.71</v>
+        <v>1.713</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71</v>
+        <v>1.713</v>
       </c>
       <c r="E100" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="F100" t="n">
-        <v>15162</v>
+        <v>420933.2902</v>
       </c>
       <c r="G100" t="n">
-        <v>1.7006</v>
+        <v>-45993336.66352516</v>
       </c>
       <c r="H100" t="n">
-        <v>1.702266666666666</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,42 +3926,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="C101" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="D101" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="E101" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="F101" t="n">
-        <v>2343</v>
+        <v>974749.2561999999</v>
       </c>
       <c r="G101" t="n">
-        <v>1.7018</v>
+        <v>-46968085.91972516</v>
       </c>
       <c r="H101" t="n">
-        <v>1.702099999999999</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,42 +3969,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="C102" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="E102" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F102" t="n">
-        <v>118279.5292</v>
+        <v>430764</v>
       </c>
       <c r="G102" t="n">
-        <v>1.703</v>
+        <v>-46968085.91972516</v>
       </c>
       <c r="H102" t="n">
-        <v>1.701949999999999</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,42 +4010,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.709</v>
+        <v>1.683</v>
       </c>
       <c r="C103" t="n">
-        <v>1.709</v>
+        <v>1.683</v>
       </c>
       <c r="D103" t="n">
-        <v>1.709</v>
+        <v>1.683</v>
       </c>
       <c r="E103" t="n">
-        <v>1.709</v>
+        <v>1.683</v>
       </c>
       <c r="F103" t="n">
-        <v>200000</v>
+        <v>774356.0946</v>
       </c>
       <c r="G103" t="n">
-        <v>1.7042</v>
+        <v>-47742442.01432516</v>
       </c>
       <c r="H103" t="n">
-        <v>1.701783333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,42 +4051,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="C104" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="D104" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="E104" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="F104" t="n">
-        <v>440000</v>
+        <v>113685.1078</v>
       </c>
       <c r="G104" t="n">
-        <v>1.705333333333333</v>
+        <v>-47628756.90652516</v>
       </c>
       <c r="H104" t="n">
-        <v>1.701599999999999</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,42 +4092,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="C105" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="D105" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="E105" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="F105" t="n">
-        <v>200000</v>
+        <v>75143.9457</v>
       </c>
       <c r="G105" t="n">
-        <v>1.706466666666667</v>
+        <v>-47628756.90652516</v>
       </c>
       <c r="H105" t="n">
-        <v>1.701416666666666</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,42 +4133,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.709</v>
+        <v>1.714</v>
       </c>
       <c r="C106" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="E106" t="n">
-        <v>1.709</v>
+        <v>1.714</v>
       </c>
       <c r="F106" t="n">
-        <v>275444</v>
+        <v>5100</v>
       </c>
       <c r="G106" t="n">
-        <v>1.7062</v>
+        <v>-47623656.90652516</v>
       </c>
       <c r="H106" t="n">
-        <v>1.701499999999999</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,42 +4174,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.709</v>
+        <v>1.696</v>
       </c>
       <c r="C107" t="n">
-        <v>1.71</v>
+        <v>1.695</v>
       </c>
       <c r="D107" t="n">
-        <v>1.71</v>
+        <v>1.696</v>
       </c>
       <c r="E107" t="n">
-        <v>1.709</v>
+        <v>1.695</v>
       </c>
       <c r="F107" t="n">
-        <v>896357.2036</v>
+        <v>18851</v>
       </c>
       <c r="G107" t="n">
-        <v>1.707466666666667</v>
+        <v>-47642507.90652516</v>
       </c>
       <c r="H107" t="n">
-        <v>1.701499999999999</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,42 +4215,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.71</v>
+        <v>1.695</v>
       </c>
       <c r="C108" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="D108" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="E108" t="n">
-        <v>1.71</v>
+        <v>1.693</v>
       </c>
       <c r="F108" t="n">
-        <v>1234.166</v>
+        <v>429067.5304</v>
       </c>
       <c r="G108" t="n">
-        <v>1.708733333333334</v>
+        <v>-47213440.37612516</v>
       </c>
       <c r="H108" t="n">
-        <v>1.701633333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,42 +4256,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="C109" t="n">
-        <v>1.71</v>
+        <v>1.692</v>
       </c>
       <c r="D109" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="E109" t="n">
-        <v>1.71</v>
+        <v>1.692</v>
       </c>
       <c r="F109" t="n">
-        <v>2110</v>
+        <v>368784.9553</v>
       </c>
       <c r="G109" t="n">
-        <v>1.71</v>
+        <v>-47582225.33142517</v>
       </c>
       <c r="H109" t="n">
-        <v>1.701316666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4798,42 +4297,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.71</v>
+        <v>1.692</v>
       </c>
       <c r="C110" t="n">
-        <v>1.71</v>
+        <v>1.691</v>
       </c>
       <c r="D110" t="n">
-        <v>1.71</v>
+        <v>1.692</v>
       </c>
       <c r="E110" t="n">
-        <v>1.71</v>
+        <v>1.691</v>
       </c>
       <c r="F110" t="n">
-        <v>4092</v>
+        <v>955119.1341</v>
       </c>
       <c r="G110" t="n">
-        <v>1.709733333333334</v>
+        <v>-48537344.46552517</v>
       </c>
       <c r="H110" t="n">
-        <v>1.701099999999999</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,42 +4338,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.709</v>
+        <v>1.69</v>
       </c>
       <c r="C111" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="D111" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="E111" t="n">
-        <v>1.709</v>
+        <v>1.69</v>
       </c>
       <c r="F111" t="n">
-        <v>60000</v>
+        <v>832993.0694</v>
       </c>
       <c r="G111" t="n">
-        <v>1.709666666666667</v>
+        <v>-47704351.39612517</v>
       </c>
       <c r="H111" t="n">
-        <v>1.700916666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,42 +4379,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="C112" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="D112" t="n">
-        <v>1.71</v>
+        <v>1.692</v>
       </c>
       <c r="E112" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="F112" t="n">
-        <v>360000</v>
+        <v>767055.206</v>
       </c>
       <c r="G112" t="n">
-        <v>1.7096</v>
+        <v>-47704351.39612517</v>
       </c>
       <c r="H112" t="n">
-        <v>1.700816666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,42 +4420,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.709</v>
+        <v>1.691</v>
       </c>
       <c r="C113" t="n">
-        <v>1.709</v>
+        <v>1.693</v>
       </c>
       <c r="D113" t="n">
-        <v>1.71</v>
+        <v>1.693</v>
       </c>
       <c r="E113" t="n">
-        <v>1.709</v>
+        <v>1.689</v>
       </c>
       <c r="F113" t="n">
-        <v>240000</v>
+        <v>383987.8759</v>
       </c>
       <c r="G113" t="n">
-        <v>1.709533333333334</v>
+        <v>-47320363.52022517</v>
       </c>
       <c r="H113" t="n">
-        <v>1.700799999999999</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4974,42 +4461,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.709</v>
+        <v>1.693</v>
       </c>
       <c r="C114" t="n">
-        <v>1.709</v>
+        <v>1.688</v>
       </c>
       <c r="D114" t="n">
-        <v>1.709</v>
+        <v>1.693</v>
       </c>
       <c r="E114" t="n">
-        <v>1.709</v>
+        <v>1.688</v>
       </c>
       <c r="F114" t="n">
-        <v>20000</v>
+        <v>646203.6396</v>
       </c>
       <c r="G114" t="n">
-        <v>1.709466666666667</v>
+        <v>-47966567.15982517</v>
       </c>
       <c r="H114" t="n">
-        <v>1.700783333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,42 +4502,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.708</v>
+        <v>1.688</v>
       </c>
       <c r="C115" t="n">
-        <v>1.708</v>
+        <v>1.691</v>
       </c>
       <c r="D115" t="n">
-        <v>1.708</v>
+        <v>1.691</v>
       </c>
       <c r="E115" t="n">
-        <v>1.708</v>
+        <v>1.688</v>
       </c>
       <c r="F115" t="n">
-        <v>20000</v>
+        <v>461890.1319</v>
       </c>
       <c r="G115" t="n">
-        <v>1.709333333333333</v>
+        <v>-47504677.02792517</v>
       </c>
       <c r="H115" t="n">
-        <v>1.70075</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5062,42 +4543,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.708</v>
+        <v>1.691</v>
       </c>
       <c r="C116" t="n">
-        <v>1.708</v>
+        <v>1.692</v>
       </c>
       <c r="D116" t="n">
-        <v>1.708</v>
+        <v>1.692</v>
       </c>
       <c r="E116" t="n">
-        <v>1.708</v>
+        <v>1.691</v>
       </c>
       <c r="F116" t="n">
-        <v>236166</v>
+        <v>268323</v>
       </c>
       <c r="G116" t="n">
-        <v>1.709266666666667</v>
+        <v>-47236354.02792517</v>
       </c>
       <c r="H116" t="n">
-        <v>1.700716666666666</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,42 +4584,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.708</v>
+        <v>1.691</v>
       </c>
       <c r="C117" t="n">
-        <v>1.708</v>
+        <v>1.691</v>
       </c>
       <c r="D117" t="n">
-        <v>1.708</v>
+        <v>1.692</v>
       </c>
       <c r="E117" t="n">
-        <v>1.708</v>
+        <v>1.688</v>
       </c>
       <c r="F117" t="n">
-        <v>4574</v>
+        <v>281974.5126</v>
       </c>
       <c r="G117" t="n">
-        <v>1.709133333333333</v>
+        <v>-47518328.54052517</v>
       </c>
       <c r="H117" t="n">
-        <v>1.700683333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,42 +4625,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.708</v>
+        <v>1.691</v>
       </c>
       <c r="C118" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="D118" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="E118" t="n">
-        <v>1.708</v>
+        <v>1.691</v>
       </c>
       <c r="F118" t="n">
-        <v>40000</v>
+        <v>380644.89</v>
       </c>
       <c r="G118" t="n">
-        <v>1.709133333333333</v>
+        <v>-47137683.65052517</v>
       </c>
       <c r="H118" t="n">
-        <v>1.700583333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5194,42 +4666,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="C119" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="D119" t="n">
-        <v>1.71</v>
+        <v>1.693</v>
       </c>
       <c r="E119" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="F119" t="n">
-        <v>300000</v>
+        <v>315015.21</v>
       </c>
       <c r="G119" t="n">
-        <v>1.709133333333333</v>
+        <v>-47137683.65052517</v>
       </c>
       <c r="H119" t="n">
-        <v>1.7006</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5238,42 +4707,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="C120" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="D120" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="E120" t="n">
-        <v>1.709</v>
+        <v>1.692</v>
       </c>
       <c r="F120" t="n">
-        <v>100000</v>
+        <v>71183.19</v>
       </c>
       <c r="G120" t="n">
-        <v>1.7092</v>
+        <v>-47066500.46052517</v>
       </c>
       <c r="H120" t="n">
-        <v>1.700633333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,42 +4748,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.707</v>
+        <v>1.691</v>
       </c>
       <c r="C121" t="n">
-        <v>1.707</v>
+        <v>1.691</v>
       </c>
       <c r="D121" t="n">
-        <v>1.707</v>
+        <v>1.691</v>
       </c>
       <c r="E121" t="n">
-        <v>1.707</v>
+        <v>1.691</v>
       </c>
       <c r="F121" t="n">
-        <v>129669.1892</v>
+        <v>29516.2089</v>
       </c>
       <c r="G121" t="n">
-        <v>1.709</v>
+        <v>-47096016.66942517</v>
       </c>
       <c r="H121" t="n">
-        <v>1.700683333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,42 +4789,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.706</v>
+        <v>1.691</v>
       </c>
       <c r="C122" t="n">
-        <v>1.706</v>
+        <v>1.691</v>
       </c>
       <c r="D122" t="n">
-        <v>1.706</v>
+        <v>1.691</v>
       </c>
       <c r="E122" t="n">
-        <v>1.706</v>
+        <v>1.691</v>
       </c>
       <c r="F122" t="n">
-        <v>300</v>
+        <v>207137.4</v>
       </c>
       <c r="G122" t="n">
-        <v>1.708733333333333</v>
+        <v>-47096016.66942517</v>
       </c>
       <c r="H122" t="n">
-        <v>1.700783333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5370,42 +4830,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.706</v>
+        <v>1.691</v>
       </c>
       <c r="C123" t="n">
-        <v>1.706</v>
+        <v>1.691</v>
       </c>
       <c r="D123" t="n">
-        <v>1.706</v>
+        <v>1.691</v>
       </c>
       <c r="E123" t="n">
-        <v>1.706</v>
+        <v>1.691</v>
       </c>
       <c r="F123" t="n">
-        <v>38940.1173</v>
+        <v>27745.2</v>
       </c>
       <c r="G123" t="n">
-        <v>1.708466666666666</v>
+        <v>-47096016.66942517</v>
       </c>
       <c r="H123" t="n">
-        <v>1.70115</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,42 +4871,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.705</v>
+        <v>1.691</v>
       </c>
       <c r="C124" t="n">
-        <v>1.705</v>
+        <v>1.714</v>
       </c>
       <c r="D124" t="n">
-        <v>1.705</v>
+        <v>1.714</v>
       </c>
       <c r="E124" t="n">
-        <v>1.705</v>
+        <v>1.691</v>
       </c>
       <c r="F124" t="n">
-        <v>5692.1046</v>
+        <v>534306.4824</v>
       </c>
       <c r="G124" t="n">
-        <v>1.708133333333333</v>
+        <v>-46561710.18702517</v>
       </c>
       <c r="H124" t="n">
-        <v>1.701516666666666</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,42 +4912,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C125" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="D125" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E125" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="F125" t="n">
-        <v>346.4965</v>
+        <v>650</v>
       </c>
       <c r="G125" t="n">
-        <v>1.708066666666666</v>
+        <v>-46562360.18702517</v>
       </c>
       <c r="H125" t="n">
-        <v>1.70195</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5502,42 +4953,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C126" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="D126" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E126" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="F126" t="n">
-        <v>46846.0387</v>
+        <v>20000</v>
       </c>
       <c r="G126" t="n">
-        <v>1.708066666666666</v>
+        <v>-46562360.18702517</v>
       </c>
       <c r="H126" t="n">
-        <v>1.7024</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,42 +4994,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.704</v>
+        <v>1.71</v>
       </c>
       <c r="C127" t="n">
-        <v>1.704</v>
+        <v>1.71</v>
       </c>
       <c r="D127" t="n">
-        <v>1.704</v>
+        <v>1.71</v>
       </c>
       <c r="E127" t="n">
-        <v>1.704</v>
+        <v>1.71</v>
       </c>
       <c r="F127" t="n">
-        <v>300</v>
+        <v>320281</v>
       </c>
       <c r="G127" t="n">
-        <v>1.707733333333333</v>
+        <v>-46562360.18702517</v>
       </c>
       <c r="H127" t="n">
-        <v>1.702766666666666</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5590,42 +5035,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C128" t="n">
-        <v>1.701</v>
+        <v>1.71</v>
       </c>
       <c r="D128" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E128" t="n">
-        <v>1.701</v>
+        <v>1.71</v>
       </c>
       <c r="F128" t="n">
-        <v>1900</v>
+        <v>550286</v>
       </c>
       <c r="G128" t="n">
-        <v>1.7072</v>
+        <v>-46562360.18702517</v>
       </c>
       <c r="H128" t="n">
-        <v>1.703083333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5634,7 +5076,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C129" t="n">
         <v>1.71</v>
@@ -5643,33 +5085,30 @@
         <v>1.71</v>
       </c>
       <c r="E129" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="F129" t="n">
-        <v>474965.6262</v>
+        <v>15162</v>
       </c>
       <c r="G129" t="n">
-        <v>1.707266666666666</v>
+        <v>-46562360.18702517</v>
       </c>
       <c r="H129" t="n">
-        <v>1.703549999999999</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5678,42 +5117,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="C130" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="D130" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="E130" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="F130" t="n">
-        <v>825034.3737999999</v>
+        <v>2343</v>
       </c>
       <c r="G130" t="n">
-        <v>1.7074</v>
+        <v>-46564703.18702517</v>
       </c>
       <c r="H130" t="n">
-        <v>1.703783333333333</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5722,42 +5158,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="C131" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="D131" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="E131" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="F131" t="n">
-        <v>300</v>
+        <v>118279.5292</v>
       </c>
       <c r="G131" t="n">
-        <v>1.707066666666667</v>
+        <v>-46446423.65782516</v>
       </c>
       <c r="H131" t="n">
-        <v>1.703616666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,42 +5199,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.715</v>
+        <v>1.709</v>
       </c>
       <c r="C132" t="n">
-        <v>1.715</v>
+        <v>1.709</v>
       </c>
       <c r="D132" t="n">
-        <v>1.715</v>
+        <v>1.709</v>
       </c>
       <c r="E132" t="n">
-        <v>1.715</v>
+        <v>1.709</v>
       </c>
       <c r="F132" t="n">
-        <v>651.3119533527697</v>
+        <v>200000</v>
       </c>
       <c r="G132" t="n">
-        <v>1.707533333333333</v>
+        <v>-46646423.65782516</v>
       </c>
       <c r="H132" t="n">
-        <v>1.703866666666666</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,42 +5240,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="C133" t="n">
-        <v>1.703</v>
+        <v>1.709</v>
       </c>
       <c r="D133" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="E133" t="n">
-        <v>1.703</v>
+        <v>1.709</v>
       </c>
       <c r="F133" t="n">
-        <v>11854.5136</v>
+        <v>440000</v>
       </c>
       <c r="G133" t="n">
-        <v>1.707133333333333</v>
+        <v>-46646423.65782516</v>
       </c>
       <c r="H133" t="n">
-        <v>1.703916666666666</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,42 +5281,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.714</v>
+        <v>1.709</v>
       </c>
       <c r="C134" t="n">
-        <v>1.714</v>
+        <v>1.709</v>
       </c>
       <c r="D134" t="n">
-        <v>1.714</v>
+        <v>1.709</v>
       </c>
       <c r="E134" t="n">
-        <v>1.714</v>
+        <v>1.709</v>
       </c>
       <c r="F134" t="n">
-        <v>300</v>
+        <v>200000</v>
       </c>
       <c r="G134" t="n">
-        <v>1.707466666666666</v>
+        <v>-46646423.65782516</v>
       </c>
       <c r="H134" t="n">
-        <v>1.704433333333333</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5898,42 +5322,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.715</v>
+        <v>1.709</v>
       </c>
       <c r="C135" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="D135" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="E135" t="n">
-        <v>1.715</v>
+        <v>1.709</v>
       </c>
       <c r="F135" t="n">
-        <v>300</v>
+        <v>275444</v>
       </c>
       <c r="G135" t="n">
-        <v>1.7078</v>
+        <v>-46370979.65782516</v>
       </c>
       <c r="H135" t="n">
-        <v>1.704683333333332</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5942,42 +5363,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.715</v>
+        <v>1.709</v>
       </c>
       <c r="C136" t="n">
-        <v>1.729</v>
+        <v>1.71</v>
       </c>
       <c r="D136" t="n">
-        <v>1.729</v>
+        <v>1.71</v>
       </c>
       <c r="E136" t="n">
-        <v>1.715</v>
+        <v>1.709</v>
       </c>
       <c r="F136" t="n">
-        <v>1159946.186484704</v>
+        <v>896357.2036</v>
       </c>
       <c r="G136" t="n">
-        <v>1.709266666666666</v>
+        <v>-46370979.65782516</v>
       </c>
       <c r="H136" t="n">
-        <v>1.705166666666666</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5986,42 +5404,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="C137" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="D137" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="E137" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="F137" t="n">
-        <v>58061.8188</v>
+        <v>1234.166</v>
       </c>
       <c r="G137" t="n">
-        <v>1.710733333333333</v>
+        <v>-46370979.65782516</v>
       </c>
       <c r="H137" t="n">
-        <v>1.705399999999999</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6030,42 +5445,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.713</v>
+        <v>1.71</v>
       </c>
       <c r="C138" t="n">
-        <v>1.713</v>
+        <v>1.71</v>
       </c>
       <c r="D138" t="n">
-        <v>1.713</v>
+        <v>1.71</v>
       </c>
       <c r="E138" t="n">
-        <v>1.713</v>
+        <v>1.71</v>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>2110</v>
       </c>
       <c r="G138" t="n">
-        <v>1.7112</v>
+        <v>-46370979.65782516</v>
       </c>
       <c r="H138" t="n">
-        <v>1.705699999999999</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6074,42 +5486,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="C139" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="D139" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="E139" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="F139" t="n">
-        <v>41370</v>
+        <v>4092</v>
       </c>
       <c r="G139" t="n">
-        <v>1.712733333333333</v>
+        <v>-46370979.65782516</v>
       </c>
       <c r="H139" t="n">
-        <v>1.705933333333332</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,42 +5527,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.728</v>
+        <v>1.709</v>
       </c>
       <c r="C140" t="n">
-        <v>1.728</v>
+        <v>1.709</v>
       </c>
       <c r="D140" t="n">
-        <v>1.728</v>
+        <v>1.709</v>
       </c>
       <c r="E140" t="n">
-        <v>1.728</v>
+        <v>1.709</v>
       </c>
       <c r="F140" t="n">
-        <v>165412</v>
+        <v>60000</v>
       </c>
       <c r="G140" t="n">
-        <v>1.714</v>
+        <v>-46430979.65782516</v>
       </c>
       <c r="H140" t="n">
-        <v>1.706533333333332</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6162,42 +5568,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.728</v>
+        <v>1.709</v>
       </c>
       <c r="C141" t="n">
-        <v>1.74</v>
+        <v>1.709</v>
       </c>
       <c r="D141" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="E141" t="n">
-        <v>1.728</v>
+        <v>1.709</v>
       </c>
       <c r="F141" t="n">
-        <v>2900000</v>
+        <v>360000</v>
       </c>
       <c r="G141" t="n">
-        <v>1.716066666666667</v>
+        <v>-46430979.65782516</v>
       </c>
       <c r="H141" t="n">
-        <v>1.707349999999999</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,42 +5609,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.747</v>
+        <v>1.709</v>
       </c>
       <c r="C142" t="n">
-        <v>1.751</v>
+        <v>1.709</v>
       </c>
       <c r="D142" t="n">
-        <v>1.751</v>
+        <v>1.71</v>
       </c>
       <c r="E142" t="n">
-        <v>1.747</v>
+        <v>1.709</v>
       </c>
       <c r="F142" t="n">
-        <v>517372.9384</v>
+        <v>240000</v>
       </c>
       <c r="G142" t="n">
-        <v>1.7192</v>
+        <v>-46430979.65782516</v>
       </c>
       <c r="H142" t="n">
-        <v>1.708333333333332</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6250,43 +5650,1229 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-46430979.65782516</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F144" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-46450979.65782516</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F145" t="n">
+        <v>236166</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-46450979.65782516</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4574</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-46450979.65782516</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F147" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-46410979.65782516</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F148" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-46410979.65782516</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-46310979.65782516</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="F150" t="n">
+        <v>129669.1892</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-46440648.84702516</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="F151" t="n">
+        <v>300</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-46440948.84702516</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="F152" t="n">
+        <v>38940.1173</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-46440948.84702516</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5692.1046</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-46446640.95162516</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F154" t="n">
+        <v>346.4965</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-46446294.45512516</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F155" t="n">
+        <v>46846.0387</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-46446294.45512516</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="F156" t="n">
+        <v>300</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-46446594.45512516</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-46448494.45512516</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F158" t="n">
+        <v>474965.6262</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-45973528.82892516</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F159" t="n">
+        <v>825034.3737999999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-45973528.82892516</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="F160" t="n">
+        <v>300</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-45973828.82892516</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F161" t="n">
+        <v>651.3119533527697</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-45973177.51697181</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="F162" t="n">
+        <v>11854.5136</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-45985032.03057181</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="F163" t="n">
+        <v>300</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-45984732.03057181</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F164" t="n">
+        <v>300</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-45984432.03057181</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1159946.186484704</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-44824485.84408711</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F166" t="n">
+        <v>58061.8188</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-44882547.66288711</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="F167" t="n">
+        <v>300</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-44882847.66288711</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F168" t="n">
+        <v>41370</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-44841477.66288711</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F169" t="n">
+        <v>165412</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-44841477.66288711</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-41941477.66288711</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="F171" t="n">
+        <v>517372.9384</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-41424104.72448711</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
         <v>1.765</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C172" t="n">
         <v>1.778</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D172" t="n">
         <v>1.778</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E172" t="n">
         <v>1.765</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F172" t="n">
         <v>106604</v>
       </c>
-      <c r="G143" t="n">
-        <v>1.724333333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1.709766666666666</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>1</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
-        <v>1.052074910820452</v>
+      <c r="G172" t="n">
+        <v>-41317500.72448711</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2020-01-22 BackTest MXC.xlsx
+++ b/BackTest/2020-01-22 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -445,10 +450,10 @@
         <v>1.71</v>
       </c>
       <c r="F2" t="n">
-        <v>35323.8</v>
+        <v>220000</v>
       </c>
       <c r="G2" t="n">
-        <v>-12004857.90811765</v>
+        <v>-36293388.96541765</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -471,19 +477,19 @@
         <v>1.71</v>
       </c>
       <c r="C3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="D3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="E3" t="n">
         <v>1.71</v>
       </c>
       <c r="F3" t="n">
-        <v>11774.6</v>
+        <v>42528</v>
       </c>
       <c r="G3" t="n">
-        <v>-12004857.90811765</v>
+        <v>-36250860.96541765</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="C4" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="D4" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="E4" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="F4" t="n">
-        <v>19202.2662</v>
+        <v>60000</v>
       </c>
       <c r="G4" t="n">
-        <v>-12004857.90811765</v>
+        <v>-36310860.96541765</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="C5" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="D5" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="E5" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="F5" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="G5" t="n">
-        <v>-11904857.90811765</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="C6" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="D6" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="E6" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="F6" t="n">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="G6" t="n">
-        <v>-11904857.90811765</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.7</v>
+        <v>1.718</v>
       </c>
       <c r="C7" t="n">
-        <v>1.69</v>
+        <v>1.718</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7</v>
+        <v>1.718</v>
       </c>
       <c r="E7" t="n">
-        <v>1.69</v>
+        <v>1.718</v>
       </c>
       <c r="F7" t="n">
-        <v>560440.3599</v>
+        <v>40000</v>
       </c>
       <c r="G7" t="n">
-        <v>-12465298.26801765</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="C8" t="n">
-        <v>1.74</v>
+        <v>1.718</v>
       </c>
       <c r="D8" t="n">
-        <v>1.74</v>
+        <v>1.718</v>
       </c>
       <c r="E8" t="n">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
       <c r="F8" t="n">
-        <v>347757.7309</v>
+        <v>207634</v>
       </c>
       <c r="G8" t="n">
-        <v>-12117540.53711765</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.74</v>
+        <v>1.718</v>
       </c>
       <c r="C9" t="n">
-        <v>1.74</v>
+        <v>1.719</v>
       </c>
       <c r="D9" t="n">
-        <v>1.74</v>
+        <v>1.719</v>
       </c>
       <c r="E9" t="n">
-        <v>1.74</v>
+        <v>1.718</v>
       </c>
       <c r="F9" t="n">
-        <v>9943.652</v>
+        <v>60000</v>
       </c>
       <c r="G9" t="n">
-        <v>-12117540.53711765</v>
+        <v>-36470860.96541765</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.739</v>
+        <v>1.719</v>
       </c>
       <c r="C10" t="n">
-        <v>1.739</v>
+        <v>1.719</v>
       </c>
       <c r="D10" t="n">
-        <v>1.739</v>
+        <v>1.719</v>
       </c>
       <c r="E10" t="n">
-        <v>1.739</v>
+        <v>1.719</v>
       </c>
       <c r="F10" t="n">
-        <v>6718437.7963</v>
+        <v>40000</v>
       </c>
       <c r="G10" t="n">
-        <v>-18835978.33341765</v>
+        <v>-36470860.96541765</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.728</v>
+        <v>1.702</v>
       </c>
       <c r="C11" t="n">
-        <v>1.728</v>
+        <v>1.7</v>
       </c>
       <c r="D11" t="n">
-        <v>1.728</v>
+        <v>1.702</v>
       </c>
       <c r="E11" t="n">
-        <v>1.728</v>
+        <v>1.7</v>
       </c>
       <c r="F11" t="n">
-        <v>12385822.3298</v>
+        <v>470000</v>
       </c>
       <c r="G11" t="n">
-        <v>-31221800.66321765</v>
+        <v>-36940860.96541765</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.725</v>
+        <v>1.71</v>
       </c>
       <c r="C12" t="n">
-        <v>1.725</v>
+        <v>1.71</v>
       </c>
       <c r="D12" t="n">
-        <v>1.725</v>
+        <v>1.71</v>
       </c>
       <c r="E12" t="n">
-        <v>1.725</v>
+        <v>1.71</v>
       </c>
       <c r="F12" t="n">
-        <v>3294.8272</v>
+        <v>60000</v>
       </c>
       <c r="G12" t="n">
-        <v>-31225095.49041765</v>
+        <v>-36880860.96541765</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.726</v>
+        <v>1.71</v>
       </c>
       <c r="C13" t="n">
-        <v>1.739</v>
+        <v>1.715</v>
       </c>
       <c r="D13" t="n">
-        <v>1.739</v>
+        <v>1.715</v>
       </c>
       <c r="E13" t="n">
-        <v>1.726</v>
+        <v>1.71</v>
       </c>
       <c r="F13" t="n">
-        <v>716233.8493</v>
+        <v>340686</v>
       </c>
       <c r="G13" t="n">
-        <v>-30508861.64111765</v>
+        <v>-36540174.96541765</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.736</v>
+        <v>1.715</v>
       </c>
       <c r="C14" t="n">
-        <v>1.736</v>
+        <v>1.728</v>
       </c>
       <c r="D14" t="n">
-        <v>1.736</v>
+        <v>1.728</v>
       </c>
       <c r="E14" t="n">
-        <v>1.736</v>
+        <v>1.715</v>
       </c>
       <c r="F14" t="n">
-        <v>74781.7366</v>
+        <v>20000</v>
       </c>
       <c r="G14" t="n">
-        <v>-30583643.37771765</v>
+        <v>-36520174.96541765</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.736</v>
+        <v>1.727</v>
       </c>
       <c r="C15" t="n">
-        <v>1.736</v>
+        <v>1.727</v>
       </c>
       <c r="D15" t="n">
-        <v>1.736</v>
+        <v>1.727</v>
       </c>
       <c r="E15" t="n">
-        <v>1.736</v>
+        <v>1.727</v>
       </c>
       <c r="F15" t="n">
-        <v>6739941.316</v>
+        <v>587.7169</v>
       </c>
       <c r="G15" t="n">
-        <v>-30583643.37771765</v>
+        <v>-36520762.68231765</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.738</v>
+        <v>1.728</v>
       </c>
       <c r="C16" t="n">
-        <v>1.738</v>
+        <v>1.739</v>
       </c>
       <c r="D16" t="n">
-        <v>1.738</v>
+        <v>1.739</v>
       </c>
       <c r="E16" t="n">
-        <v>1.738</v>
+        <v>1.728</v>
       </c>
       <c r="F16" t="n">
-        <v>172386.0116</v>
+        <v>405438</v>
       </c>
       <c r="G16" t="n">
-        <v>-30411257.36611765</v>
+        <v>-36115324.68231765</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.733</v>
+        <v>1.727</v>
       </c>
       <c r="C17" t="n">
-        <v>1.733</v>
+        <v>1.727</v>
       </c>
       <c r="D17" t="n">
-        <v>1.733</v>
+        <v>1.727</v>
       </c>
       <c r="E17" t="n">
-        <v>1.733</v>
+        <v>1.727</v>
       </c>
       <c r="F17" t="n">
-        <v>6761643.4649</v>
+        <v>17044.3407</v>
       </c>
       <c r="G17" t="n">
-        <v>-37172900.83101765</v>
+        <v>-36132369.02301765</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.733</v>
+        <v>1.735</v>
       </c>
       <c r="C18" t="n">
-        <v>1.738</v>
+        <v>1.735</v>
       </c>
       <c r="D18" t="n">
-        <v>1.738</v>
+        <v>1.735</v>
       </c>
       <c r="E18" t="n">
-        <v>1.733</v>
+        <v>1.735</v>
       </c>
       <c r="F18" t="n">
-        <v>6773481.2003</v>
+        <v>17291.0663</v>
       </c>
       <c r="G18" t="n">
-        <v>-30399419.63071765</v>
+        <v>-36115077.95671766</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.735</v>
+        <v>1.731</v>
       </c>
       <c r="C19" t="n">
-        <v>1.735</v>
+        <v>1.731</v>
       </c>
       <c r="D19" t="n">
-        <v>1.735</v>
+        <v>1.731</v>
       </c>
       <c r="E19" t="n">
-        <v>1.735</v>
+        <v>1.731</v>
       </c>
       <c r="F19" t="n">
-        <v>6493284.0114</v>
+        <v>17005.77700751011</v>
       </c>
       <c r="G19" t="n">
-        <v>-36892703.64211765</v>
+        <v>-36132083.73372517</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.735</v>
+        <v>1.719</v>
       </c>
       <c r="C20" t="n">
-        <v>1.735</v>
+        <v>1.719</v>
       </c>
       <c r="D20" t="n">
-        <v>1.735</v>
+        <v>1.719</v>
       </c>
       <c r="E20" t="n">
-        <v>1.735</v>
+        <v>1.719</v>
       </c>
       <c r="F20" t="n">
-        <v>6425645.6303</v>
+        <v>7355</v>
       </c>
       <c r="G20" t="n">
-        <v>-36892703.64211765</v>
+        <v>-36139438.73372517</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.73</v>
+        <v>1.731</v>
       </c>
       <c r="C21" t="n">
-        <v>1.746</v>
+        <v>1.731</v>
       </c>
       <c r="D21" t="n">
-        <v>1.746</v>
+        <v>1.731</v>
       </c>
       <c r="E21" t="n">
-        <v>1.73</v>
+        <v>1.731</v>
       </c>
       <c r="F21" t="n">
-        <v>6681788.5966</v>
+        <v>290</v>
       </c>
       <c r="G21" t="n">
-        <v>-30210915.04551765</v>
+        <v>-36139148.73372517</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.744</v>
+        <v>1.719</v>
       </c>
       <c r="C22" t="n">
-        <v>1.744</v>
+        <v>1.719</v>
       </c>
       <c r="D22" t="n">
-        <v>1.744</v>
+        <v>1.719</v>
       </c>
       <c r="E22" t="n">
-        <v>1.744</v>
+        <v>1.719</v>
       </c>
       <c r="F22" t="n">
-        <v>175231.0877</v>
+        <v>0.0742</v>
       </c>
       <c r="G22" t="n">
-        <v>-30386146.13321765</v>
+        <v>-36139148.80792516</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.729</v>
+        <v>1.719</v>
       </c>
       <c r="C23" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="D23" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="E23" t="n">
-        <v>1.729</v>
+        <v>1.719</v>
       </c>
       <c r="F23" t="n">
-        <v>12636378.6369</v>
+        <v>40000</v>
       </c>
       <c r="G23" t="n">
-        <v>-43022524.77011765</v>
+        <v>-36099148.80792516</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.729</v>
+        <v>1.711</v>
       </c>
       <c r="C24" t="n">
-        <v>1.739</v>
+        <v>1.72</v>
       </c>
       <c r="D24" t="n">
-        <v>1.739</v>
+        <v>1.72</v>
       </c>
       <c r="E24" t="n">
-        <v>1.729</v>
+        <v>1.71</v>
       </c>
       <c r="F24" t="n">
-        <v>6602421.365</v>
+        <v>371417.1558</v>
       </c>
       <c r="G24" t="n">
-        <v>-36420103.40511765</v>
+        <v>-36470565.96372516</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.739</v>
+        <v>1.702</v>
       </c>
       <c r="C25" t="n">
-        <v>1.739</v>
+        <v>1.702</v>
       </c>
       <c r="D25" t="n">
-        <v>1.739</v>
+        <v>1.702</v>
       </c>
       <c r="E25" t="n">
-        <v>1.739</v>
+        <v>1.702</v>
       </c>
       <c r="F25" t="n">
-        <v>3424.1924</v>
+        <v>300</v>
       </c>
       <c r="G25" t="n">
-        <v>-36420103.40511765</v>
+        <v>-36470865.96372516</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="C26" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="D26" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="E26" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="F26" t="n">
-        <v>20000</v>
+        <v>160000</v>
       </c>
       <c r="G26" t="n">
-        <v>-36440103.40511765</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="C27" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="D27" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="E27" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="F27" t="n">
-        <v>350849.3147</v>
+        <v>116057.7323</v>
       </c>
       <c r="G27" t="n">
-        <v>-36790952.71981765</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="C28" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="D28" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="F28" t="n">
-        <v>221877.9344</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="n">
-        <v>-36790952.71981765</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.702</v>
+        <v>1.719</v>
       </c>
       <c r="C29" t="n">
-        <v>1.702</v>
+        <v>1.719</v>
       </c>
       <c r="D29" t="n">
-        <v>1.702</v>
+        <v>1.719</v>
       </c>
       <c r="E29" t="n">
-        <v>1.702</v>
+        <v>1.719</v>
       </c>
       <c r="F29" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="G29" t="n">
-        <v>-36770952.71981765</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.73</v>
+        <v>1.719</v>
       </c>
       <c r="C30" t="n">
-        <v>1.73</v>
+        <v>1.719</v>
       </c>
       <c r="D30" t="n">
-        <v>1.73</v>
+        <v>1.719</v>
       </c>
       <c r="E30" t="n">
-        <v>1.73</v>
+        <v>1.719</v>
       </c>
       <c r="F30" t="n">
-        <v>290</v>
+        <v>5002.9405</v>
       </c>
       <c r="G30" t="n">
-        <v>-36770662.71981765</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.703</v>
+        <v>1.719</v>
       </c>
       <c r="C31" t="n">
-        <v>1.702</v>
+        <v>1.72</v>
       </c>
       <c r="D31" t="n">
-        <v>1.703</v>
+        <v>1.72</v>
       </c>
       <c r="E31" t="n">
-        <v>1.702</v>
+        <v>1.719</v>
       </c>
       <c r="F31" t="n">
-        <v>80000</v>
+        <v>174383</v>
       </c>
       <c r="G31" t="n">
-        <v>-36850662.71981765</v>
+        <v>-36136482.96372516</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="C32" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="D32" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="E32" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F32" t="n">
-        <v>290</v>
+        <v>40000</v>
       </c>
       <c r="G32" t="n">
-        <v>-36850372.71981765</v>
+        <v>-36136482.96372516</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.73</v>
+        <v>1.705</v>
       </c>
       <c r="C33" t="n">
-        <v>1.73</v>
+        <v>1.705</v>
       </c>
       <c r="D33" t="n">
-        <v>1.73</v>
+        <v>1.705</v>
       </c>
       <c r="E33" t="n">
-        <v>1.73</v>
+        <v>1.705</v>
       </c>
       <c r="F33" t="n">
-        <v>1700</v>
+        <v>4571.2601</v>
       </c>
       <c r="G33" t="n">
-        <v>-36850372.71981765</v>
+        <v>-36141054.22382516</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="C34" t="n">
-        <v>1.739</v>
+        <v>1.71</v>
       </c>
       <c r="D34" t="n">
-        <v>1.739</v>
+        <v>1.71</v>
       </c>
       <c r="E34" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="F34" t="n">
-        <v>48908</v>
+        <v>197729.6446</v>
       </c>
       <c r="G34" t="n">
-        <v>-36801464.71981765</v>
+        <v>-35943324.57922517</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.739</v>
+        <v>1.705</v>
       </c>
       <c r="C35" t="n">
-        <v>1.74</v>
+        <v>1.702</v>
       </c>
       <c r="D35" t="n">
-        <v>1.74</v>
+        <v>1.705</v>
       </c>
       <c r="E35" t="n">
-        <v>1.739</v>
+        <v>1.702</v>
       </c>
       <c r="F35" t="n">
-        <v>39904</v>
+        <v>893452.6376</v>
       </c>
       <c r="G35" t="n">
-        <v>-36761560.71981765</v>
+        <v>-36836777.21682516</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="C36" t="n">
-        <v>1.74</v>
+        <v>1.729</v>
       </c>
       <c r="D36" t="n">
-        <v>1.74</v>
+        <v>1.729</v>
       </c>
       <c r="E36" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="F36" t="n">
-        <v>11855.8014</v>
+        <v>200000</v>
       </c>
       <c r="G36" t="n">
-        <v>-36761560.71981765</v>
+        <v>-36636777.21682516</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="C37" t="n">
-        <v>1.734</v>
+        <v>1.723</v>
       </c>
       <c r="D37" t="n">
-        <v>1.734</v>
+        <v>1.723</v>
       </c>
       <c r="E37" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="F37" t="n">
-        <v>506537.7559</v>
+        <v>20000</v>
       </c>
       <c r="G37" t="n">
-        <v>-37268098.47571765</v>
+        <v>-36656777.21682516</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.711</v>
+        <v>1.72</v>
       </c>
       <c r="C38" t="n">
-        <v>1.731</v>
+        <v>1.72</v>
       </c>
       <c r="D38" t="n">
-        <v>1.731</v>
+        <v>1.72</v>
       </c>
       <c r="E38" t="n">
-        <v>1.711</v>
+        <v>1.72</v>
       </c>
       <c r="F38" t="n">
-        <v>702676.6317</v>
+        <v>100000</v>
       </c>
       <c r="G38" t="n">
-        <v>-37970775.10741765</v>
+        <v>-36756777.21682516</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="C39" t="n">
-        <v>1.72</v>
+        <v>1.715</v>
       </c>
       <c r="D39" t="n">
-        <v>1.72</v>
+        <v>1.715</v>
       </c>
       <c r="E39" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>11617</v>
       </c>
       <c r="G39" t="n">
-        <v>-37972775.10741765</v>
+        <v>-36768394.21682516</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="C40" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="D40" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="E40" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F40" t="n">
-        <v>981515.8731</v>
+        <v>62147</v>
       </c>
       <c r="G40" t="n">
-        <v>-37972775.10741765</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.711</v>
+        <v>1.71</v>
       </c>
       <c r="C41" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="D41" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="E41" t="n">
-        <v>1.702</v>
+        <v>1.71</v>
       </c>
       <c r="F41" t="n">
-        <v>1904725.5218</v>
+        <v>47675</v>
       </c>
       <c r="G41" t="n">
-        <v>-36068049.58561765</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="C42" t="n">
         <v>1.71</v>
       </c>
       <c r="D42" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="E42" t="n">
         <v>1.71</v>
       </c>
       <c r="F42" t="n">
-        <v>225339.3798</v>
+        <v>280000</v>
       </c>
       <c r="G42" t="n">
-        <v>-36293388.96541765</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1880,10 +1926,10 @@
         <v>1.71</v>
       </c>
       <c r="F43" t="n">
-        <v>103673</v>
+        <v>120000</v>
       </c>
       <c r="G43" t="n">
-        <v>-36293388.96541765</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1915,10 +1962,10 @@
         <v>1.71</v>
       </c>
       <c r="F44" t="n">
-        <v>220000</v>
+        <v>23620.8097</v>
       </c>
       <c r="G44" t="n">
-        <v>-36293388.96541765</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="C45" t="n">
-        <v>1.72</v>
+        <v>1.715</v>
       </c>
       <c r="D45" t="n">
-        <v>1.72</v>
+        <v>1.715</v>
       </c>
       <c r="E45" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="F45" t="n">
-        <v>42528</v>
+        <v>211589</v>
       </c>
       <c r="G45" t="n">
-        <v>-36250860.96541765</v>
+        <v>-36618952.21682516</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="C46" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="D46" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="E46" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="F46" t="n">
-        <v>60000</v>
+        <v>588620.3329</v>
       </c>
       <c r="G46" t="n">
-        <v>-36310860.96541765</v>
+        <v>-37207572.54972517</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.715</v>
+        <v>1.708</v>
       </c>
       <c r="C47" t="n">
-        <v>1.718</v>
+        <v>1.708</v>
       </c>
       <c r="D47" t="n">
-        <v>1.718</v>
+        <v>1.708</v>
       </c>
       <c r="E47" t="n">
-        <v>1.715</v>
+        <v>1.708</v>
       </c>
       <c r="F47" t="n">
-        <v>220000</v>
+        <v>207160</v>
       </c>
       <c r="G47" t="n">
-        <v>-36530860.96541765</v>
+        <v>-37207572.54972517</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.718</v>
+        <v>1.704</v>
       </c>
       <c r="C48" t="n">
-        <v>1.718</v>
+        <v>1.704</v>
       </c>
       <c r="D48" t="n">
-        <v>1.718</v>
+        <v>1.704</v>
       </c>
       <c r="E48" t="n">
-        <v>1.718</v>
+        <v>1.704</v>
       </c>
       <c r="F48" t="n">
-        <v>20000</v>
+        <v>11842.2276</v>
       </c>
       <c r="G48" t="n">
-        <v>-36530860.96541765</v>
+        <v>-37219414.77732517</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.718</v>
+        <v>1.703</v>
       </c>
       <c r="C49" t="n">
-        <v>1.718</v>
+        <v>1.7</v>
       </c>
       <c r="D49" t="n">
-        <v>1.718</v>
+        <v>1.714</v>
       </c>
       <c r="E49" t="n">
-        <v>1.718</v>
+        <v>1.684</v>
       </c>
       <c r="F49" t="n">
-        <v>40000</v>
+        <v>6157051.673</v>
       </c>
       <c r="G49" t="n">
-        <v>-36530860.96541765</v>
+        <v>-43376466.45032517</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.718</v>
+        <v>1.684</v>
       </c>
       <c r="C50" t="n">
-        <v>1.718</v>
+        <v>1.684</v>
       </c>
       <c r="D50" t="n">
-        <v>1.718</v>
+        <v>1.7</v>
       </c>
       <c r="E50" t="n">
-        <v>1.718</v>
+        <v>1.684</v>
       </c>
       <c r="F50" t="n">
-        <v>207634</v>
+        <v>2833372.5267</v>
       </c>
       <c r="G50" t="n">
-        <v>-36530860.96541765</v>
+        <v>-46209838.97702517</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.718</v>
+        <v>1.684</v>
       </c>
       <c r="C51" t="n">
-        <v>1.719</v>
+        <v>1.683</v>
       </c>
       <c r="D51" t="n">
-        <v>1.719</v>
+        <v>1.684</v>
       </c>
       <c r="E51" t="n">
-        <v>1.718</v>
+        <v>1.683</v>
       </c>
       <c r="F51" t="n">
-        <v>60000</v>
+        <v>48159.2218</v>
       </c>
       <c r="G51" t="n">
-        <v>-36470860.96541765</v>
+        <v>-46257998.19882517</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.719</v>
+        <v>1.683</v>
       </c>
       <c r="C52" t="n">
-        <v>1.719</v>
+        <v>1.683</v>
       </c>
       <c r="D52" t="n">
-        <v>1.719</v>
+        <v>1.683</v>
       </c>
       <c r="E52" t="n">
-        <v>1.719</v>
+        <v>1.683</v>
       </c>
       <c r="F52" t="n">
-        <v>40000</v>
+        <v>11854.5136</v>
       </c>
       <c r="G52" t="n">
-        <v>-36470860.96541765</v>
+        <v>-46257998.19882517</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.702</v>
+        <v>1.682</v>
       </c>
       <c r="C53" t="n">
-        <v>1.7</v>
+        <v>1.682</v>
       </c>
       <c r="D53" t="n">
-        <v>1.702</v>
+        <v>1.682</v>
       </c>
       <c r="E53" t="n">
-        <v>1.7</v>
+        <v>1.682</v>
       </c>
       <c r="F53" t="n">
-        <v>470000</v>
+        <v>156639.0076</v>
       </c>
       <c r="G53" t="n">
-        <v>-36940860.96541765</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="C54" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="D54" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="E54" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="F54" t="n">
-        <v>60000</v>
+        <v>20805.36</v>
       </c>
       <c r="G54" t="n">
-        <v>-36880860.96541765</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="C55" t="n">
-        <v>1.715</v>
+        <v>1.682</v>
       </c>
       <c r="D55" t="n">
-        <v>1.715</v>
+        <v>1.682</v>
       </c>
       <c r="E55" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="F55" t="n">
-        <v>340686</v>
+        <v>438906.5297</v>
       </c>
       <c r="G55" t="n">
-        <v>-36540174.96541765</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.715</v>
+        <v>1.682</v>
       </c>
       <c r="C56" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="D56" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="E56" t="n">
-        <v>1.715</v>
+        <v>1.682</v>
       </c>
       <c r="F56" t="n">
-        <v>20000</v>
+        <v>239364.79</v>
       </c>
       <c r="G56" t="n">
-        <v>-36520174.96541765</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.727</v>
+        <v>1.696</v>
       </c>
       <c r="C57" t="n">
-        <v>1.727</v>
+        <v>1.696</v>
       </c>
       <c r="D57" t="n">
-        <v>1.727</v>
+        <v>1.696</v>
       </c>
       <c r="E57" t="n">
-        <v>1.727</v>
+        <v>1.696</v>
       </c>
       <c r="F57" t="n">
-        <v>587.7169</v>
+        <v>367.2527</v>
       </c>
       <c r="G57" t="n">
-        <v>-36520762.68231765</v>
+        <v>-46414269.95372517</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.728</v>
+        <v>1.69</v>
       </c>
       <c r="C58" t="n">
-        <v>1.739</v>
+        <v>1.713</v>
       </c>
       <c r="D58" t="n">
-        <v>1.739</v>
+        <v>1.713</v>
       </c>
       <c r="E58" t="n">
-        <v>1.728</v>
+        <v>1.69</v>
       </c>
       <c r="F58" t="n">
-        <v>405438</v>
+        <v>420933.2902</v>
       </c>
       <c r="G58" t="n">
-        <v>-36115324.68231765</v>
+        <v>-45993336.66352516</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="C59" t="n">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="D59" t="n">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="E59" t="n">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="F59" t="n">
-        <v>17044.3407</v>
+        <v>974749.2561999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-36132369.02301765</v>
+        <v>-46968085.91972516</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.735</v>
+        <v>1.7</v>
       </c>
       <c r="C60" t="n">
-        <v>1.735</v>
+        <v>1.7</v>
       </c>
       <c r="D60" t="n">
-        <v>1.735</v>
+        <v>1.7</v>
       </c>
       <c r="E60" t="n">
-        <v>1.735</v>
+        <v>1.7</v>
       </c>
       <c r="F60" t="n">
-        <v>17291.0663</v>
+        <v>430764</v>
       </c>
       <c r="G60" t="n">
-        <v>-36115077.95671766</v>
+        <v>-46968085.91972516</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.731</v>
+        <v>1.683</v>
       </c>
       <c r="C61" t="n">
-        <v>1.731</v>
+        <v>1.683</v>
       </c>
       <c r="D61" t="n">
-        <v>1.731</v>
+        <v>1.683</v>
       </c>
       <c r="E61" t="n">
-        <v>1.731</v>
+        <v>1.683</v>
       </c>
       <c r="F61" t="n">
-        <v>17005.77700751011</v>
+        <v>774356.0946</v>
       </c>
       <c r="G61" t="n">
-        <v>-36132083.73372517</v>
+        <v>-47742442.01432516</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.719</v>
+        <v>1.7</v>
       </c>
       <c r="C62" t="n">
-        <v>1.719</v>
+        <v>1.7</v>
       </c>
       <c r="D62" t="n">
-        <v>1.719</v>
+        <v>1.7</v>
       </c>
       <c r="E62" t="n">
-        <v>1.719</v>
+        <v>1.7</v>
       </c>
       <c r="F62" t="n">
-        <v>7355</v>
+        <v>113685.1078</v>
       </c>
       <c r="G62" t="n">
-        <v>-36139438.73372517</v>
+        <v>-47628756.90652516</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.731</v>
+        <v>1.7</v>
       </c>
       <c r="C63" t="n">
-        <v>1.731</v>
+        <v>1.7</v>
       </c>
       <c r="D63" t="n">
-        <v>1.731</v>
+        <v>1.7</v>
       </c>
       <c r="E63" t="n">
-        <v>1.731</v>
+        <v>1.7</v>
       </c>
       <c r="F63" t="n">
-        <v>290</v>
+        <v>75143.9457</v>
       </c>
       <c r="G63" t="n">
-        <v>-36139148.73372517</v>
+        <v>-47628756.90652516</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.719</v>
+        <v>1.714</v>
       </c>
       <c r="C64" t="n">
-        <v>1.719</v>
+        <v>1.714</v>
       </c>
       <c r="D64" t="n">
-        <v>1.719</v>
+        <v>1.714</v>
       </c>
       <c r="E64" t="n">
-        <v>1.719</v>
+        <v>1.714</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0742</v>
+        <v>5100</v>
       </c>
       <c r="G64" t="n">
-        <v>-36139148.80792516</v>
+        <v>-47623656.90652516</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.719</v>
+        <v>1.696</v>
       </c>
       <c r="C65" t="n">
-        <v>1.73</v>
+        <v>1.695</v>
       </c>
       <c r="D65" t="n">
-        <v>1.73</v>
+        <v>1.696</v>
       </c>
       <c r="E65" t="n">
-        <v>1.719</v>
+        <v>1.695</v>
       </c>
       <c r="F65" t="n">
-        <v>40000</v>
+        <v>18851</v>
       </c>
       <c r="G65" t="n">
-        <v>-36099148.80792516</v>
+        <v>-47642507.90652516</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.711</v>
+        <v>1.695</v>
       </c>
       <c r="C66" t="n">
-        <v>1.72</v>
+        <v>1.714</v>
       </c>
       <c r="D66" t="n">
-        <v>1.72</v>
+        <v>1.714</v>
       </c>
       <c r="E66" t="n">
-        <v>1.71</v>
+        <v>1.693</v>
       </c>
       <c r="F66" t="n">
-        <v>371417.1558</v>
+        <v>429067.5304</v>
       </c>
       <c r="G66" t="n">
-        <v>-36470565.96372516</v>
+        <v>-47213440.37612516</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.702</v>
+        <v>1.714</v>
       </c>
       <c r="C67" t="n">
-        <v>1.702</v>
+        <v>1.692</v>
       </c>
       <c r="D67" t="n">
-        <v>1.702</v>
+        <v>1.714</v>
       </c>
       <c r="E67" t="n">
-        <v>1.702</v>
+        <v>1.692</v>
       </c>
       <c r="F67" t="n">
-        <v>300</v>
+        <v>368784.9553</v>
       </c>
       <c r="G67" t="n">
-        <v>-36470865.96372516</v>
+        <v>-47582225.33142517</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.719</v>
+        <v>1.692</v>
       </c>
       <c r="C68" t="n">
-        <v>1.719</v>
+        <v>1.691</v>
       </c>
       <c r="D68" t="n">
-        <v>1.719</v>
+        <v>1.692</v>
       </c>
       <c r="E68" t="n">
-        <v>1.719</v>
+        <v>1.691</v>
       </c>
       <c r="F68" t="n">
-        <v>160000</v>
+        <v>955119.1341</v>
       </c>
       <c r="G68" t="n">
-        <v>-36310865.96372516</v>
+        <v>-48537344.46552517</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.719</v>
+        <v>1.69</v>
       </c>
       <c r="C69" t="n">
-        <v>1.719</v>
+        <v>1.692</v>
       </c>
       <c r="D69" t="n">
-        <v>1.719</v>
+        <v>1.692</v>
       </c>
       <c r="E69" t="n">
-        <v>1.719</v>
+        <v>1.69</v>
       </c>
       <c r="F69" t="n">
-        <v>116057.7323</v>
+        <v>832993.0694</v>
       </c>
       <c r="G69" t="n">
-        <v>-36310865.96372516</v>
+        <v>-47704351.39612517</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.719</v>
+        <v>1.692</v>
       </c>
       <c r="C70" t="n">
-        <v>1.719</v>
+        <v>1.692</v>
       </c>
       <c r="D70" t="n">
-        <v>1.719</v>
+        <v>1.692</v>
       </c>
       <c r="E70" t="n">
-        <v>1.719</v>
+        <v>1.692</v>
       </c>
       <c r="F70" t="n">
-        <v>20000</v>
+        <v>767055.206</v>
       </c>
       <c r="G70" t="n">
-        <v>-36310865.96372516</v>
+        <v>-47704351.39612517</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.719</v>
+        <v>1.691</v>
       </c>
       <c r="C71" t="n">
-        <v>1.719</v>
+        <v>1.693</v>
       </c>
       <c r="D71" t="n">
-        <v>1.719</v>
+        <v>1.693</v>
       </c>
       <c r="E71" t="n">
-        <v>1.719</v>
+        <v>1.689</v>
       </c>
       <c r="F71" t="n">
-        <v>60000</v>
+        <v>383987.8759</v>
       </c>
       <c r="G71" t="n">
-        <v>-36310865.96372516</v>
+        <v>-47320363.52022517</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.719</v>
+        <v>1.693</v>
       </c>
       <c r="C72" t="n">
-        <v>1.719</v>
+        <v>1.688</v>
       </c>
       <c r="D72" t="n">
-        <v>1.719</v>
+        <v>1.693</v>
       </c>
       <c r="E72" t="n">
-        <v>1.719</v>
+        <v>1.688</v>
       </c>
       <c r="F72" t="n">
-        <v>5002.9405</v>
+        <v>646203.6396</v>
       </c>
       <c r="G72" t="n">
-        <v>-36310865.96372516</v>
+        <v>-47966567.15982517</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.719</v>
+        <v>1.688</v>
       </c>
       <c r="C73" t="n">
-        <v>1.72</v>
+        <v>1.691</v>
       </c>
       <c r="D73" t="n">
-        <v>1.72</v>
+        <v>1.691</v>
       </c>
       <c r="E73" t="n">
-        <v>1.719</v>
+        <v>1.688</v>
       </c>
       <c r="F73" t="n">
-        <v>174383</v>
+        <v>461890.1319</v>
       </c>
       <c r="G73" t="n">
-        <v>-36136482.96372516</v>
+        <v>-47504677.02792517</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.72</v>
+        <v>1.691</v>
       </c>
       <c r="C74" t="n">
-        <v>1.72</v>
+        <v>1.692</v>
       </c>
       <c r="D74" t="n">
-        <v>1.72</v>
+        <v>1.692</v>
       </c>
       <c r="E74" t="n">
-        <v>1.72</v>
+        <v>1.691</v>
       </c>
       <c r="F74" t="n">
-        <v>40000</v>
+        <v>268323</v>
       </c>
       <c r="G74" t="n">
-        <v>-36136482.96372516</v>
+        <v>-47236354.02792517</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.705</v>
+        <v>1.691</v>
       </c>
       <c r="C75" t="n">
-        <v>1.705</v>
+        <v>1.691</v>
       </c>
       <c r="D75" t="n">
-        <v>1.705</v>
+        <v>1.692</v>
       </c>
       <c r="E75" t="n">
-        <v>1.705</v>
+        <v>1.688</v>
       </c>
       <c r="F75" t="n">
-        <v>4571.2601</v>
+        <v>281974.5126</v>
       </c>
       <c r="G75" t="n">
-        <v>-36141054.22382516</v>
+        <v>-47518328.54052517</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.71</v>
+        <v>1.691</v>
       </c>
       <c r="C76" t="n">
-        <v>1.71</v>
+        <v>1.692</v>
       </c>
       <c r="D76" t="n">
-        <v>1.71</v>
+        <v>1.692</v>
       </c>
       <c r="E76" t="n">
-        <v>1.71</v>
+        <v>1.691</v>
       </c>
       <c r="F76" t="n">
-        <v>197729.6446</v>
+        <v>380644.89</v>
       </c>
       <c r="G76" t="n">
-        <v>-35943324.57922517</v>
+        <v>-47137683.65052517</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.705</v>
+        <v>1.692</v>
       </c>
       <c r="C77" t="n">
-        <v>1.702</v>
+        <v>1.692</v>
       </c>
       <c r="D77" t="n">
-        <v>1.705</v>
+        <v>1.693</v>
       </c>
       <c r="E77" t="n">
-        <v>1.702</v>
+        <v>1.692</v>
       </c>
       <c r="F77" t="n">
-        <v>893452.6376</v>
+        <v>315015.21</v>
       </c>
       <c r="G77" t="n">
-        <v>-36836777.21682516</v>
+        <v>-47137683.65052517</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.72</v>
+        <v>1.692</v>
       </c>
       <c r="C78" t="n">
-        <v>1.729</v>
+        <v>1.714</v>
       </c>
       <c r="D78" t="n">
-        <v>1.729</v>
+        <v>1.714</v>
       </c>
       <c r="E78" t="n">
-        <v>1.72</v>
+        <v>1.692</v>
       </c>
       <c r="F78" t="n">
-        <v>200000</v>
+        <v>71183.19</v>
       </c>
       <c r="G78" t="n">
-        <v>-36636777.21682516</v>
+        <v>-47066500.46052517</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.723</v>
+        <v>1.691</v>
       </c>
       <c r="C79" t="n">
-        <v>1.723</v>
+        <v>1.691</v>
       </c>
       <c r="D79" t="n">
-        <v>1.723</v>
+        <v>1.691</v>
       </c>
       <c r="E79" t="n">
-        <v>1.723</v>
+        <v>1.691</v>
       </c>
       <c r="F79" t="n">
-        <v>20000</v>
+        <v>29516.2089</v>
       </c>
       <c r="G79" t="n">
-        <v>-36656777.21682516</v>
+        <v>-47096016.66942517</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.72</v>
+        <v>1.691</v>
       </c>
       <c r="C80" t="n">
-        <v>1.72</v>
+        <v>1.691</v>
       </c>
       <c r="D80" t="n">
-        <v>1.72</v>
+        <v>1.691</v>
       </c>
       <c r="E80" t="n">
-        <v>1.72</v>
+        <v>1.691</v>
       </c>
       <c r="F80" t="n">
-        <v>100000</v>
+        <v>207137.4</v>
       </c>
       <c r="G80" t="n">
-        <v>-36756777.21682516</v>
+        <v>-47096016.66942517</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,76 +3275,91 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.715</v>
+        <v>1.691</v>
       </c>
       <c r="C81" t="n">
-        <v>1.715</v>
+        <v>1.691</v>
       </c>
       <c r="D81" t="n">
-        <v>1.715</v>
+        <v>1.691</v>
       </c>
       <c r="E81" t="n">
-        <v>1.715</v>
+        <v>1.691</v>
       </c>
       <c r="F81" t="n">
-        <v>11617</v>
+        <v>27745.2</v>
       </c>
       <c r="G81" t="n">
-        <v>-36768394.21682516</v>
+        <v>-47096016.66942517</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.691</v>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.71</v>
+        <v>1.691</v>
       </c>
       <c r="C82" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="D82" t="n">
-        <v>1.71</v>
+        <v>1.714</v>
       </c>
       <c r="E82" t="n">
-        <v>1.71</v>
+        <v>1.691</v>
       </c>
       <c r="F82" t="n">
-        <v>62147</v>
+        <v>534306.4824</v>
       </c>
       <c r="G82" t="n">
-        <v>-36830541.21682516</v>
+        <v>-46561710.18702517</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3280,10 +3378,10 @@
         <v>1.71</v>
       </c>
       <c r="F83" t="n">
-        <v>47675</v>
+        <v>650</v>
       </c>
       <c r="G83" t="n">
-        <v>-36830541.21682516</v>
+        <v>-46562360.18702517</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,11 +3390,18 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3315,10 +3420,10 @@
         <v>1.71</v>
       </c>
       <c r="F84" t="n">
-        <v>280000</v>
+        <v>20000</v>
       </c>
       <c r="G84" t="n">
-        <v>-36830541.21682516</v>
+        <v>-46562360.18702517</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,11 +3432,18 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3350,10 +3462,10 @@
         <v>1.71</v>
       </c>
       <c r="F85" t="n">
-        <v>120000</v>
+        <v>320281</v>
       </c>
       <c r="G85" t="n">
-        <v>-36830541.21682516</v>
+        <v>-46562360.18702517</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,11 +3474,18 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3385,10 +3504,10 @@
         <v>1.71</v>
       </c>
       <c r="F86" t="n">
-        <v>23620.8097</v>
+        <v>550286</v>
       </c>
       <c r="G86" t="n">
-        <v>-36830541.21682516</v>
+        <v>-46562360.18702517</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,33 +3516,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="C87" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="D87" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="E87" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="F87" t="n">
-        <v>211589</v>
+        <v>15162</v>
       </c>
       <c r="G87" t="n">
-        <v>-36618952.21682516</v>
+        <v>-46562360.18702517</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,33 +3558,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.708</v>
+        <v>1.709</v>
       </c>
       <c r="C88" t="n">
-        <v>1.708</v>
+        <v>1.709</v>
       </c>
       <c r="D88" t="n">
-        <v>1.708</v>
+        <v>1.709</v>
       </c>
       <c r="E88" t="n">
-        <v>1.708</v>
+        <v>1.709</v>
       </c>
       <c r="F88" t="n">
-        <v>588620.3329</v>
+        <v>2343</v>
       </c>
       <c r="G88" t="n">
-        <v>-37207572.54972517</v>
+        <v>-46564703.18702517</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,313 +3600,392 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.708</v>
+        <v>1.71</v>
       </c>
       <c r="C89" t="n">
-        <v>1.708</v>
+        <v>1.71</v>
       </c>
       <c r="D89" t="n">
-        <v>1.708</v>
+        <v>1.71</v>
       </c>
       <c r="E89" t="n">
-        <v>1.708</v>
+        <v>1.71</v>
       </c>
       <c r="F89" t="n">
-        <v>207160</v>
+        <v>118279.5292</v>
       </c>
       <c r="G89" t="n">
-        <v>-37207572.54972517</v>
+        <v>-46446423.65782516</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.704</v>
+        <v>1.709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.704</v>
+        <v>1.709</v>
       </c>
       <c r="D90" t="n">
-        <v>1.704</v>
+        <v>1.709</v>
       </c>
       <c r="E90" t="n">
-        <v>1.704</v>
+        <v>1.709</v>
       </c>
       <c r="F90" t="n">
-        <v>11842.2276</v>
+        <v>200000</v>
       </c>
       <c r="G90" t="n">
-        <v>-37219414.77732517</v>
+        <v>-46646423.65782516</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.703</v>
+        <v>1.71</v>
       </c>
       <c r="C91" t="n">
-        <v>1.7</v>
+        <v>1.709</v>
       </c>
       <c r="D91" t="n">
-        <v>1.714</v>
+        <v>1.71</v>
       </c>
       <c r="E91" t="n">
-        <v>1.684</v>
+        <v>1.709</v>
       </c>
       <c r="F91" t="n">
-        <v>6157051.673</v>
+        <v>440000</v>
       </c>
       <c r="G91" t="n">
-        <v>-43376466.45032517</v>
+        <v>-46646423.65782516</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.684</v>
+        <v>1.709</v>
       </c>
       <c r="C92" t="n">
-        <v>1.684</v>
+        <v>1.709</v>
       </c>
       <c r="D92" t="n">
-        <v>1.7</v>
+        <v>1.709</v>
       </c>
       <c r="E92" t="n">
-        <v>1.684</v>
+        <v>1.709</v>
       </c>
       <c r="F92" t="n">
-        <v>2833372.5267</v>
+        <v>200000</v>
       </c>
       <c r="G92" t="n">
-        <v>-46209838.97702517</v>
+        <v>-46646423.65782516</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.684</v>
+        <v>1.709</v>
       </c>
       <c r="C93" t="n">
-        <v>1.683</v>
+        <v>1.71</v>
       </c>
       <c r="D93" t="n">
-        <v>1.684</v>
+        <v>1.71</v>
       </c>
       <c r="E93" t="n">
-        <v>1.683</v>
+        <v>1.709</v>
       </c>
       <c r="F93" t="n">
-        <v>48159.2218</v>
+        <v>275444</v>
       </c>
       <c r="G93" t="n">
-        <v>-46257998.19882517</v>
+        <v>-46370979.65782516</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.683</v>
+        <v>1.709</v>
       </c>
       <c r="C94" t="n">
-        <v>1.683</v>
+        <v>1.71</v>
       </c>
       <c r="D94" t="n">
-        <v>1.683</v>
+        <v>1.71</v>
       </c>
       <c r="E94" t="n">
-        <v>1.683</v>
+        <v>1.709</v>
       </c>
       <c r="F94" t="n">
-        <v>11854.5136</v>
+        <v>896357.2036</v>
       </c>
       <c r="G94" t="n">
-        <v>-46257998.19882517</v>
+        <v>-46370979.65782516</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="C95" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="D95" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="E95" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="F95" t="n">
-        <v>156639.0076</v>
+        <v>1234.166</v>
       </c>
       <c r="G95" t="n">
-        <v>-46414637.20642517</v>
+        <v>-46370979.65782516</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="C96" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="D96" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="E96" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="F96" t="n">
-        <v>20805.36</v>
+        <v>2110</v>
       </c>
       <c r="G96" t="n">
-        <v>-46414637.20642517</v>
+        <v>-46370979.65782516</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="C97" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="D97" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="E97" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="F97" t="n">
-        <v>438906.5297</v>
+        <v>4092</v>
       </c>
       <c r="G97" t="n">
-        <v>-46414637.20642517</v>
+        <v>-46370979.65782516</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -3782,178 +3994,178 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="K97" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L97" t="inlineStr"/>
+        <v>1.691</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.682</v>
+        <v>1.709</v>
       </c>
       <c r="C98" t="n">
-        <v>1.682</v>
+        <v>1.709</v>
       </c>
       <c r="D98" t="n">
-        <v>1.682</v>
+        <v>1.709</v>
       </c>
       <c r="E98" t="n">
-        <v>1.682</v>
+        <v>1.709</v>
       </c>
       <c r="F98" t="n">
-        <v>239364.79</v>
+        <v>60000</v>
       </c>
       <c r="G98" t="n">
-        <v>-46414637.20642517</v>
+        <v>-46430979.65782516</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.696</v>
+        <v>1.709</v>
       </c>
       <c r="C99" t="n">
-        <v>1.696</v>
+        <v>1.709</v>
       </c>
       <c r="D99" t="n">
-        <v>1.696</v>
+        <v>1.71</v>
       </c>
       <c r="E99" t="n">
-        <v>1.696</v>
+        <v>1.709</v>
       </c>
       <c r="F99" t="n">
-        <v>367.2527</v>
+        <v>360000</v>
       </c>
       <c r="G99" t="n">
-        <v>-46414269.95372517</v>
+        <v>-46430979.65782516</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.69</v>
+        <v>1.709</v>
       </c>
       <c r="C100" t="n">
-        <v>1.713</v>
+        <v>1.709</v>
       </c>
       <c r="D100" t="n">
-        <v>1.713</v>
+        <v>1.71</v>
       </c>
       <c r="E100" t="n">
-        <v>1.69</v>
+        <v>1.709</v>
       </c>
       <c r="F100" t="n">
-        <v>420933.2902</v>
+        <v>240000</v>
       </c>
       <c r="G100" t="n">
-        <v>-45993336.66352516</v>
+        <v>-46430979.65782516</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1.696</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.7</v>
+        <v>1.709</v>
       </c>
       <c r="C101" t="n">
-        <v>1.7</v>
+        <v>1.709</v>
       </c>
       <c r="D101" t="n">
-        <v>1.7</v>
+        <v>1.709</v>
       </c>
       <c r="E101" t="n">
-        <v>1.7</v>
+        <v>1.709</v>
       </c>
       <c r="F101" t="n">
-        <v>974749.2561999999</v>
+        <v>20000</v>
       </c>
       <c r="G101" t="n">
-        <v>-46968085.91972516</v>
+        <v>-46430979.65782516</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1.713</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -3963,38 +4175,41 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.7</v>
+        <v>1.708</v>
       </c>
       <c r="C102" t="n">
-        <v>1.7</v>
+        <v>1.708</v>
       </c>
       <c r="D102" t="n">
-        <v>1.7</v>
+        <v>1.708</v>
       </c>
       <c r="E102" t="n">
-        <v>1.7</v>
+        <v>1.708</v>
       </c>
       <c r="F102" t="n">
-        <v>430764</v>
+        <v>20000</v>
       </c>
       <c r="G102" t="n">
-        <v>-46968085.91972516</v>
+        <v>-46450979.65782516</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1.709</v>
+      </c>
       <c r="K102" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4004,38 +4219,41 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.683</v>
+        <v>1.708</v>
       </c>
       <c r="C103" t="n">
-        <v>1.683</v>
+        <v>1.708</v>
       </c>
       <c r="D103" t="n">
-        <v>1.683</v>
+        <v>1.708</v>
       </c>
       <c r="E103" t="n">
-        <v>1.683</v>
+        <v>1.708</v>
       </c>
       <c r="F103" t="n">
-        <v>774356.0946</v>
+        <v>236166</v>
       </c>
       <c r="G103" t="n">
-        <v>-47742442.01432516</v>
+        <v>-46450979.65782516</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.708</v>
+      </c>
       <c r="K103" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4045,38 +4263,41 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.7</v>
+        <v>1.708</v>
       </c>
       <c r="C104" t="n">
-        <v>1.7</v>
+        <v>1.708</v>
       </c>
       <c r="D104" t="n">
-        <v>1.7</v>
+        <v>1.708</v>
       </c>
       <c r="E104" t="n">
-        <v>1.7</v>
+        <v>1.708</v>
       </c>
       <c r="F104" t="n">
-        <v>113685.1078</v>
+        <v>4574</v>
       </c>
       <c r="G104" t="n">
-        <v>-47628756.90652516</v>
+        <v>-46450979.65782516</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.708</v>
+      </c>
       <c r="K104" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4086,38 +4307,41 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.7</v>
+        <v>1.708</v>
       </c>
       <c r="C105" t="n">
-        <v>1.7</v>
+        <v>1.709</v>
       </c>
       <c r="D105" t="n">
-        <v>1.7</v>
+        <v>1.709</v>
       </c>
       <c r="E105" t="n">
-        <v>1.7</v>
+        <v>1.708</v>
       </c>
       <c r="F105" t="n">
-        <v>75143.9457</v>
+        <v>40000</v>
       </c>
       <c r="G105" t="n">
-        <v>-47628756.90652516</v>
+        <v>-46410979.65782516</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.708</v>
+      </c>
       <c r="K105" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4127,38 +4351,41 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.714</v>
+        <v>1.709</v>
       </c>
       <c r="C106" t="n">
-        <v>1.714</v>
+        <v>1.709</v>
       </c>
       <c r="D106" t="n">
-        <v>1.714</v>
+        <v>1.71</v>
       </c>
       <c r="E106" t="n">
-        <v>1.714</v>
+        <v>1.709</v>
       </c>
       <c r="F106" t="n">
-        <v>5100</v>
+        <v>300000</v>
       </c>
       <c r="G106" t="n">
-        <v>-47623656.90652516</v>
+        <v>-46410979.65782516</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.709</v>
+      </c>
       <c r="K106" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4168,38 +4395,41 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.696</v>
+        <v>1.709</v>
       </c>
       <c r="C107" t="n">
-        <v>1.695</v>
+        <v>1.71</v>
       </c>
       <c r="D107" t="n">
-        <v>1.696</v>
+        <v>1.71</v>
       </c>
       <c r="E107" t="n">
-        <v>1.695</v>
+        <v>1.709</v>
       </c>
       <c r="F107" t="n">
-        <v>18851</v>
+        <v>100000</v>
       </c>
       <c r="G107" t="n">
-        <v>-47642507.90652516</v>
+        <v>-46310979.65782516</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.709</v>
+      </c>
       <c r="K107" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4209,38 +4439,41 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.695</v>
+        <v>1.707</v>
       </c>
       <c r="C108" t="n">
-        <v>1.714</v>
+        <v>1.707</v>
       </c>
       <c r="D108" t="n">
-        <v>1.714</v>
+        <v>1.707</v>
       </c>
       <c r="E108" t="n">
-        <v>1.693</v>
+        <v>1.707</v>
       </c>
       <c r="F108" t="n">
-        <v>429067.5304</v>
+        <v>129669.1892</v>
       </c>
       <c r="G108" t="n">
-        <v>-47213440.37612516</v>
+        <v>-46440648.84702516</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K108" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4250,38 +4483,41 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.714</v>
+        <v>1.706</v>
       </c>
       <c r="C109" t="n">
-        <v>1.692</v>
+        <v>1.706</v>
       </c>
       <c r="D109" t="n">
-        <v>1.714</v>
+        <v>1.706</v>
       </c>
       <c r="E109" t="n">
-        <v>1.692</v>
+        <v>1.706</v>
       </c>
       <c r="F109" t="n">
-        <v>368784.9553</v>
+        <v>300</v>
       </c>
       <c r="G109" t="n">
-        <v>-47582225.33142517</v>
+        <v>-46440948.84702516</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1.707</v>
+      </c>
       <c r="K109" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4291,38 +4527,41 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.692</v>
+        <v>1.706</v>
       </c>
       <c r="C110" t="n">
-        <v>1.691</v>
+        <v>1.706</v>
       </c>
       <c r="D110" t="n">
-        <v>1.692</v>
+        <v>1.706</v>
       </c>
       <c r="E110" t="n">
-        <v>1.691</v>
+        <v>1.706</v>
       </c>
       <c r="F110" t="n">
-        <v>955119.1341</v>
+        <v>38940.1173</v>
       </c>
       <c r="G110" t="n">
-        <v>-48537344.46552517</v>
+        <v>-46440948.84702516</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1.706</v>
+      </c>
       <c r="K110" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4332,38 +4571,41 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.69</v>
+        <v>1.705</v>
       </c>
       <c r="C111" t="n">
-        <v>1.692</v>
+        <v>1.705</v>
       </c>
       <c r="D111" t="n">
-        <v>1.692</v>
+        <v>1.705</v>
       </c>
       <c r="E111" t="n">
-        <v>1.69</v>
+        <v>1.705</v>
       </c>
       <c r="F111" t="n">
-        <v>832993.0694</v>
+        <v>5692.1046</v>
       </c>
       <c r="G111" t="n">
-        <v>-47704351.39612517</v>
+        <v>-46446640.95162516</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.706</v>
+      </c>
       <c r="K111" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4373,38 +4615,41 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.692</v>
+        <v>1.709</v>
       </c>
       <c r="C112" t="n">
-        <v>1.692</v>
+        <v>1.709</v>
       </c>
       <c r="D112" t="n">
-        <v>1.692</v>
+        <v>1.709</v>
       </c>
       <c r="E112" t="n">
-        <v>1.692</v>
+        <v>1.709</v>
       </c>
       <c r="F112" t="n">
-        <v>767055.206</v>
+        <v>346.4965</v>
       </c>
       <c r="G112" t="n">
-        <v>-47704351.39612517</v>
+        <v>-46446294.45512516</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1.705</v>
+      </c>
       <c r="K112" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4414,38 +4659,41 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.691</v>
+        <v>1.709</v>
       </c>
       <c r="C113" t="n">
-        <v>1.693</v>
+        <v>1.709</v>
       </c>
       <c r="D113" t="n">
-        <v>1.693</v>
+        <v>1.709</v>
       </c>
       <c r="E113" t="n">
-        <v>1.689</v>
+        <v>1.709</v>
       </c>
       <c r="F113" t="n">
-        <v>383987.8759</v>
+        <v>46846.0387</v>
       </c>
       <c r="G113" t="n">
-        <v>-47320363.52022517</v>
+        <v>-46446294.45512516</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1.709</v>
+      </c>
       <c r="K113" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4455,38 +4703,41 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.693</v>
+        <v>1.704</v>
       </c>
       <c r="C114" t="n">
-        <v>1.688</v>
+        <v>1.704</v>
       </c>
       <c r="D114" t="n">
-        <v>1.693</v>
+        <v>1.704</v>
       </c>
       <c r="E114" t="n">
-        <v>1.688</v>
+        <v>1.704</v>
       </c>
       <c r="F114" t="n">
-        <v>646203.6396</v>
+        <v>300</v>
       </c>
       <c r="G114" t="n">
-        <v>-47966567.15982517</v>
+        <v>-46446594.45512516</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1.709</v>
+      </c>
       <c r="K114" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4496,38 +4747,41 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.688</v>
+        <v>1.709</v>
       </c>
       <c r="C115" t="n">
-        <v>1.691</v>
+        <v>1.701</v>
       </c>
       <c r="D115" t="n">
-        <v>1.691</v>
+        <v>1.709</v>
       </c>
       <c r="E115" t="n">
-        <v>1.688</v>
+        <v>1.701</v>
       </c>
       <c r="F115" t="n">
-        <v>461890.1319</v>
+        <v>1900</v>
       </c>
       <c r="G115" t="n">
-        <v>-47504677.02792517</v>
+        <v>-46448494.45512516</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1.704</v>
+      </c>
       <c r="K115" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4537,38 +4791,41 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.691</v>
+        <v>1.709</v>
       </c>
       <c r="C116" t="n">
-        <v>1.692</v>
+        <v>1.71</v>
       </c>
       <c r="D116" t="n">
-        <v>1.692</v>
+        <v>1.71</v>
       </c>
       <c r="E116" t="n">
-        <v>1.691</v>
+        <v>1.709</v>
       </c>
       <c r="F116" t="n">
-        <v>268323</v>
+        <v>474965.6262</v>
       </c>
       <c r="G116" t="n">
-        <v>-47236354.02792517</v>
+        <v>-45973528.82892516</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.701</v>
+      </c>
       <c r="K116" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4578,38 +4835,41 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.691</v>
+        <v>1.71</v>
       </c>
       <c r="C117" t="n">
-        <v>1.691</v>
+        <v>1.71</v>
       </c>
       <c r="D117" t="n">
-        <v>1.692</v>
+        <v>1.71</v>
       </c>
       <c r="E117" t="n">
-        <v>1.688</v>
+        <v>1.71</v>
       </c>
       <c r="F117" t="n">
-        <v>281974.5126</v>
+        <v>825034.3737999999</v>
       </c>
       <c r="G117" t="n">
-        <v>-47518328.54052517</v>
+        <v>-45973528.82892516</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K117" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4619,38 +4879,41 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.691</v>
+        <v>1.703</v>
       </c>
       <c r="C118" t="n">
-        <v>1.692</v>
+        <v>1.703</v>
       </c>
       <c r="D118" t="n">
-        <v>1.692</v>
+        <v>1.703</v>
       </c>
       <c r="E118" t="n">
-        <v>1.691</v>
+        <v>1.703</v>
       </c>
       <c r="F118" t="n">
-        <v>380644.89</v>
+        <v>300</v>
       </c>
       <c r="G118" t="n">
-        <v>-47137683.65052517</v>
+        <v>-45973828.82892516</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K118" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4660,38 +4923,41 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.692</v>
+        <v>1.715</v>
       </c>
       <c r="C119" t="n">
-        <v>1.692</v>
+        <v>1.715</v>
       </c>
       <c r="D119" t="n">
-        <v>1.693</v>
+        <v>1.715</v>
       </c>
       <c r="E119" t="n">
-        <v>1.692</v>
+        <v>1.715</v>
       </c>
       <c r="F119" t="n">
-        <v>315015.21</v>
+        <v>651.3119533527697</v>
       </c>
       <c r="G119" t="n">
-        <v>-47137683.65052517</v>
+        <v>-45973177.51697181</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1.703</v>
+      </c>
       <c r="K119" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4701,38 +4967,41 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.692</v>
+        <v>1.703</v>
       </c>
       <c r="C120" t="n">
-        <v>1.714</v>
+        <v>1.703</v>
       </c>
       <c r="D120" t="n">
-        <v>1.714</v>
+        <v>1.703</v>
       </c>
       <c r="E120" t="n">
-        <v>1.692</v>
+        <v>1.703</v>
       </c>
       <c r="F120" t="n">
-        <v>71183.19</v>
+        <v>11854.5136</v>
       </c>
       <c r="G120" t="n">
-        <v>-47066500.46052517</v>
+        <v>-45985032.03057181</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1.715</v>
+      </c>
       <c r="K120" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4742,38 +5011,41 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.691</v>
+        <v>1.714</v>
       </c>
       <c r="C121" t="n">
-        <v>1.691</v>
+        <v>1.714</v>
       </c>
       <c r="D121" t="n">
-        <v>1.691</v>
+        <v>1.714</v>
       </c>
       <c r="E121" t="n">
-        <v>1.691</v>
+        <v>1.714</v>
       </c>
       <c r="F121" t="n">
-        <v>29516.2089</v>
+        <v>300</v>
       </c>
       <c r="G121" t="n">
-        <v>-47096016.66942517</v>
+        <v>-45984732.03057181</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1.703</v>
+      </c>
       <c r="K121" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4783,38 +5055,41 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="C122" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="D122" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="E122" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="F122" t="n">
-        <v>207137.4</v>
+        <v>300</v>
       </c>
       <c r="G122" t="n">
-        <v>-47096016.66942517</v>
+        <v>-45984432.03057181</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.714</v>
+      </c>
       <c r="K122" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4824,38 +5099,41 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="C123" t="n">
-        <v>1.691</v>
+        <v>1.729</v>
       </c>
       <c r="D123" t="n">
-        <v>1.691</v>
+        <v>1.729</v>
       </c>
       <c r="E123" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="F123" t="n">
-        <v>27745.2</v>
+        <v>1159946.186484704</v>
       </c>
       <c r="G123" t="n">
-        <v>-47096016.66942517</v>
+        <v>-44824485.84408711</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1.715</v>
+      </c>
       <c r="K123" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4865,38 +5143,41 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.691</v>
+        <v>1.728</v>
       </c>
       <c r="C124" t="n">
-        <v>1.714</v>
+        <v>1.728</v>
       </c>
       <c r="D124" t="n">
-        <v>1.714</v>
+        <v>1.728</v>
       </c>
       <c r="E124" t="n">
-        <v>1.691</v>
+        <v>1.728</v>
       </c>
       <c r="F124" t="n">
-        <v>534306.4824</v>
+        <v>58061.8188</v>
       </c>
       <c r="G124" t="n">
-        <v>-46561710.18702517</v>
+        <v>-44882547.66288711</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.729</v>
+      </c>
       <c r="K124" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4906,38 +5187,41 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.71</v>
+        <v>1.713</v>
       </c>
       <c r="C125" t="n">
-        <v>1.71</v>
+        <v>1.713</v>
       </c>
       <c r="D125" t="n">
-        <v>1.71</v>
+        <v>1.713</v>
       </c>
       <c r="E125" t="n">
-        <v>1.71</v>
+        <v>1.713</v>
       </c>
       <c r="F125" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="G125" t="n">
-        <v>-46562360.18702517</v>
+        <v>-44882847.66288711</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.728</v>
+      </c>
       <c r="K125" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4947,38 +5231,41 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="C126" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="D126" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="E126" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="F126" t="n">
-        <v>20000</v>
+        <v>41370</v>
       </c>
       <c r="G126" t="n">
-        <v>-46562360.18702517</v>
+        <v>-44841477.66288711</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.713</v>
+      </c>
       <c r="K126" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4988,28 +5275,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="C127" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="D127" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="E127" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="F127" t="n">
-        <v>320281</v>
+        <v>165412</v>
       </c>
       <c r="G127" t="n">
-        <v>-46562360.18702517</v>
+        <v>-44841477.66288711</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5019,7 +5307,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5029,28 +5317,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="C128" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="D128" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="E128" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="F128" t="n">
-        <v>550286</v>
+        <v>2900000</v>
       </c>
       <c r="G128" t="n">
-        <v>-46562360.18702517</v>
+        <v>-41941477.66288711</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5060,7 +5349,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5070,28 +5359,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.71</v>
+        <v>1.747</v>
       </c>
       <c r="C129" t="n">
-        <v>1.71</v>
+        <v>1.751</v>
       </c>
       <c r="D129" t="n">
-        <v>1.71</v>
+        <v>1.751</v>
       </c>
       <c r="E129" t="n">
-        <v>1.71</v>
+        <v>1.747</v>
       </c>
       <c r="F129" t="n">
-        <v>15162</v>
+        <v>517372.9384</v>
       </c>
       <c r="G129" t="n">
-        <v>-46562360.18702517</v>
+        <v>-41424104.72448711</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5101,7 +5391,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5111,1769 +5401,49 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.709</v>
+        <v>1.765</v>
       </c>
       <c r="C130" t="n">
-        <v>1.709</v>
+        <v>1.778</v>
       </c>
       <c r="D130" t="n">
-        <v>1.709</v>
+        <v>1.778</v>
       </c>
       <c r="E130" t="n">
-        <v>1.709</v>
+        <v>1.765</v>
       </c>
       <c r="F130" t="n">
-        <v>2343</v>
+        <v>106604</v>
       </c>
       <c r="G130" t="n">
-        <v>-46564703.18702517</v>
+        <v>-41317500.72448711</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>1.682</v>
+        <v>1.691</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F131" t="n">
-        <v>118279.5292</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-46446423.65782516</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F132" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-46646423.65782516</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F133" t="n">
-        <v>440000</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-46646423.65782516</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F134" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-46646423.65782516</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F135" t="n">
-        <v>275444</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F136" t="n">
-        <v>896357.2036</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1234.166</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2110</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F139" t="n">
-        <v>4092</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F140" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F141" t="n">
-        <v>360000</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F142" t="n">
-        <v>240000</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F143" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="F144" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-46450979.65782516</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="F145" t="n">
-        <v>236166</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-46450979.65782516</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="F146" t="n">
-        <v>4574</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-46450979.65782516</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="F147" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-46410979.65782516</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F148" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-46410979.65782516</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F149" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-46310979.65782516</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="F150" t="n">
-        <v>129669.1892</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-46440648.84702516</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="F151" t="n">
-        <v>300</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-46440948.84702516</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="F152" t="n">
-        <v>38940.1173</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-46440948.84702516</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="F153" t="n">
-        <v>5692.1046</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-46446640.95162516</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F154" t="n">
-        <v>346.4965</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-46446294.45512516</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F155" t="n">
-        <v>46846.0387</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-46446294.45512516</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="F156" t="n">
-        <v>300</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-46446594.45512516</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-46448494.45512516</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F158" t="n">
-        <v>474965.6262</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-45973528.82892516</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F159" t="n">
-        <v>825034.3737999999</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-45973528.82892516</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="F160" t="n">
-        <v>300</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-45973828.82892516</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="F161" t="n">
-        <v>651.3119533527697</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-45973177.51697181</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="F162" t="n">
-        <v>11854.5136</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-45985032.03057181</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="F163" t="n">
-        <v>300</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-45984732.03057181</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="F164" t="n">
-        <v>300</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-45984432.03057181</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1159946.186484704</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-44824485.84408711</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="F166" t="n">
-        <v>58061.8188</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-44882547.66288711</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1.713</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1.713</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.713</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.713</v>
-      </c>
-      <c r="F167" t="n">
-        <v>300</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-44882847.66288711</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="F168" t="n">
-        <v>41370</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-44841477.66288711</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="F169" t="n">
-        <v>165412</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-44841477.66288711</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2900000</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-41941477.66288711</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="F171" t="n">
-        <v>517372.9384</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-41424104.72448711</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="F172" t="n">
-        <v>106604</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-41317500.72448711</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
+        <v>1.046448846836192</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest MXC.xlsx
+++ b/BackTest/2020-01-22 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="C2" t="n">
         <v>1.71</v>
@@ -447,13 +447,13 @@
         <v>1.71</v>
       </c>
       <c r="E2" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="F2" t="n">
-        <v>220000</v>
+        <v>80381.246</v>
       </c>
       <c r="G2" t="n">
-        <v>-36293388.96541765</v>
+        <v>-10144203.41441765</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="C3" t="n">
-        <v>1.72</v>
+        <v>1.709</v>
       </c>
       <c r="D3" t="n">
-        <v>1.72</v>
+        <v>1.709</v>
       </c>
       <c r="E3" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="F3" t="n">
-        <v>42528</v>
+        <v>510000</v>
       </c>
       <c r="G3" t="n">
-        <v>-36250860.96541765</v>
+        <v>-10654203.41441765</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.719</v>
+        <v>1.709</v>
       </c>
       <c r="C4" t="n">
-        <v>1.719</v>
+        <v>1.683</v>
       </c>
       <c r="D4" t="n">
-        <v>1.719</v>
+        <v>1.709</v>
       </c>
       <c r="E4" t="n">
-        <v>1.719</v>
+        <v>1.683</v>
       </c>
       <c r="F4" t="n">
-        <v>60000</v>
+        <v>1079003.7091</v>
       </c>
       <c r="G4" t="n">
-        <v>-36310860.96541765</v>
+        <v>-11733207.12351765</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="C5" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="D5" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="E5" t="n">
-        <v>1.715</v>
+        <v>1.71</v>
       </c>
       <c r="F5" t="n">
-        <v>220000</v>
+        <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>-36530860.96541765</v>
+        <v>-11732907.12351765</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="C6" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="D6" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="E6" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="F6" t="n">
-        <v>20000</v>
+        <v>13921</v>
       </c>
       <c r="G6" t="n">
-        <v>-36530860.96541765</v>
+        <v>-11732907.12351765</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="C7" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="D7" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="E7" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="F7" t="n">
-        <v>40000</v>
+        <v>2005</v>
       </c>
       <c r="G7" t="n">
-        <v>-36530860.96541765</v>
+        <v>-11732907.12351765</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="C8" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="D8" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="E8" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="F8" t="n">
-        <v>207634</v>
+        <v>2005</v>
       </c>
       <c r="G8" t="n">
-        <v>-36530860.96541765</v>
+        <v>-11732907.12351765</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="C9" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="D9" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="E9" t="n">
-        <v>1.718</v>
+        <v>1.71</v>
       </c>
       <c r="F9" t="n">
-        <v>60000</v>
+        <v>11930</v>
       </c>
       <c r="G9" t="n">
-        <v>-36470860.96541765</v>
+        <v>-11732907.12351765</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="C10" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="D10" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="E10" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="F10" t="n">
-        <v>40000</v>
+        <v>146445.5819</v>
       </c>
       <c r="G10" t="n">
-        <v>-36470860.96541765</v>
+        <v>-11732907.12351765</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.702</v>
+        <v>1.69</v>
       </c>
       <c r="C11" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="D11" t="n">
-        <v>1.702</v>
+        <v>1.69</v>
       </c>
       <c r="E11" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="F11" t="n">
-        <v>470000</v>
+        <v>229093.9709</v>
       </c>
       <c r="G11" t="n">
-        <v>-36940860.96541765</v>
+        <v>-11962001.09441765</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="C12" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="D12" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="E12" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="F12" t="n">
-        <v>60000</v>
+        <v>36021</v>
       </c>
       <c r="G12" t="n">
-        <v>-36880860.96541765</v>
+        <v>-11962001.09441765</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="C13" t="n">
-        <v>1.715</v>
+        <v>1.69</v>
       </c>
       <c r="D13" t="n">
-        <v>1.715</v>
+        <v>1.69</v>
       </c>
       <c r="E13" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="F13" t="n">
-        <v>340686</v>
+        <v>316402</v>
       </c>
       <c r="G13" t="n">
-        <v>-36540174.96541765</v>
+        <v>-11962001.09441765</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.715</v>
+        <v>1.69</v>
       </c>
       <c r="C14" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="D14" t="n">
-        <v>1.728</v>
+        <v>1.71</v>
       </c>
       <c r="E14" t="n">
-        <v>1.715</v>
+        <v>1.69</v>
       </c>
       <c r="F14" t="n">
-        <v>20000</v>
+        <v>564614.7747</v>
       </c>
       <c r="G14" t="n">
-        <v>-36520174.96541765</v>
+        <v>-11397386.31971765</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.727</v>
+        <v>1.71</v>
       </c>
       <c r="C15" t="n">
-        <v>1.727</v>
+        <v>1.71</v>
       </c>
       <c r="D15" t="n">
-        <v>1.727</v>
+        <v>1.71</v>
       </c>
       <c r="E15" t="n">
-        <v>1.727</v>
+        <v>1.71</v>
       </c>
       <c r="F15" t="n">
-        <v>587.7169</v>
+        <v>100250</v>
       </c>
       <c r="G15" t="n">
-        <v>-36520762.68231765</v>
+        <v>-11397386.31971765</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.728</v>
+        <v>1.688</v>
       </c>
       <c r="C16" t="n">
-        <v>1.739</v>
+        <v>1.685</v>
       </c>
       <c r="D16" t="n">
-        <v>1.739</v>
+        <v>1.688</v>
       </c>
       <c r="E16" t="n">
-        <v>1.728</v>
+        <v>1.685</v>
       </c>
       <c r="F16" t="n">
-        <v>405438</v>
+        <v>321327.1231</v>
       </c>
       <c r="G16" t="n">
-        <v>-36115324.68231765</v>
+        <v>-11718713.44281765</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.727</v>
+        <v>1.71</v>
       </c>
       <c r="C17" t="n">
-        <v>1.727</v>
+        <v>1.71</v>
       </c>
       <c r="D17" t="n">
-        <v>1.727</v>
+        <v>1.71</v>
       </c>
       <c r="E17" t="n">
-        <v>1.727</v>
+        <v>1.71</v>
       </c>
       <c r="F17" t="n">
-        <v>17044.3407</v>
+        <v>457.1542</v>
       </c>
       <c r="G17" t="n">
-        <v>-36132369.02301765</v>
+        <v>-11718256.28861765</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.735</v>
+        <v>1.71</v>
       </c>
       <c r="C18" t="n">
-        <v>1.735</v>
+        <v>1.7</v>
       </c>
       <c r="D18" t="n">
-        <v>1.735</v>
+        <v>1.71</v>
       </c>
       <c r="E18" t="n">
-        <v>1.735</v>
+        <v>1.7</v>
       </c>
       <c r="F18" t="n">
-        <v>17291.0663</v>
+        <v>195000</v>
       </c>
       <c r="G18" t="n">
-        <v>-36115077.95671766</v>
+        <v>-11913256.28861765</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.731</v>
+        <v>1.69</v>
       </c>
       <c r="C19" t="n">
-        <v>1.731</v>
+        <v>1.69</v>
       </c>
       <c r="D19" t="n">
-        <v>1.731</v>
+        <v>1.69</v>
       </c>
       <c r="E19" t="n">
-        <v>1.731</v>
+        <v>1.69</v>
       </c>
       <c r="F19" t="n">
-        <v>17005.77700751011</v>
+        <v>298</v>
       </c>
       <c r="G19" t="n">
-        <v>-36132083.73372517</v>
+        <v>-11913554.28861765</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.719</v>
+        <v>1.69</v>
       </c>
       <c r="C20" t="n">
-        <v>1.719</v>
+        <v>1.69</v>
       </c>
       <c r="D20" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="E20" t="n">
-        <v>1.719</v>
+        <v>1.69</v>
       </c>
       <c r="F20" t="n">
-        <v>7355</v>
+        <v>4988</v>
       </c>
       <c r="G20" t="n">
-        <v>-36139438.73372517</v>
+        <v>-11913554.28861765</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.731</v>
+        <v>1.71</v>
       </c>
       <c r="C21" t="n">
-        <v>1.731</v>
+        <v>1.69</v>
       </c>
       <c r="D21" t="n">
-        <v>1.731</v>
+        <v>1.71</v>
       </c>
       <c r="E21" t="n">
-        <v>1.731</v>
+        <v>1.69</v>
       </c>
       <c r="F21" t="n">
-        <v>290</v>
+        <v>598</v>
       </c>
       <c r="G21" t="n">
-        <v>-36139148.73372517</v>
+        <v>-11913554.28861765</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="C22" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="D22" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="E22" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0742</v>
+        <v>13283.5805</v>
       </c>
       <c r="G22" t="n">
-        <v>-36139148.80792516</v>
+        <v>-11900270.70811765</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="C23" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="D23" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="E23" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="F23" t="n">
-        <v>40000</v>
+        <v>24506.3</v>
       </c>
       <c r="G23" t="n">
-        <v>-36099148.80792516</v>
+        <v>-11900270.70811765</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.711</v>
+        <v>1.709</v>
       </c>
       <c r="C24" t="n">
-        <v>1.72</v>
+        <v>1.709</v>
       </c>
       <c r="D24" t="n">
-        <v>1.72</v>
+        <v>1.709</v>
       </c>
       <c r="E24" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="F24" t="n">
-        <v>371417.1558</v>
+        <v>24506.3</v>
       </c>
       <c r="G24" t="n">
-        <v>-36470565.96372516</v>
+        <v>-11924777.00811765</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.702</v>
+        <v>1.708</v>
       </c>
       <c r="C25" t="n">
-        <v>1.702</v>
+        <v>1.708</v>
       </c>
       <c r="D25" t="n">
-        <v>1.702</v>
+        <v>1.708</v>
       </c>
       <c r="E25" t="n">
-        <v>1.702</v>
+        <v>1.708</v>
       </c>
       <c r="F25" t="n">
-        <v>300</v>
+        <v>80378.89999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-36470865.96372516</v>
+        <v>-12005155.90811765</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="C26" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="D26" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="E26" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="F26" t="n">
-        <v>160000</v>
+        <v>24506.3</v>
       </c>
       <c r="G26" t="n">
-        <v>-36310865.96372516</v>
+        <v>-12005155.90811765</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="C27" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="D27" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="E27" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="F27" t="n">
-        <v>116057.7323</v>
+        <v>64506.3</v>
       </c>
       <c r="G27" t="n">
-        <v>-36310865.96372516</v>
+        <v>-12005155.90811765</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="C28" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="D28" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="E28" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="F28" t="n">
-        <v>20000</v>
+        <v>49012.6</v>
       </c>
       <c r="G28" t="n">
-        <v>-36310865.96372516</v>
+        <v>-12005155.90811765</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="C29" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="D29" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="E29" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="F29" t="n">
-        <v>60000</v>
+        <v>233288.4</v>
       </c>
       <c r="G29" t="n">
-        <v>-36310865.96372516</v>
+        <v>-12005155.90811765</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="C30" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="D30" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="E30" t="n">
-        <v>1.719</v>
+        <v>1.708</v>
       </c>
       <c r="F30" t="n">
-        <v>5002.9405</v>
+        <v>298</v>
       </c>
       <c r="G30" t="n">
-        <v>-36310865.96372516</v>
+        <v>-12004857.90811765</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="C31" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="D31" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="E31" t="n">
-        <v>1.719</v>
+        <v>1.71</v>
       </c>
       <c r="F31" t="n">
-        <v>174383</v>
+        <v>35323.8</v>
       </c>
       <c r="G31" t="n">
-        <v>-36136482.96372516</v>
+        <v>-12004857.90811765</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="C32" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="D32" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="E32" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F32" t="n">
-        <v>40000</v>
+        <v>11774.6</v>
       </c>
       <c r="G32" t="n">
-        <v>-36136482.96372516</v>
+        <v>-12004857.90811765</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.705</v>
+        <v>1.71</v>
       </c>
       <c r="C33" t="n">
-        <v>1.705</v>
+        <v>1.71</v>
       </c>
       <c r="D33" t="n">
-        <v>1.705</v>
+        <v>1.71</v>
       </c>
       <c r="E33" t="n">
-        <v>1.705</v>
+        <v>1.71</v>
       </c>
       <c r="F33" t="n">
-        <v>4571.2601</v>
+        <v>19202.2662</v>
       </c>
       <c r="G33" t="n">
-        <v>-36141054.22382516</v>
+        <v>-12004857.90811765</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1593,19 +1593,19 @@
         <v>1.71</v>
       </c>
       <c r="C34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="D34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="E34" t="n">
         <v>1.71</v>
       </c>
       <c r="F34" t="n">
-        <v>197729.6446</v>
+        <v>100000</v>
       </c>
       <c r="G34" t="n">
-        <v>-35943324.57922517</v>
+        <v>-11904857.90811765</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.705</v>
+        <v>1.72</v>
       </c>
       <c r="C35" t="n">
-        <v>1.702</v>
+        <v>1.72</v>
       </c>
       <c r="D35" t="n">
-        <v>1.705</v>
+        <v>1.72</v>
       </c>
       <c r="E35" t="n">
-        <v>1.702</v>
+        <v>1.72</v>
       </c>
       <c r="F35" t="n">
-        <v>893452.6376</v>
+        <v>100000</v>
       </c>
       <c r="G35" t="n">
-        <v>-36836777.21682516</v>
+        <v>-11904857.90811765</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="C36" t="n">
-        <v>1.729</v>
+        <v>1.69</v>
       </c>
       <c r="D36" t="n">
-        <v>1.729</v>
+        <v>1.7</v>
       </c>
       <c r="E36" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="F36" t="n">
-        <v>200000</v>
+        <v>560440.3599</v>
       </c>
       <c r="G36" t="n">
-        <v>-36636777.21682516</v>
+        <v>-12465298.26801765</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.723</v>
+        <v>1.72</v>
       </c>
       <c r="C37" t="n">
-        <v>1.723</v>
+        <v>1.74</v>
       </c>
       <c r="D37" t="n">
-        <v>1.723</v>
+        <v>1.74</v>
       </c>
       <c r="E37" t="n">
-        <v>1.723</v>
+        <v>1.72</v>
       </c>
       <c r="F37" t="n">
-        <v>20000</v>
+        <v>347757.7309</v>
       </c>
       <c r="G37" t="n">
-        <v>-36656777.21682516</v>
+        <v>-12117540.53711765</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="C38" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="D38" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="E38" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="F38" t="n">
-        <v>100000</v>
+        <v>9943.652</v>
       </c>
       <c r="G38" t="n">
-        <v>-36756777.21682516</v>
+        <v>-12117540.53711765</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.715</v>
+        <v>1.739</v>
       </c>
       <c r="C39" t="n">
-        <v>1.715</v>
+        <v>1.739</v>
       </c>
       <c r="D39" t="n">
-        <v>1.715</v>
+        <v>1.739</v>
       </c>
       <c r="E39" t="n">
-        <v>1.715</v>
+        <v>1.739</v>
       </c>
       <c r="F39" t="n">
-        <v>11617</v>
+        <v>6718437.7963</v>
       </c>
       <c r="G39" t="n">
-        <v>-36768394.21682516</v>
+        <v>-18835978.33341765</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="C40" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="D40" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="E40" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="F40" t="n">
-        <v>62147</v>
+        <v>12385822.3298</v>
       </c>
       <c r="G40" t="n">
-        <v>-36830541.21682516</v>
+        <v>-31221800.66321765</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.71</v>
+        <v>1.725</v>
       </c>
       <c r="C41" t="n">
-        <v>1.71</v>
+        <v>1.725</v>
       </c>
       <c r="D41" t="n">
-        <v>1.71</v>
+        <v>1.725</v>
       </c>
       <c r="E41" t="n">
-        <v>1.71</v>
+        <v>1.725</v>
       </c>
       <c r="F41" t="n">
-        <v>47675</v>
+        <v>3294.8272</v>
       </c>
       <c r="G41" t="n">
-        <v>-36830541.21682516</v>
+        <v>-31225095.49041765</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.71</v>
+        <v>1.726</v>
       </c>
       <c r="C42" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="D42" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="E42" t="n">
-        <v>1.71</v>
+        <v>1.726</v>
       </c>
       <c r="F42" t="n">
-        <v>280000</v>
+        <v>716233.8493</v>
       </c>
       <c r="G42" t="n">
-        <v>-36830541.21682516</v>
+        <v>-30508861.64111765</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="C43" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="D43" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="E43" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="F43" t="n">
-        <v>120000</v>
+        <v>74781.7366</v>
       </c>
       <c r="G43" t="n">
-        <v>-36830541.21682516</v>
+        <v>-30583643.37771765</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="C44" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="D44" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="E44" t="n">
-        <v>1.71</v>
+        <v>1.736</v>
       </c>
       <c r="F44" t="n">
-        <v>23620.8097</v>
+        <v>6739941.316</v>
       </c>
       <c r="G44" t="n">
-        <v>-36830541.21682516</v>
+        <v>-30583643.37771765</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.715</v>
+        <v>1.738</v>
       </c>
       <c r="C45" t="n">
-        <v>1.715</v>
+        <v>1.738</v>
       </c>
       <c r="D45" t="n">
-        <v>1.715</v>
+        <v>1.738</v>
       </c>
       <c r="E45" t="n">
-        <v>1.715</v>
+        <v>1.738</v>
       </c>
       <c r="F45" t="n">
-        <v>211589</v>
+        <v>172386.0116</v>
       </c>
       <c r="G45" t="n">
-        <v>-36618952.21682516</v>
+        <v>-30411257.36611765</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.708</v>
+        <v>1.733</v>
       </c>
       <c r="C46" t="n">
-        <v>1.708</v>
+        <v>1.733</v>
       </c>
       <c r="D46" t="n">
-        <v>1.708</v>
+        <v>1.733</v>
       </c>
       <c r="E46" t="n">
-        <v>1.708</v>
+        <v>1.733</v>
       </c>
       <c r="F46" t="n">
-        <v>588620.3329</v>
+        <v>6761643.4649</v>
       </c>
       <c r="G46" t="n">
-        <v>-37207572.54972517</v>
+        <v>-37172900.83101765</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.708</v>
+        <v>1.733</v>
       </c>
       <c r="C47" t="n">
-        <v>1.708</v>
+        <v>1.738</v>
       </c>
       <c r="D47" t="n">
-        <v>1.708</v>
+        <v>1.738</v>
       </c>
       <c r="E47" t="n">
-        <v>1.708</v>
+        <v>1.733</v>
       </c>
       <c r="F47" t="n">
-        <v>207160</v>
+        <v>6773481.2003</v>
       </c>
       <c r="G47" t="n">
-        <v>-37207572.54972517</v>
+        <v>-30399419.63071765</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.704</v>
+        <v>1.735</v>
       </c>
       <c r="C48" t="n">
-        <v>1.704</v>
+        <v>1.735</v>
       </c>
       <c r="D48" t="n">
-        <v>1.704</v>
+        <v>1.735</v>
       </c>
       <c r="E48" t="n">
-        <v>1.704</v>
+        <v>1.735</v>
       </c>
       <c r="F48" t="n">
-        <v>11842.2276</v>
+        <v>6493284.0114</v>
       </c>
       <c r="G48" t="n">
-        <v>-37219414.77732517</v>
+        <v>-36892703.64211765</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.703</v>
+        <v>1.735</v>
       </c>
       <c r="C49" t="n">
-        <v>1.7</v>
+        <v>1.735</v>
       </c>
       <c r="D49" t="n">
-        <v>1.714</v>
+        <v>1.735</v>
       </c>
       <c r="E49" t="n">
-        <v>1.684</v>
+        <v>1.735</v>
       </c>
       <c r="F49" t="n">
-        <v>6157051.673</v>
+        <v>6425645.6303</v>
       </c>
       <c r="G49" t="n">
-        <v>-43376466.45032517</v>
+        <v>-36892703.64211765</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.684</v>
+        <v>1.73</v>
       </c>
       <c r="C50" t="n">
-        <v>1.684</v>
+        <v>1.746</v>
       </c>
       <c r="D50" t="n">
-        <v>1.7</v>
+        <v>1.746</v>
       </c>
       <c r="E50" t="n">
-        <v>1.684</v>
+        <v>1.73</v>
       </c>
       <c r="F50" t="n">
-        <v>2833372.5267</v>
+        <v>6681788.5966</v>
       </c>
       <c r="G50" t="n">
-        <v>-46209838.97702517</v>
+        <v>-30210915.04551765</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.684</v>
+        <v>1.744</v>
       </c>
       <c r="C51" t="n">
-        <v>1.683</v>
+        <v>1.744</v>
       </c>
       <c r="D51" t="n">
-        <v>1.684</v>
+        <v>1.744</v>
       </c>
       <c r="E51" t="n">
-        <v>1.683</v>
+        <v>1.744</v>
       </c>
       <c r="F51" t="n">
-        <v>48159.2218</v>
+        <v>175231.0877</v>
       </c>
       <c r="G51" t="n">
-        <v>-46257998.19882517</v>
+        <v>-30386146.13321765</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.683</v>
+        <v>1.729</v>
       </c>
       <c r="C52" t="n">
-        <v>1.683</v>
+        <v>1.729</v>
       </c>
       <c r="D52" t="n">
-        <v>1.683</v>
+        <v>1.729</v>
       </c>
       <c r="E52" t="n">
-        <v>1.683</v>
+        <v>1.729</v>
       </c>
       <c r="F52" t="n">
-        <v>11854.5136</v>
+        <v>12636378.6369</v>
       </c>
       <c r="G52" t="n">
-        <v>-46257998.19882517</v>
+        <v>-43022524.77011765</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.682</v>
+        <v>1.729</v>
       </c>
       <c r="C53" t="n">
-        <v>1.682</v>
+        <v>1.739</v>
       </c>
       <c r="D53" t="n">
-        <v>1.682</v>
+        <v>1.739</v>
       </c>
       <c r="E53" t="n">
-        <v>1.682</v>
+        <v>1.729</v>
       </c>
       <c r="F53" t="n">
-        <v>156639.0076</v>
+        <v>6602421.365</v>
       </c>
       <c r="G53" t="n">
-        <v>-46414637.20642517</v>
+        <v>-36420103.40511765</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.682</v>
+        <v>1.739</v>
       </c>
       <c r="C54" t="n">
-        <v>1.682</v>
+        <v>1.739</v>
       </c>
       <c r="D54" t="n">
-        <v>1.682</v>
+        <v>1.739</v>
       </c>
       <c r="E54" t="n">
-        <v>1.682</v>
+        <v>1.739</v>
       </c>
       <c r="F54" t="n">
-        <v>20805.36</v>
+        <v>3424.1924</v>
       </c>
       <c r="G54" t="n">
-        <v>-46414637.20642517</v>
+        <v>-36420103.40511765</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.682</v>
+        <v>1.718</v>
       </c>
       <c r="C55" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="D55" t="n">
-        <v>1.682</v>
+        <v>1.718</v>
       </c>
       <c r="E55" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="F55" t="n">
-        <v>438906.5297</v>
+        <v>20000</v>
       </c>
       <c r="G55" t="n">
-        <v>-46414637.20642517</v>
+        <v>-36440103.40511765</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="C56" t="n">
-        <v>1.682</v>
+        <v>1.7</v>
       </c>
       <c r="D56" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="E56" t="n">
-        <v>1.682</v>
+        <v>1.7</v>
       </c>
       <c r="F56" t="n">
-        <v>239364.79</v>
+        <v>350849.3147</v>
       </c>
       <c r="G56" t="n">
-        <v>-46414637.20642517</v>
+        <v>-36790952.71981765</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.696</v>
+        <v>1.7</v>
       </c>
       <c r="C57" t="n">
-        <v>1.696</v>
+        <v>1.7</v>
       </c>
       <c r="D57" t="n">
-        <v>1.696</v>
+        <v>1.7</v>
       </c>
       <c r="E57" t="n">
-        <v>1.696</v>
+        <v>1.7</v>
       </c>
       <c r="F57" t="n">
-        <v>367.2527</v>
+        <v>221877.9344</v>
       </c>
       <c r="G57" t="n">
-        <v>-46414269.95372517</v>
+        <v>-36790952.71981765</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.69</v>
+        <v>1.702</v>
       </c>
       <c r="C58" t="n">
-        <v>1.713</v>
+        <v>1.702</v>
       </c>
       <c r="D58" t="n">
-        <v>1.713</v>
+        <v>1.702</v>
       </c>
       <c r="E58" t="n">
-        <v>1.69</v>
+        <v>1.702</v>
       </c>
       <c r="F58" t="n">
-        <v>420933.2902</v>
+        <v>20000</v>
       </c>
       <c r="G58" t="n">
-        <v>-45993336.66352516</v>
+        <v>-36770952.71981765</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="C59" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D59" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="E59" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="F59" t="n">
-        <v>974749.2561999999</v>
+        <v>290</v>
       </c>
       <c r="G59" t="n">
-        <v>-46968085.91972516</v>
+        <v>-36770662.71981765</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.7</v>
+        <v>1.703</v>
       </c>
       <c r="C60" t="n">
-        <v>1.7</v>
+        <v>1.702</v>
       </c>
       <c r="D60" t="n">
-        <v>1.7</v>
+        <v>1.703</v>
       </c>
       <c r="E60" t="n">
-        <v>1.7</v>
+        <v>1.702</v>
       </c>
       <c r="F60" t="n">
-        <v>430764</v>
+        <v>80000</v>
       </c>
       <c r="G60" t="n">
-        <v>-46968085.91972516</v>
+        <v>-36850662.71981765</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.683</v>
+        <v>1.73</v>
       </c>
       <c r="C61" t="n">
-        <v>1.683</v>
+        <v>1.73</v>
       </c>
       <c r="D61" t="n">
-        <v>1.683</v>
+        <v>1.73</v>
       </c>
       <c r="E61" t="n">
-        <v>1.683</v>
+        <v>1.73</v>
       </c>
       <c r="F61" t="n">
-        <v>774356.0946</v>
+        <v>290</v>
       </c>
       <c r="G61" t="n">
-        <v>-47742442.01432516</v>
+        <v>-36850372.71981765</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="C62" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D62" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="E62" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="F62" t="n">
-        <v>113685.1078</v>
+        <v>1700</v>
       </c>
       <c r="G62" t="n">
-        <v>-47628756.90652516</v>
+        <v>-36850372.71981765</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="C63" t="n">
-        <v>1.7</v>
+        <v>1.739</v>
       </c>
       <c r="D63" t="n">
-        <v>1.7</v>
+        <v>1.739</v>
       </c>
       <c r="E63" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="F63" t="n">
-        <v>75143.9457</v>
+        <v>48908</v>
       </c>
       <c r="G63" t="n">
-        <v>-47628756.90652516</v>
+        <v>-36801464.71981765</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.714</v>
+        <v>1.739</v>
       </c>
       <c r="C64" t="n">
-        <v>1.714</v>
+        <v>1.74</v>
       </c>
       <c r="D64" t="n">
-        <v>1.714</v>
+        <v>1.74</v>
       </c>
       <c r="E64" t="n">
-        <v>1.714</v>
+        <v>1.739</v>
       </c>
       <c r="F64" t="n">
-        <v>5100</v>
+        <v>39904</v>
       </c>
       <c r="G64" t="n">
-        <v>-47623656.90652516</v>
+        <v>-36761560.71981765</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.696</v>
+        <v>1.74</v>
       </c>
       <c r="C65" t="n">
-        <v>1.695</v>
+        <v>1.74</v>
       </c>
       <c r="D65" t="n">
-        <v>1.696</v>
+        <v>1.74</v>
       </c>
       <c r="E65" t="n">
-        <v>1.695</v>
+        <v>1.74</v>
       </c>
       <c r="F65" t="n">
-        <v>18851</v>
+        <v>11855.8014</v>
       </c>
       <c r="G65" t="n">
-        <v>-47642507.90652516</v>
+        <v>-36761560.71981765</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.695</v>
+        <v>1.72</v>
       </c>
       <c r="C66" t="n">
-        <v>1.714</v>
+        <v>1.734</v>
       </c>
       <c r="D66" t="n">
-        <v>1.714</v>
+        <v>1.734</v>
       </c>
       <c r="E66" t="n">
-        <v>1.693</v>
+        <v>1.72</v>
       </c>
       <c r="F66" t="n">
-        <v>429067.5304</v>
+        <v>506537.7559</v>
       </c>
       <c r="G66" t="n">
-        <v>-47213440.37612516</v>
+        <v>-37268098.47571765</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.714</v>
+        <v>1.711</v>
       </c>
       <c r="C67" t="n">
-        <v>1.692</v>
+        <v>1.731</v>
       </c>
       <c r="D67" t="n">
-        <v>1.714</v>
+        <v>1.731</v>
       </c>
       <c r="E67" t="n">
-        <v>1.692</v>
+        <v>1.711</v>
       </c>
       <c r="F67" t="n">
-        <v>368784.9553</v>
+        <v>702676.6317</v>
       </c>
       <c r="G67" t="n">
-        <v>-47582225.33142517</v>
+        <v>-37970775.10741765</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.692</v>
+        <v>1.71</v>
       </c>
       <c r="C68" t="n">
-        <v>1.691</v>
+        <v>1.72</v>
       </c>
       <c r="D68" t="n">
-        <v>1.692</v>
+        <v>1.72</v>
       </c>
       <c r="E68" t="n">
-        <v>1.691</v>
+        <v>1.71</v>
       </c>
       <c r="F68" t="n">
-        <v>955119.1341</v>
+        <v>2000</v>
       </c>
       <c r="G68" t="n">
-        <v>-48537344.46552517</v>
+        <v>-37972775.10741765</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="C69" t="n">
-        <v>1.692</v>
+        <v>1.72</v>
       </c>
       <c r="D69" t="n">
-        <v>1.692</v>
+        <v>1.72</v>
       </c>
       <c r="E69" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="F69" t="n">
-        <v>832993.0694</v>
+        <v>981515.8731</v>
       </c>
       <c r="G69" t="n">
-        <v>-47704351.39612517</v>
+        <v>-37972775.10741765</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.692</v>
+        <v>1.711</v>
       </c>
       <c r="C70" t="n">
-        <v>1.692</v>
+        <v>1.73</v>
       </c>
       <c r="D70" t="n">
-        <v>1.692</v>
+        <v>1.73</v>
       </c>
       <c r="E70" t="n">
-        <v>1.692</v>
+        <v>1.702</v>
       </c>
       <c r="F70" t="n">
-        <v>767055.206</v>
+        <v>1904725.5218</v>
       </c>
       <c r="G70" t="n">
-        <v>-47704351.39612517</v>
+        <v>-36068049.58561765</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="C71" t="n">
-        <v>1.693</v>
+        <v>1.71</v>
       </c>
       <c r="D71" t="n">
-        <v>1.693</v>
+        <v>1.715</v>
       </c>
       <c r="E71" t="n">
-        <v>1.689</v>
+        <v>1.71</v>
       </c>
       <c r="F71" t="n">
-        <v>383987.8759</v>
+        <v>225339.3798</v>
       </c>
       <c r="G71" t="n">
-        <v>-47320363.52022517</v>
+        <v>-36293388.96541765</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.693</v>
+        <v>1.71</v>
       </c>
       <c r="C72" t="n">
-        <v>1.688</v>
+        <v>1.71</v>
       </c>
       <c r="D72" t="n">
-        <v>1.693</v>
+        <v>1.71</v>
       </c>
       <c r="E72" t="n">
-        <v>1.688</v>
+        <v>1.71</v>
       </c>
       <c r="F72" t="n">
-        <v>646203.6396</v>
+        <v>103673</v>
       </c>
       <c r="G72" t="n">
-        <v>-47966567.15982517</v>
+        <v>-36293388.96541765</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.688</v>
+        <v>1.71</v>
       </c>
       <c r="C73" t="n">
-        <v>1.691</v>
+        <v>1.71</v>
       </c>
       <c r="D73" t="n">
-        <v>1.691</v>
+        <v>1.71</v>
       </c>
       <c r="E73" t="n">
-        <v>1.688</v>
+        <v>1.71</v>
       </c>
       <c r="F73" t="n">
-        <v>461890.1319</v>
+        <v>220000</v>
       </c>
       <c r="G73" t="n">
-        <v>-47504677.02792517</v>
+        <v>-36293388.96541765</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.691</v>
+        <v>1.71</v>
       </c>
       <c r="C74" t="n">
-        <v>1.692</v>
+        <v>1.72</v>
       </c>
       <c r="D74" t="n">
-        <v>1.692</v>
+        <v>1.72</v>
       </c>
       <c r="E74" t="n">
-        <v>1.691</v>
+        <v>1.71</v>
       </c>
       <c r="F74" t="n">
-        <v>268323</v>
+        <v>42528</v>
       </c>
       <c r="G74" t="n">
-        <v>-47236354.02792517</v>
+        <v>-36250860.96541765</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.691</v>
+        <v>1.719</v>
       </c>
       <c r="C75" t="n">
-        <v>1.691</v>
+        <v>1.719</v>
       </c>
       <c r="D75" t="n">
-        <v>1.692</v>
+        <v>1.719</v>
       </c>
       <c r="E75" t="n">
-        <v>1.688</v>
+        <v>1.719</v>
       </c>
       <c r="F75" t="n">
-        <v>281974.5126</v>
+        <v>60000</v>
       </c>
       <c r="G75" t="n">
-        <v>-47518328.54052517</v>
+        <v>-36310860.96541765</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,28 +3102,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="C76" t="n">
-        <v>1.692</v>
+        <v>1.718</v>
       </c>
       <c r="D76" t="n">
-        <v>1.692</v>
+        <v>1.718</v>
       </c>
       <c r="E76" t="n">
-        <v>1.691</v>
+        <v>1.715</v>
       </c>
       <c r="F76" t="n">
-        <v>380644.89</v>
+        <v>220000</v>
       </c>
       <c r="G76" t="n">
-        <v>-47137683.65052517</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.692</v>
+        <v>1.718</v>
       </c>
       <c r="C77" t="n">
-        <v>1.692</v>
+        <v>1.718</v>
       </c>
       <c r="D77" t="n">
-        <v>1.693</v>
+        <v>1.718</v>
       </c>
       <c r="E77" t="n">
-        <v>1.692</v>
+        <v>1.718</v>
       </c>
       <c r="F77" t="n">
-        <v>315015.21</v>
+        <v>20000</v>
       </c>
       <c r="G77" t="n">
-        <v>-47137683.65052517</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.692</v>
+        <v>1.718</v>
       </c>
       <c r="C78" t="n">
-        <v>1.714</v>
+        <v>1.718</v>
       </c>
       <c r="D78" t="n">
-        <v>1.714</v>
+        <v>1.718</v>
       </c>
       <c r="E78" t="n">
-        <v>1.692</v>
+        <v>1.718</v>
       </c>
       <c r="F78" t="n">
-        <v>71183.19</v>
+        <v>40000</v>
       </c>
       <c r="G78" t="n">
-        <v>-47066500.46052517</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.691</v>
+        <v>1.718</v>
       </c>
       <c r="C79" t="n">
-        <v>1.691</v>
+        <v>1.718</v>
       </c>
       <c r="D79" t="n">
-        <v>1.691</v>
+        <v>1.718</v>
       </c>
       <c r="E79" t="n">
-        <v>1.691</v>
+        <v>1.718</v>
       </c>
       <c r="F79" t="n">
-        <v>29516.2089</v>
+        <v>207634</v>
       </c>
       <c r="G79" t="n">
-        <v>-47096016.66942517</v>
+        <v>-36530860.96541765</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.691</v>
+        <v>1.718</v>
       </c>
       <c r="C80" t="n">
-        <v>1.691</v>
+        <v>1.719</v>
       </c>
       <c r="D80" t="n">
-        <v>1.691</v>
+        <v>1.719</v>
       </c>
       <c r="E80" t="n">
-        <v>1.691</v>
+        <v>1.718</v>
       </c>
       <c r="F80" t="n">
-        <v>207137.4</v>
+        <v>60000</v>
       </c>
       <c r="G80" t="n">
-        <v>-47096016.66942517</v>
+        <v>-36470860.96541765</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,35 +3282,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.691</v>
+        <v>1.719</v>
       </c>
       <c r="C81" t="n">
-        <v>1.691</v>
+        <v>1.719</v>
       </c>
       <c r="D81" t="n">
-        <v>1.691</v>
+        <v>1.719</v>
       </c>
       <c r="E81" t="n">
-        <v>1.691</v>
+        <v>1.719</v>
       </c>
       <c r="F81" t="n">
-        <v>27745.2</v>
+        <v>40000</v>
       </c>
       <c r="G81" t="n">
-        <v>-47096016.66942517</v>
+        <v>-36470860.96541765</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1.691</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
@@ -3322,40 +3318,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.691</v>
+        <v>1.702</v>
       </c>
       <c r="C82" t="n">
-        <v>1.714</v>
+        <v>1.7</v>
       </c>
       <c r="D82" t="n">
-        <v>1.714</v>
+        <v>1.702</v>
       </c>
       <c r="E82" t="n">
-        <v>1.691</v>
+        <v>1.7</v>
       </c>
       <c r="F82" t="n">
-        <v>534306.4824</v>
+        <v>470000</v>
       </c>
       <c r="G82" t="n">
-        <v>-46561710.18702517</v>
+        <v>-36940860.96541765</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3378,10 +3366,10 @@
         <v>1.71</v>
       </c>
       <c r="F83" t="n">
-        <v>650</v>
+        <v>60000</v>
       </c>
       <c r="G83" t="n">
-        <v>-46562360.18702517</v>
+        <v>-36880860.96541765</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3411,19 +3393,19 @@
         <v>1.71</v>
       </c>
       <c r="C84" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="D84" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="E84" t="n">
         <v>1.71</v>
       </c>
       <c r="F84" t="n">
-        <v>20000</v>
+        <v>340686</v>
       </c>
       <c r="G84" t="n">
-        <v>-46562360.18702517</v>
+        <v>-36540174.96541765</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3432,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3450,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="C85" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="D85" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="E85" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="F85" t="n">
-        <v>320281</v>
+        <v>20000</v>
       </c>
       <c r="G85" t="n">
-        <v>-46562360.18702517</v>
+        <v>-36520174.96541765</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3474,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3492,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.71</v>
+        <v>1.727</v>
       </c>
       <c r="C86" t="n">
-        <v>1.71</v>
+        <v>1.727</v>
       </c>
       <c r="D86" t="n">
-        <v>1.71</v>
+        <v>1.727</v>
       </c>
       <c r="E86" t="n">
-        <v>1.71</v>
+        <v>1.727</v>
       </c>
       <c r="F86" t="n">
-        <v>550286</v>
+        <v>587.7169</v>
       </c>
       <c r="G86" t="n">
-        <v>-46562360.18702517</v>
+        <v>-36520762.68231765</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3516,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3534,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="C87" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="D87" t="n">
-        <v>1.71</v>
+        <v>1.739</v>
       </c>
       <c r="E87" t="n">
-        <v>1.71</v>
+        <v>1.728</v>
       </c>
       <c r="F87" t="n">
-        <v>15162</v>
+        <v>405438</v>
       </c>
       <c r="G87" t="n">
-        <v>-46562360.18702517</v>
+        <v>-36115324.68231765</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3558,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3576,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.709</v>
+        <v>1.727</v>
       </c>
       <c r="C88" t="n">
-        <v>1.709</v>
+        <v>1.727</v>
       </c>
       <c r="D88" t="n">
-        <v>1.709</v>
+        <v>1.727</v>
       </c>
       <c r="E88" t="n">
-        <v>1.709</v>
+        <v>1.727</v>
       </c>
       <c r="F88" t="n">
-        <v>2343</v>
+        <v>17044.3407</v>
       </c>
       <c r="G88" t="n">
-        <v>-46564703.18702517</v>
+        <v>-36132369.02301765</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3600,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3618,40 +3570,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.71</v>
+        <v>1.735</v>
       </c>
       <c r="C89" t="n">
-        <v>1.71</v>
+        <v>1.735</v>
       </c>
       <c r="D89" t="n">
-        <v>1.71</v>
+        <v>1.735</v>
       </c>
       <c r="E89" t="n">
-        <v>1.71</v>
+        <v>1.735</v>
       </c>
       <c r="F89" t="n">
-        <v>118279.5292</v>
+        <v>17291.0663</v>
       </c>
       <c r="G89" t="n">
-        <v>-46446423.65782516</v>
+        <v>-36115077.95671766</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3662,40 +3606,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.709</v>
+        <v>1.731</v>
       </c>
       <c r="C90" t="n">
-        <v>1.709</v>
+        <v>1.731</v>
       </c>
       <c r="D90" t="n">
-        <v>1.709</v>
+        <v>1.731</v>
       </c>
       <c r="E90" t="n">
-        <v>1.709</v>
+        <v>1.731</v>
       </c>
       <c r="F90" t="n">
-        <v>200000</v>
+        <v>17005.77700751011</v>
       </c>
       <c r="G90" t="n">
-        <v>-46646423.65782516</v>
+        <v>-36132083.73372517</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K90" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3706,40 +3642,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="C91" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="D91" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="E91" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="F91" t="n">
-        <v>440000</v>
+        <v>7355</v>
       </c>
       <c r="G91" t="n">
-        <v>-46646423.65782516</v>
+        <v>-36139438.73372517</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3750,40 +3678,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.709</v>
+        <v>1.731</v>
       </c>
       <c r="C92" t="n">
-        <v>1.709</v>
+        <v>1.731</v>
       </c>
       <c r="D92" t="n">
-        <v>1.709</v>
+        <v>1.731</v>
       </c>
       <c r="E92" t="n">
-        <v>1.709</v>
+        <v>1.731</v>
       </c>
       <c r="F92" t="n">
-        <v>200000</v>
+        <v>290</v>
       </c>
       <c r="G92" t="n">
-        <v>-46646423.65782516</v>
+        <v>-36139148.73372517</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3794,40 +3714,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="C93" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="D93" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="E93" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="F93" t="n">
-        <v>275444</v>
+        <v>0.0742</v>
       </c>
       <c r="G93" t="n">
-        <v>-46370979.65782516</v>
+        <v>-36139148.80792516</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3838,40 +3750,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="C94" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="D94" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="E94" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="F94" t="n">
-        <v>896357.2036</v>
+        <v>40000</v>
       </c>
       <c r="G94" t="n">
-        <v>-46370979.65782516</v>
+        <v>-36099148.80792516</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3882,40 +3786,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.71</v>
+        <v>1.711</v>
       </c>
       <c r="C95" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="D95" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="E95" t="n">
         <v>1.71</v>
       </c>
       <c r="F95" t="n">
-        <v>1234.166</v>
+        <v>371417.1558</v>
       </c>
       <c r="G95" t="n">
-        <v>-46370979.65782516</v>
+        <v>-36470565.96372516</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3926,40 +3822,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.71</v>
+        <v>1.702</v>
       </c>
       <c r="C96" t="n">
-        <v>1.71</v>
+        <v>1.702</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71</v>
+        <v>1.702</v>
       </c>
       <c r="E96" t="n">
-        <v>1.71</v>
+        <v>1.702</v>
       </c>
       <c r="F96" t="n">
-        <v>2110</v>
+        <v>300</v>
       </c>
       <c r="G96" t="n">
-        <v>-46370979.65782516</v>
+        <v>-36470865.96372516</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3970,40 +3858,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="C97" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="D97" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="E97" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="F97" t="n">
-        <v>4092</v>
+        <v>160000</v>
       </c>
       <c r="G97" t="n">
-        <v>-46370979.65782516</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="C98" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="D98" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="E98" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="F98" t="n">
-        <v>60000</v>
+        <v>116057.7323</v>
       </c>
       <c r="G98" t="n">
-        <v>-46430979.65782516</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4038,14 +3918,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4056,38 +3930,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="C99" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="D99" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="E99" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="F99" t="n">
-        <v>360000</v>
+        <v>20000</v>
       </c>
       <c r="G99" t="n">
-        <v>-46430979.65782516</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4098,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="C100" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71</v>
+        <v>1.719</v>
       </c>
       <c r="E100" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="F100" t="n">
-        <v>240000</v>
+        <v>60000</v>
       </c>
       <c r="G100" t="n">
-        <v>-46430979.65782516</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4122,14 +3990,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4140,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="C101" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="D101" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="E101" t="n">
-        <v>1.709</v>
+        <v>1.719</v>
       </c>
       <c r="F101" t="n">
-        <v>20000</v>
+        <v>5002.9405</v>
       </c>
       <c r="G101" t="n">
-        <v>-46430979.65782516</v>
+        <v>-36310865.96372516</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4164,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4182,40 +4038,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.708</v>
+        <v>1.719</v>
       </c>
       <c r="C102" t="n">
-        <v>1.708</v>
+        <v>1.72</v>
       </c>
       <c r="D102" t="n">
-        <v>1.708</v>
+        <v>1.72</v>
       </c>
       <c r="E102" t="n">
-        <v>1.708</v>
+        <v>1.719</v>
       </c>
       <c r="F102" t="n">
-        <v>20000</v>
+        <v>174383</v>
       </c>
       <c r="G102" t="n">
-        <v>-46450979.65782516</v>
+        <v>-36136482.96372516</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4226,40 +4074,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.708</v>
+        <v>1.72</v>
       </c>
       <c r="C103" t="n">
-        <v>1.708</v>
+        <v>1.72</v>
       </c>
       <c r="D103" t="n">
-        <v>1.708</v>
+        <v>1.72</v>
       </c>
       <c r="E103" t="n">
-        <v>1.708</v>
+        <v>1.72</v>
       </c>
       <c r="F103" t="n">
-        <v>236166</v>
+        <v>40000</v>
       </c>
       <c r="G103" t="n">
-        <v>-46450979.65782516</v>
+        <v>-36136482.96372516</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4270,40 +4110,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.708</v>
+        <v>1.705</v>
       </c>
       <c r="C104" t="n">
-        <v>1.708</v>
+        <v>1.705</v>
       </c>
       <c r="D104" t="n">
-        <v>1.708</v>
+        <v>1.705</v>
       </c>
       <c r="E104" t="n">
-        <v>1.708</v>
+        <v>1.705</v>
       </c>
       <c r="F104" t="n">
-        <v>4574</v>
+        <v>4571.2601</v>
       </c>
       <c r="G104" t="n">
-        <v>-46450979.65782516</v>
+        <v>-36141054.22382516</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4314,40 +4146,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.708</v>
+        <v>1.71</v>
       </c>
       <c r="C105" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="D105" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E105" t="n">
-        <v>1.708</v>
+        <v>1.71</v>
       </c>
       <c r="F105" t="n">
-        <v>40000</v>
+        <v>197729.6446</v>
       </c>
       <c r="G105" t="n">
-        <v>-46410979.65782516</v>
+        <v>-35943324.57922517</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="K105" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4358,40 +4182,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.709</v>
+        <v>1.705</v>
       </c>
       <c r="C106" t="n">
-        <v>1.709</v>
+        <v>1.702</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71</v>
+        <v>1.705</v>
       </c>
       <c r="E106" t="n">
-        <v>1.709</v>
+        <v>1.702</v>
       </c>
       <c r="F106" t="n">
-        <v>300000</v>
+        <v>893452.6376</v>
       </c>
       <c r="G106" t="n">
-        <v>-46410979.65782516</v>
+        <v>-36836777.21682516</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K106" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4402,40 +4218,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.709</v>
+        <v>1.72</v>
       </c>
       <c r="C107" t="n">
-        <v>1.71</v>
+        <v>1.729</v>
       </c>
       <c r="D107" t="n">
-        <v>1.71</v>
+        <v>1.729</v>
       </c>
       <c r="E107" t="n">
-        <v>1.709</v>
+        <v>1.72</v>
       </c>
       <c r="F107" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G107" t="n">
-        <v>-46310979.65782516</v>
+        <v>-36636777.21682516</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4446,40 +4254,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.707</v>
+        <v>1.723</v>
       </c>
       <c r="C108" t="n">
-        <v>1.707</v>
+        <v>1.723</v>
       </c>
       <c r="D108" t="n">
-        <v>1.707</v>
+        <v>1.723</v>
       </c>
       <c r="E108" t="n">
-        <v>1.707</v>
+        <v>1.723</v>
       </c>
       <c r="F108" t="n">
-        <v>129669.1892</v>
+        <v>20000</v>
       </c>
       <c r="G108" t="n">
-        <v>-46440648.84702516</v>
+        <v>-36656777.21682516</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4490,40 +4290,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.706</v>
+        <v>1.72</v>
       </c>
       <c r="C109" t="n">
-        <v>1.706</v>
+        <v>1.72</v>
       </c>
       <c r="D109" t="n">
-        <v>1.706</v>
+        <v>1.72</v>
       </c>
       <c r="E109" t="n">
-        <v>1.706</v>
+        <v>1.72</v>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>100000</v>
       </c>
       <c r="G109" t="n">
-        <v>-46440948.84702516</v>
+        <v>-36756777.21682516</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="K109" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4534,40 +4326,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.706</v>
+        <v>1.715</v>
       </c>
       <c r="C110" t="n">
-        <v>1.706</v>
+        <v>1.715</v>
       </c>
       <c r="D110" t="n">
-        <v>1.706</v>
+        <v>1.715</v>
       </c>
       <c r="E110" t="n">
-        <v>1.706</v>
+        <v>1.715</v>
       </c>
       <c r="F110" t="n">
-        <v>38940.1173</v>
+        <v>11617</v>
       </c>
       <c r="G110" t="n">
-        <v>-46440948.84702516</v>
+        <v>-36768394.21682516</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="K110" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4578,40 +4362,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.705</v>
+        <v>1.71</v>
       </c>
       <c r="C111" t="n">
-        <v>1.705</v>
+        <v>1.71</v>
       </c>
       <c r="D111" t="n">
-        <v>1.705</v>
+        <v>1.71</v>
       </c>
       <c r="E111" t="n">
-        <v>1.705</v>
+        <v>1.71</v>
       </c>
       <c r="F111" t="n">
-        <v>5692.1046</v>
+        <v>62147</v>
       </c>
       <c r="G111" t="n">
-        <v>-46446640.95162516</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4622,40 +4398,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C112" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="D112" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E112" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="F112" t="n">
-        <v>346.4965</v>
+        <v>47675</v>
       </c>
       <c r="G112" t="n">
-        <v>-46446294.45512516</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4666,40 +4434,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C113" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="D113" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E113" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="F113" t="n">
-        <v>46846.0387</v>
+        <v>280000</v>
       </c>
       <c r="G113" t="n">
-        <v>-46446294.45512516</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K113" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4710,40 +4470,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.704</v>
+        <v>1.71</v>
       </c>
       <c r="C114" t="n">
-        <v>1.704</v>
+        <v>1.71</v>
       </c>
       <c r="D114" t="n">
-        <v>1.704</v>
+        <v>1.71</v>
       </c>
       <c r="E114" t="n">
-        <v>1.704</v>
+        <v>1.71</v>
       </c>
       <c r="F114" t="n">
-        <v>300</v>
+        <v>120000</v>
       </c>
       <c r="G114" t="n">
-        <v>-46446594.45512516</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4754,40 +4506,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="C115" t="n">
-        <v>1.701</v>
+        <v>1.71</v>
       </c>
       <c r="D115" t="n">
-        <v>1.709</v>
+        <v>1.71</v>
       </c>
       <c r="E115" t="n">
-        <v>1.701</v>
+        <v>1.71</v>
       </c>
       <c r="F115" t="n">
-        <v>1900</v>
+        <v>23620.8097</v>
       </c>
       <c r="G115" t="n">
-        <v>-46448494.45512516</v>
+        <v>-36830541.21682516</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4798,40 +4542,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.709</v>
+        <v>1.715</v>
       </c>
       <c r="C116" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="D116" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="E116" t="n">
-        <v>1.709</v>
+        <v>1.715</v>
       </c>
       <c r="F116" t="n">
-        <v>474965.6262</v>
+        <v>211589</v>
       </c>
       <c r="G116" t="n">
-        <v>-45973528.82892516</v>
+        <v>-36618952.21682516</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4842,40 +4578,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.71</v>
+        <v>1.708</v>
       </c>
       <c r="C117" t="n">
-        <v>1.71</v>
+        <v>1.708</v>
       </c>
       <c r="D117" t="n">
-        <v>1.71</v>
+        <v>1.708</v>
       </c>
       <c r="E117" t="n">
-        <v>1.71</v>
+        <v>1.708</v>
       </c>
       <c r="F117" t="n">
-        <v>825034.3737999999</v>
+        <v>588620.3329</v>
       </c>
       <c r="G117" t="n">
-        <v>-45973528.82892516</v>
+        <v>-37207572.54972517</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4886,40 +4614,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.703</v>
+        <v>1.708</v>
       </c>
       <c r="C118" t="n">
-        <v>1.703</v>
+        <v>1.708</v>
       </c>
       <c r="D118" t="n">
-        <v>1.703</v>
+        <v>1.708</v>
       </c>
       <c r="E118" t="n">
-        <v>1.703</v>
+        <v>1.708</v>
       </c>
       <c r="F118" t="n">
-        <v>300</v>
+        <v>207160</v>
       </c>
       <c r="G118" t="n">
-        <v>-45973828.82892516</v>
+        <v>-37207572.54972517</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4930,40 +4650,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.715</v>
+        <v>1.704</v>
       </c>
       <c r="C119" t="n">
-        <v>1.715</v>
+        <v>1.704</v>
       </c>
       <c r="D119" t="n">
-        <v>1.715</v>
+        <v>1.704</v>
       </c>
       <c r="E119" t="n">
-        <v>1.715</v>
+        <v>1.704</v>
       </c>
       <c r="F119" t="n">
-        <v>651.3119533527697</v>
+        <v>11842.2276</v>
       </c>
       <c r="G119" t="n">
-        <v>-45973177.51697181</v>
+        <v>-37219414.77732517</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4977,37 +4689,29 @@
         <v>1.703</v>
       </c>
       <c r="C120" t="n">
-        <v>1.703</v>
+        <v>1.7</v>
       </c>
       <c r="D120" t="n">
-        <v>1.703</v>
+        <v>1.714</v>
       </c>
       <c r="E120" t="n">
-        <v>1.703</v>
+        <v>1.684</v>
       </c>
       <c r="F120" t="n">
-        <v>11854.5136</v>
+        <v>6157051.673</v>
       </c>
       <c r="G120" t="n">
-        <v>-45985032.03057181</v>
+        <v>-43376466.45032517</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="K120" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5018,40 +4722,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.714</v>
+        <v>1.684</v>
       </c>
       <c r="C121" t="n">
-        <v>1.714</v>
+        <v>1.684</v>
       </c>
       <c r="D121" t="n">
-        <v>1.714</v>
+        <v>1.7</v>
       </c>
       <c r="E121" t="n">
-        <v>1.714</v>
+        <v>1.684</v>
       </c>
       <c r="F121" t="n">
-        <v>300</v>
+        <v>2833372.5267</v>
       </c>
       <c r="G121" t="n">
-        <v>-45984732.03057181</v>
+        <v>-46209838.97702517</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5062,40 +4758,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.715</v>
+        <v>1.684</v>
       </c>
       <c r="C122" t="n">
-        <v>1.715</v>
+        <v>1.683</v>
       </c>
       <c r="D122" t="n">
-        <v>1.715</v>
+        <v>1.684</v>
       </c>
       <c r="E122" t="n">
-        <v>1.715</v>
+        <v>1.683</v>
       </c>
       <c r="F122" t="n">
-        <v>300</v>
+        <v>48159.2218</v>
       </c>
       <c r="G122" t="n">
-        <v>-45984432.03057181</v>
+        <v>-46257998.19882517</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="K122" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5106,40 +4794,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.715</v>
+        <v>1.683</v>
       </c>
       <c r="C123" t="n">
-        <v>1.729</v>
+        <v>1.683</v>
       </c>
       <c r="D123" t="n">
-        <v>1.729</v>
+        <v>1.683</v>
       </c>
       <c r="E123" t="n">
-        <v>1.715</v>
+        <v>1.683</v>
       </c>
       <c r="F123" t="n">
-        <v>1159946.186484704</v>
+        <v>11854.5136</v>
       </c>
       <c r="G123" t="n">
-        <v>-44824485.84408711</v>
+        <v>-46257998.19882517</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5150,40 +4830,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="C124" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="D124" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="E124" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="F124" t="n">
-        <v>58061.8188</v>
+        <v>156639.0076</v>
       </c>
       <c r="G124" t="n">
-        <v>-44882547.66288711</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5194,40 +4866,32 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.713</v>
+        <v>1.682</v>
       </c>
       <c r="C125" t="n">
-        <v>1.713</v>
+        <v>1.682</v>
       </c>
       <c r="D125" t="n">
-        <v>1.713</v>
+        <v>1.682</v>
       </c>
       <c r="E125" t="n">
-        <v>1.713</v>
+        <v>1.682</v>
       </c>
       <c r="F125" t="n">
-        <v>300</v>
+        <v>20805.36</v>
       </c>
       <c r="G125" t="n">
-        <v>-44882847.66288711</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5238,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="C126" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="D126" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="E126" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="F126" t="n">
-        <v>41370</v>
+        <v>438906.5297</v>
       </c>
       <c r="G126" t="n">
-        <v>-44841477.66288711</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
@@ -5262,16 +4926,12 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.713</v>
+        <v>1.682</v>
       </c>
       <c r="K126" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.682</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5282,36 +4942,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="C127" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="D127" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="E127" t="n">
-        <v>1.728</v>
+        <v>1.682</v>
       </c>
       <c r="F127" t="n">
-        <v>165412</v>
+        <v>239364.79</v>
       </c>
       <c r="G127" t="n">
-        <v>-44841477.66288711</v>
+        <v>-46414637.20642517</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1.682</v>
+      </c>
       <c r="K127" t="n">
-        <v>1.691</v>
+        <v>1.682</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -5324,36 +4986,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.728</v>
+        <v>1.696</v>
       </c>
       <c r="C128" t="n">
-        <v>1.74</v>
+        <v>1.696</v>
       </c>
       <c r="D128" t="n">
-        <v>1.74</v>
+        <v>1.696</v>
       </c>
       <c r="E128" t="n">
-        <v>1.728</v>
+        <v>1.696</v>
       </c>
       <c r="F128" t="n">
-        <v>2900000</v>
+        <v>367.2527</v>
       </c>
       <c r="G128" t="n">
-        <v>-41941477.66288711</v>
+        <v>-46414269.95372517</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.682</v>
+      </c>
       <c r="K128" t="n">
-        <v>1.691</v>
+        <v>1.682</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M128" t="n">
@@ -5366,36 +5030,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.747</v>
+        <v>1.69</v>
       </c>
       <c r="C129" t="n">
-        <v>1.751</v>
+        <v>1.713</v>
       </c>
       <c r="D129" t="n">
-        <v>1.751</v>
+        <v>1.713</v>
       </c>
       <c r="E129" t="n">
-        <v>1.747</v>
+        <v>1.69</v>
       </c>
       <c r="F129" t="n">
-        <v>517372.9384</v>
+        <v>420933.2902</v>
       </c>
       <c r="G129" t="n">
-        <v>-41424104.72448711</v>
+        <v>-45993336.66352516</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.696</v>
+      </c>
       <c r="K129" t="n">
-        <v>1.691</v>
+        <v>1.682</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -5408,42 +5074,3062 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.765</v>
+        <v>1.7</v>
       </c>
       <c r="C130" t="n">
-        <v>1.778</v>
+        <v>1.7</v>
       </c>
       <c r="D130" t="n">
-        <v>1.778</v>
+        <v>1.7</v>
       </c>
       <c r="E130" t="n">
-        <v>1.765</v>
+        <v>1.7</v>
       </c>
       <c r="F130" t="n">
-        <v>106604</v>
+        <v>974749.2561999999</v>
       </c>
       <c r="G130" t="n">
-        <v>-41317500.72448711</v>
+        <v>-46968085.91972516</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>430764</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-46968085.91972516</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="F132" t="n">
+        <v>774356.0946</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-47742442.01432516</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>113685.1078</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-47628756.90652516</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>75143.9457</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-47628756.90652516</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5100</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-47623656.90652516</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18851</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-47642507.90652516</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="F137" t="n">
+        <v>429067.5304</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-47213440.37612516</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F138" t="n">
+        <v>368784.9553</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-47582225.33142517</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="C139" t="n">
         <v>1.691</v>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="D139" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F139" t="n">
+        <v>955119.1341</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-48537344.46552517</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F140" t="n">
+        <v>832993.0694</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-47704351.39612517</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F141" t="n">
+        <v>767055.206</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-47704351.39612517</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="F142" t="n">
+        <v>383987.8759</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-47320363.52022517</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="F143" t="n">
+        <v>646203.6396</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-47966567.15982517</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="F144" t="n">
+        <v>461890.1319</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-47504677.02792517</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F145" t="n">
+        <v>268323</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-47236354.02792517</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="F146" t="n">
+        <v>281974.5126</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-47518328.54052517</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F147" t="n">
+        <v>380644.89</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-47137683.65052517</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F148" t="n">
+        <v>315015.21</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-47137683.65052517</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F149" t="n">
+        <v>71183.19</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-47066500.46052517</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F150" t="n">
+        <v>29516.2089</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-47096016.66942517</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F151" t="n">
+        <v>207137.4</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-47096016.66942517</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F152" t="n">
+        <v>27745.2</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-47096016.66942517</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F153" t="n">
+        <v>534306.4824</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-46561710.18702517</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F154" t="n">
+        <v>650</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-46562360.18702517</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-46562360.18702517</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F156" t="n">
+        <v>320281</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-46562360.18702517</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F157" t="n">
+        <v>550286</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-46562360.18702517</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15162</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-46562360.18702517</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2343</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-46564703.18702517</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F160" t="n">
+        <v>118279.5292</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-46446423.65782516</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F161" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-46646423.65782516</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F162" t="n">
+        <v>440000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-46646423.65782516</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F163" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-46646423.65782516</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F164" t="n">
+        <v>275444</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-46370979.65782516</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F165" t="n">
+        <v>896357.2036</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-46370979.65782516</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1234.166</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-46370979.65782516</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2110</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-46370979.65782516</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4092</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-46370979.65782516</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F169" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-46430979.65782516</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F170" t="n">
+        <v>360000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-46430979.65782516</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F171" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-46430979.65782516</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-46430979.65782516</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-46450979.65782516</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F174" t="n">
+        <v>236166</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-46450979.65782516</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F175" t="n">
+        <v>4574</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-46450979.65782516</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F176" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-46410979.65782516</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F177" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-46410979.65782516</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-46310979.65782516</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="F179" t="n">
+        <v>129669.1892</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-46440648.84702516</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="F180" t="n">
+        <v>300</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-46440948.84702516</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="F181" t="n">
+        <v>38940.1173</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-46440948.84702516</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5692.1046</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-46446640.95162516</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F183" t="n">
+        <v>346.4965</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-46446294.45512516</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F184" t="n">
+        <v>46846.0387</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-46446294.45512516</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="F185" t="n">
+        <v>300</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-46446594.45512516</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-46448494.45512516</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F187" t="n">
+        <v>474965.6262</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-45973528.82892516</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F188" t="n">
+        <v>825034.3737999999</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-45973528.82892516</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="F189" t="n">
+        <v>300</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-45973828.82892516</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F190" t="n">
+        <v>651.3119533527697</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-45973177.51697181</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="F191" t="n">
+        <v>11854.5136</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-45985032.03057181</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="F192" t="n">
+        <v>300</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-45984732.03057181</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F193" t="n">
+        <v>300</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-45984432.03057181</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1159946.186484704</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-44824485.84408711</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F195" t="n">
+        <v>58061.8188</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-44882547.66288711</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="F196" t="n">
+        <v>300</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-44882847.66288711</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F197" t="n">
+        <v>41370</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-44841477.66288711</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F198" t="n">
+        <v>165412</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-44841477.66288711</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-41941477.66288711</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="F200" t="n">
+        <v>517372.9384</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-41424104.72448711</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="F201" t="n">
+        <v>106604</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-41317500.72448711</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1.046448846836192</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1.052074910820452</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1.039285714285714</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest MXC.xlsx
+++ b/BackTest/2020-01-22 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-11732907.12351765</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-11732907.12351765</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-11732907.12351765</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-11962001.09441765</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-11962001.09441765</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-11962001.09441765</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-11397386.31971765</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-11397386.31971765</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-11718713.44281765</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-11913554.28861765</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-12004857.90811765</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-11904857.90811765</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-30583643.37771765</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-30583643.37771765</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-36830541.21682516</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-36830541.21682516</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-36618952.21682516</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-37207572.54972517</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-37219414.77732517</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-43376466.45032517</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-46209838.97702517</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4543,10 +4543,14 @@
         <v>-46414637.20642517</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.682</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4576,11 +4580,19 @@
         <v>-46414637.20642517</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,7 +4621,7 @@
         <v>-46414269.95372517</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>1.682</v>
@@ -4617,7 +4629,11 @@
       <c r="J128" t="n">
         <v>1.682</v>
       </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,15 +4662,17 @@
         <v>-45993336.66352516</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.696</v>
+      </c>
       <c r="J129" t="n">
         <v>1.682</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4685,15 +4703,17 @@
         <v>-46968085.91972516</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.713</v>
+      </c>
       <c r="J130" t="n">
         <v>1.682</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -4724,11 +4744,19 @@
         <v>-46968085.91972516</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4757,11 +4785,19 @@
         <v>-47742442.01432516</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +4826,19 @@
         <v>-47628756.90652516</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4826,8 +4870,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4906,19 @@
         <v>-47623656.90652516</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4891,9 +4949,17 @@
       <c r="H136" t="n">
         <v>1</v>
       </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4922,11 +4988,19 @@
         <v>-47213440.37612516</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4958,8 +5032,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4991,8 +5071,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5024,8 +5110,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5057,8 +5149,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5090,8 +5188,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5123,8 +5227,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5153,11 +5263,19 @@
         <v>-47504677.02792517</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5189,8 +5307,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5222,8 +5346,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5252,11 +5382,19 @@
         <v>-47137683.65052517</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +5423,19 @@
         <v>-47137683.65052517</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +5464,19 @@
         <v>-47066500.46052517</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5351,11 +5505,19 @@
         <v>-47096016.66942517</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5384,11 +5546,19 @@
         <v>-47096016.66942517</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5417,11 +5587,19 @@
         <v>-47096016.66942517</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5450,11 +5628,19 @@
         <v>-46561710.18702517</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5486,8 +5672,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5519,8 +5711,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5552,8 +5750,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5582,11 +5786,17 @@
         <v>-46562360.18702517</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5618,8 +5828,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5651,8 +5867,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5684,8 +5906,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5717,8 +5945,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5750,8 +5984,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5783,8 +6023,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5816,8 +6062,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5849,8 +6101,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +6140,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5915,8 +6179,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5948,8 +6218,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5978,15 +6254,17 @@
         <v>-46430979.65782516</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+        <v>1.682</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +6297,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -6058,7 +6336,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6097,7 +6375,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6132,13 +6410,11 @@
         <v>-46450979.65782516</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1.709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6173,13 +6449,11 @@
         <v>-46450979.65782516</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1.708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6214,13 +6488,13 @@
         <v>-46450979.65782516</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>1.708</v>
       </c>
       <c r="J175" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6255,13 +6529,13 @@
         <v>-46410979.65782516</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>1.708</v>
       </c>
       <c r="J176" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6296,13 +6570,13 @@
         <v>-46410979.65782516</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>1.709</v>
       </c>
       <c r="J177" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6337,13 +6611,13 @@
         <v>-46310979.65782516</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>1.709</v>
       </c>
       <c r="J178" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6378,13 +6652,11 @@
         <v>-46440648.84702516</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6419,13 +6691,11 @@
         <v>-46440948.84702516</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1.707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6460,13 +6730,11 @@
         <v>-46440948.84702516</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1.706</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6505,7 +6773,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6540,13 +6808,13 @@
         <v>-46446294.45512516</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>1.705</v>
       </c>
       <c r="J183" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6585,7 +6853,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6620,13 +6888,13 @@
         <v>-46446594.45512516</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>1.709</v>
       </c>
       <c r="J185" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6661,13 +6929,13 @@
         <v>-46448494.45512516</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>1.704</v>
       </c>
       <c r="J186" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6702,13 +6970,13 @@
         <v>-45973528.82892516</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>1.701</v>
       </c>
       <c r="J187" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6743,13 +7011,11 @@
         <v>-45973528.82892516</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6784,13 +7050,11 @@
         <v>-45973828.82892516</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6825,13 +7089,13 @@
         <v>-45973177.51697181</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>1.703</v>
       </c>
       <c r="J190" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6866,13 +7130,11 @@
         <v>-45985032.03057181</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1.715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6907,13 +7169,13 @@
         <v>-45984732.03057181</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>1.703</v>
       </c>
       <c r="J192" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6948,13 +7210,13 @@
         <v>-45984432.03057181</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>1.714</v>
       </c>
       <c r="J193" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6989,13 +7251,13 @@
         <v>-44824485.84408711</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>1.715</v>
       </c>
       <c r="J194" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7030,13 +7292,13 @@
         <v>-44882547.66288711</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>1.729</v>
       </c>
       <c r="J195" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7071,13 +7333,11 @@
         <v>-44882847.66288711</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1.728</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7112,13 +7372,11 @@
         <v>-44841477.66288711</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1.713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7153,13 +7411,11 @@
         <v>-44841477.66288711</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1.728</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7194,13 +7450,11 @@
         <v>-41941477.66288711</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1.728</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7235,13 +7489,11 @@
         <v>-41424104.72448711</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7276,13 +7528,11 @@
         <v>-41317500.72448711</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1.751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>1.71</v>
+        <v>1.682</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7295,6 +7545,6 @@
       <c r="M201" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest MXC.xlsx
+++ b/BackTest/2020-01-22 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-11732907.12351765</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-11732907.12351765</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-11732907.12351765</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-11962001.09441765</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-11962001.09441765</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-11962001.09441765</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-11397386.31971765</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-11397386.31971765</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-11718713.44281765</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-11913554.28861765</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-11924777.00811765</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-12005155.90811765</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-12005155.90811765</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-12004857.90811765</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-11904857.90811765</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-30583643.37771765</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-30583643.37771765</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -4543,14 +4543,10 @@
         <v>-46414637.20642517</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4588,11 +4584,7 @@
       <c r="J127" t="n">
         <v>1.682</v>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4621,11 +4613,9 @@
         <v>-46414269.95372517</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1.682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>1.682</v>
       </c>
@@ -4662,2286 +4652,1904 @@
         <v>-45993336.66352516</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1.696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>1.682</v>
       </c>
       <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>974749.2561999999</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-46968085.91972516</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>430764</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-46968085.91972516</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="F132" t="n">
+        <v>774356.0946</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-47742442.01432516</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>113685.1078</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-47628756.90652516</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>75143.9457</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-47628756.90652516</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5100</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-47623656.90652516</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18851</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-47642507.90652516</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="F137" t="n">
+        <v>429067.5304</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-47213440.37612516</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F138" t="n">
+        <v>368784.9553</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-47582225.33142517</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F139" t="n">
+        <v>955119.1341</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-48537344.46552517</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F140" t="n">
+        <v>832993.0694</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-47704351.39612517</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F141" t="n">
+        <v>767055.206</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-47704351.39612517</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="F142" t="n">
+        <v>383987.8759</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-47320363.52022517</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="F143" t="n">
+        <v>646203.6396</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-47966567.15982517</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="F144" t="n">
+        <v>461890.1319</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-47504677.02792517</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F145" t="n">
+        <v>268323</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-47236354.02792517</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="F146" t="n">
+        <v>281974.5126</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-47518328.54052517</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F147" t="n">
+        <v>380644.89</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-47137683.65052517</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F148" t="n">
+        <v>315015.21</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-47137683.65052517</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F149" t="n">
+        <v>71183.19</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-47066500.46052517</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F150" t="n">
+        <v>29516.2089</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-47096016.66942517</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F151" t="n">
+        <v>207137.4</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-47096016.66942517</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F152" t="n">
+        <v>27745.2</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-47096016.66942517</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F153" t="n">
+        <v>534306.4824</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-46561710.18702517</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F154" t="n">
+        <v>650</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-46562360.18702517</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-46562360.18702517</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F156" t="n">
+        <v>320281</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-46562360.18702517</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F157" t="n">
+        <v>550286</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-46562360.18702517</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15162</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-46562360.18702517</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2343</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-46564703.18702517</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F160" t="n">
+        <v>118279.5292</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-46446423.65782516</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F161" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-46646423.65782516</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F162" t="n">
+        <v>440000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-46646423.65782516</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F163" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-46646423.65782516</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F164" t="n">
+        <v>275444</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-46370979.65782516</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F165" t="n">
+        <v>896357.2036</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-46370979.65782516</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1234.166</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-46370979.65782516</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2110</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-46370979.65782516</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4092</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-46370979.65782516</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F169" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-46430979.65782516</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F170" t="n">
+        <v>360000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-46430979.65782516</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F171" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-46430979.65782516</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-46430979.65782516</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-46450979.65782516</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F174" t="n">
+        <v>236166</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-46450979.65782516</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F175" t="n">
+        <v>4574</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-46450979.65782516</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F176" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-46410979.65782516</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F177" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-46410979.65782516</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-46310979.65782516</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="F179" t="n">
+        <v>129669.1892</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-46440648.84702516</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="F180" t="n">
+        <v>300</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-46440948.84702516</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="F181" t="n">
+        <v>38940.1173</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-46440948.84702516</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5692.1046</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-46446640.95162516</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F183" t="n">
+        <v>346.4965</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-46446294.45512516</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="F184" t="n">
+        <v>46846.0387</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-46446294.45512516</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="F185" t="n">
+        <v>300</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-46446594.45512516</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-46448494.45512516</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>974749.2561999999</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-46968085.91972516</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1.713</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>430764</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-46968085.91972516</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="F132" t="n">
-        <v>774356.0946</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-47742442.01432516</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F133" t="n">
-        <v>113685.1078</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-47628756.90652516</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="J133" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>75143.9457</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-47628756.90652516</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="F135" t="n">
-        <v>5100</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-47623656.90652516</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1.696</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.696</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="F136" t="n">
-        <v>18851</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-47642507.90652516</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.693</v>
-      </c>
-      <c r="F137" t="n">
-        <v>429067.5304</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-47213440.37612516</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="J137" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="F138" t="n">
-        <v>368784.9553</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-47582225.33142517</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="F139" t="n">
-        <v>955119.1341</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-48537344.46552517</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="F140" t="n">
-        <v>832993.0694</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-47704351.39612517</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="F141" t="n">
-        <v>767055.206</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-47704351.39612517</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.693</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.693</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.689</v>
-      </c>
-      <c r="F142" t="n">
-        <v>383987.8759</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-47320363.52022517</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1.693</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.688</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.693</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.688</v>
-      </c>
-      <c r="F143" t="n">
-        <v>646203.6396</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-47966567.15982517</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1.688</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.688</v>
-      </c>
-      <c r="F144" t="n">
-        <v>461890.1319</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-47504677.02792517</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1.688</v>
-      </c>
-      <c r="J144" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="F145" t="n">
-        <v>268323</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-47236354.02792517</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.688</v>
-      </c>
-      <c r="F146" t="n">
-        <v>281974.5126</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-47518328.54052517</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="F147" t="n">
-        <v>380644.89</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-47137683.65052517</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.693</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="F148" t="n">
-        <v>315015.21</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-47137683.65052517</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="J148" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="F149" t="n">
-        <v>71183.19</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-47066500.46052517</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="J149" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="F150" t="n">
-        <v>29516.2089</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-47096016.66942517</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="J150" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="F151" t="n">
-        <v>207137.4</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-47096016.66942517</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="J151" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="F152" t="n">
-        <v>27745.2</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-47096016.66942517</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="J152" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="F153" t="n">
-        <v>534306.4824</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-46561710.18702517</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="J153" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F154" t="n">
-        <v>650</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-46562360.18702517</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F155" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-46562360.18702517</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F156" t="n">
-        <v>320281</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-46562360.18702517</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F157" t="n">
-        <v>550286</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-46562360.18702517</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F158" t="n">
-        <v>15162</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-46562360.18702517</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2343</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-46564703.18702517</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F160" t="n">
-        <v>118279.5292</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-46446423.65782516</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F161" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-46646423.65782516</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F162" t="n">
-        <v>440000</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-46646423.65782516</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F163" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-46646423.65782516</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F164" t="n">
-        <v>275444</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F165" t="n">
-        <v>896357.2036</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1234.166</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2110</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F168" t="n">
-        <v>4092</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F169" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F170" t="n">
-        <v>360000</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F171" t="n">
-        <v>240000</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F172" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="F173" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-46450979.65782516</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="F174" t="n">
-        <v>236166</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-46450979.65782516</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="F175" t="n">
-        <v>4574</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-46450979.65782516</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="F176" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-46410979.65782516</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F177" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-46410979.65782516</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F178" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-46310979.65782516</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="F179" t="n">
-        <v>129669.1892</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-46440648.84702516</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="F180" t="n">
-        <v>300</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-46440948.84702516</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="F181" t="n">
-        <v>38940.1173</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-46440948.84702516</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="F182" t="n">
-        <v>5692.1046</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-46446640.95162516</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F183" t="n">
-        <v>346.4965</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-46446294.45512516</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="F184" t="n">
-        <v>46846.0387</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-46446294.45512516</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="F185" t="n">
-        <v>300</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-46446594.45512516</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="J185" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-46448494.45512516</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="J186" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6975,9 +6583,7 @@
       <c r="I187" t="n">
         <v>1.701</v>
       </c>
-      <c r="J187" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,12 +6617,12 @@
         <v>-45973528.82892516</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1.682</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7050,12 +6656,12 @@
         <v>-45973828.82892516</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1.682</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7094,9 +6700,7 @@
       <c r="I190" t="n">
         <v>1.703</v>
       </c>
-      <c r="J190" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7133,9 +6737,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7174,9 +6776,7 @@
       <c r="I192" t="n">
         <v>1.703</v>
       </c>
-      <c r="J192" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7210,14 +6810,10 @@
         <v>-45984432.03057181</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="J193" t="n">
-        <v>1.682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7251,14 +6847,10 @@
         <v>-44824485.84408711</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="J194" t="n">
-        <v>1.682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7292,14 +6884,10 @@
         <v>-44882547.66288711</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="J195" t="n">
-        <v>1.682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,9 +6924,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7375,9 +6961,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7414,9 +6998,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7453,9 +7035,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7492,9 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7531,9 +7109,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1.682</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7545,6 +7121,6 @@
       <c r="M201" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest MXC.xlsx
+++ b/BackTest/2020-01-22 BackTest MXC.xlsx
@@ -1177,7 +1177,7 @@
         <v>-11924777.00811765</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-12005155.90811765</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-12005155.90811765</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-46209838.97702517</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4576,14 +4576,10 @@
         <v>-46414637.20642517</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1.682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4616,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4655,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5978,10 +5962,14 @@
         <v>-46430979.65782516</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
@@ -6014,8 +6002,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6047,8 +6041,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6080,8 +6080,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6113,8 +6119,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +6155,19 @@
         <v>-46450979.65782516</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6176,11 +6196,19 @@
         <v>-46450979.65782516</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +6237,19 @@
         <v>-46410979.65782516</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6242,11 +6278,19 @@
         <v>-46410979.65782516</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6275,11 +6319,19 @@
         <v>-46310979.65782516</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6308,11 +6360,19 @@
         <v>-46440648.84702516</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6341,11 +6401,19 @@
         <v>-46440948.84702516</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6374,11 +6442,19 @@
         <v>-46440948.84702516</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6407,11 +6483,19 @@
         <v>-46446640.95162516</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6440,11 +6524,19 @@
         <v>-46446294.45512516</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6473,11 +6565,19 @@
         <v>-46446294.45512516</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6506,11 +6606,19 @@
         <v>-46446594.45512516</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6544,10 +6652,12 @@
       <c r="I186" t="n">
         <v>1.704</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -6583,7 +6693,9 @@
       <c r="I187" t="n">
         <v>1.701</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6622,7 +6734,9 @@
       <c r="I188" t="n">
         <v>1.71</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6656,12 +6770,12 @@
         <v>-45973828.82892516</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6700,7 +6814,9 @@
       <c r="I190" t="n">
         <v>1.703</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,7 +6853,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6776,7 +6894,9 @@
       <c r="I192" t="n">
         <v>1.703</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6810,10 +6930,14 @@
         <v>-45984432.03057181</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,10 +6971,14 @@
         <v>-44824485.84408711</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6887,7 +7015,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6924,7 +7054,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6958,10 +7090,14 @@
         <v>-44841477.66288711</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6998,7 +7134,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7035,7 +7173,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7072,7 +7212,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7106,17 +7248,19 @@
         <v>-41317500.72448711</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1</v>
+        <v>1.034766081871345</v>
       </c>
       <c r="M201" t="inlineStr"/>
     </row>

--- a/BackTest/2020-01-22 BackTest MXC.xlsx
+++ b/BackTest/2020-01-22 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>80381.246</v>
       </c>
       <c r="G2" t="n">
-        <v>-10144203.41441765</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>510000</v>
       </c>
       <c r="G3" t="n">
-        <v>-10654203.41441765</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1079003.7091</v>
       </c>
       <c r="G4" t="n">
-        <v>-11733207.12351765</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>-11732907.12351765</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>13921</v>
       </c>
       <c r="G6" t="n">
-        <v>-11732907.12351765</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2005</v>
       </c>
       <c r="G7" t="n">
-        <v>-11732907.12351765</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2005</v>
       </c>
       <c r="G8" t="n">
-        <v>-11732907.12351765</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>11930</v>
       </c>
       <c r="G9" t="n">
-        <v>-11732907.12351765</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>146445.5819</v>
       </c>
       <c r="G10" t="n">
-        <v>-11732907.12351765</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>229093.9709</v>
       </c>
       <c r="G11" t="n">
-        <v>-11962001.09441765</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>36021</v>
       </c>
       <c r="G12" t="n">
-        <v>-11962001.09441765</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>316402</v>
       </c>
       <c r="G13" t="n">
-        <v>-11962001.09441765</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>564614.7747</v>
       </c>
       <c r="G14" t="n">
-        <v>-11397386.31971765</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>100250</v>
       </c>
       <c r="G15" t="n">
-        <v>-11397386.31971765</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>321327.1231</v>
       </c>
       <c r="G16" t="n">
-        <v>-11718713.44281765</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>457.1542</v>
       </c>
       <c r="G17" t="n">
-        <v>-11718256.28861765</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>195000</v>
       </c>
       <c r="G18" t="n">
-        <v>-11913256.28861765</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>298</v>
       </c>
       <c r="G19" t="n">
-        <v>-11913554.28861765</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>4988</v>
       </c>
       <c r="G20" t="n">
-        <v>-11913554.28861765</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>598</v>
       </c>
       <c r="G21" t="n">
-        <v>-11913554.28861765</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>13283.5805</v>
       </c>
       <c r="G22" t="n">
-        <v>-11900270.70811765</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>24506.3</v>
       </c>
       <c r="G23" t="n">
-        <v>-11900270.70811765</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>24506.3</v>
       </c>
       <c r="G24" t="n">
-        <v>-11924777.00811765</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>80378.89999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-12005155.90811765</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>24506.3</v>
       </c>
       <c r="G26" t="n">
-        <v>-12005155.90811765</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>64506.3</v>
       </c>
       <c r="G27" t="n">
-        <v>-12005155.90811765</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>49012.6</v>
       </c>
       <c r="G28" t="n">
-        <v>-12005155.90811765</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>233288.4</v>
       </c>
       <c r="G29" t="n">
-        <v>-12005155.90811765</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>298</v>
       </c>
       <c r="G30" t="n">
-        <v>-12004857.90811765</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>35323.8</v>
       </c>
       <c r="G31" t="n">
-        <v>-12004857.90811765</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>11774.6</v>
       </c>
       <c r="G32" t="n">
-        <v>-12004857.90811765</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>19202.2662</v>
       </c>
       <c r="G33" t="n">
-        <v>-12004857.90811765</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>100000</v>
       </c>
       <c r="G34" t="n">
-        <v>-11904857.90811765</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>100000</v>
       </c>
       <c r="G35" t="n">
-        <v>-11904857.90811765</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>560440.3599</v>
       </c>
       <c r="G36" t="n">
-        <v>-12465298.26801765</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>347757.7309</v>
       </c>
       <c r="G37" t="n">
-        <v>-12117540.53711765</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>9943.652</v>
       </c>
       <c r="G38" t="n">
-        <v>-12117540.53711765</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>6718437.7963</v>
       </c>
       <c r="G39" t="n">
-        <v>-18835978.33341765</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>12385822.3298</v>
       </c>
       <c r="G40" t="n">
-        <v>-31221800.66321765</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>3294.8272</v>
       </c>
       <c r="G41" t="n">
-        <v>-31225095.49041765</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>716233.8493</v>
       </c>
       <c r="G42" t="n">
-        <v>-30508861.64111765</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>74781.7366</v>
       </c>
       <c r="G43" t="n">
-        <v>-30583643.37771765</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>6739941.316</v>
       </c>
       <c r="G44" t="n">
-        <v>-30583643.37771765</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>172386.0116</v>
       </c>
       <c r="G45" t="n">
-        <v>-30411257.36611765</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>6761643.4649</v>
       </c>
       <c r="G46" t="n">
-        <v>-37172900.83101765</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>6773481.2003</v>
       </c>
       <c r="G47" t="n">
-        <v>-30399419.63071765</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>6493284.0114</v>
       </c>
       <c r="G48" t="n">
-        <v>-36892703.64211765</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>6425645.6303</v>
       </c>
       <c r="G49" t="n">
-        <v>-36892703.64211765</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>6681788.5966</v>
       </c>
       <c r="G50" t="n">
-        <v>-30210915.04551765</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>175231.0877</v>
       </c>
       <c r="G51" t="n">
-        <v>-30386146.13321765</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>12636378.6369</v>
       </c>
       <c r="G52" t="n">
-        <v>-43022524.77011765</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>6602421.365</v>
       </c>
       <c r="G53" t="n">
-        <v>-36420103.40511765</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>3424.1924</v>
       </c>
       <c r="G54" t="n">
-        <v>-36420103.40511765</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>20000</v>
       </c>
       <c r="G55" t="n">
-        <v>-36440103.40511765</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>350849.3147</v>
       </c>
       <c r="G56" t="n">
-        <v>-36790952.71981765</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>221877.9344</v>
       </c>
       <c r="G57" t="n">
-        <v>-36790952.71981765</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>20000</v>
       </c>
       <c r="G58" t="n">
-        <v>-36770952.71981765</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>290</v>
       </c>
       <c r="G59" t="n">
-        <v>-36770662.71981765</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>80000</v>
       </c>
       <c r="G60" t="n">
-        <v>-36850662.71981765</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>290</v>
       </c>
       <c r="G61" t="n">
-        <v>-36850372.71981765</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1700</v>
       </c>
       <c r="G62" t="n">
-        <v>-36850372.71981765</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>48908</v>
       </c>
       <c r="G63" t="n">
-        <v>-36801464.71981765</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>39904</v>
       </c>
       <c r="G64" t="n">
-        <v>-36761560.71981765</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>11855.8014</v>
       </c>
       <c r="G65" t="n">
-        <v>-36761560.71981765</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>506537.7559</v>
       </c>
       <c r="G66" t="n">
-        <v>-37268098.47571765</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>702676.6317</v>
       </c>
       <c r="G67" t="n">
-        <v>-37970775.10741765</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>2000</v>
       </c>
       <c r="G68" t="n">
-        <v>-37972775.10741765</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>981515.8731</v>
       </c>
       <c r="G69" t="n">
-        <v>-37972775.10741765</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1904725.5218</v>
       </c>
       <c r="G70" t="n">
-        <v>-36068049.58561765</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>225339.3798</v>
       </c>
       <c r="G71" t="n">
-        <v>-36293388.96541765</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>103673</v>
       </c>
       <c r="G72" t="n">
-        <v>-36293388.96541765</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>220000</v>
       </c>
       <c r="G73" t="n">
-        <v>-36293388.96541765</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>42528</v>
       </c>
       <c r="G74" t="n">
-        <v>-36250860.96541765</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>60000</v>
       </c>
       <c r="G75" t="n">
-        <v>-36310860.96541765</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>220000</v>
       </c>
       <c r="G76" t="n">
-        <v>-36530860.96541765</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>20000</v>
       </c>
       <c r="G77" t="n">
-        <v>-36530860.96541765</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>40000</v>
       </c>
       <c r="G78" t="n">
-        <v>-36530860.96541765</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>207634</v>
       </c>
       <c r="G79" t="n">
-        <v>-36530860.96541765</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>60000</v>
       </c>
       <c r="G80" t="n">
-        <v>-36470860.96541765</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>40000</v>
       </c>
       <c r="G81" t="n">
-        <v>-36470860.96541765</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>470000</v>
       </c>
       <c r="G82" t="n">
-        <v>-36940860.96541765</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>60000</v>
       </c>
       <c r="G83" t="n">
-        <v>-36880860.96541765</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>340686</v>
       </c>
       <c r="G84" t="n">
-        <v>-36540174.96541765</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>20000</v>
       </c>
       <c r="G85" t="n">
-        <v>-36520174.96541765</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>587.7169</v>
       </c>
       <c r="G86" t="n">
-        <v>-36520762.68231765</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>405438</v>
       </c>
       <c r="G87" t="n">
-        <v>-36115324.68231765</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>17044.3407</v>
       </c>
       <c r="G88" t="n">
-        <v>-36132369.02301765</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>17291.0663</v>
       </c>
       <c r="G89" t="n">
-        <v>-36115077.95671766</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>17005.77700751011</v>
       </c>
       <c r="G90" t="n">
-        <v>-36132083.73372517</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>7355</v>
       </c>
       <c r="G91" t="n">
-        <v>-36139438.73372517</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>290</v>
       </c>
       <c r="G92" t="n">
-        <v>-36139148.73372517</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>0.0742</v>
       </c>
       <c r="G93" t="n">
-        <v>-36139148.80792516</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>40000</v>
       </c>
       <c r="G94" t="n">
-        <v>-36099148.80792516</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>371417.1558</v>
       </c>
       <c r="G95" t="n">
-        <v>-36470565.96372516</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>300</v>
       </c>
       <c r="G96" t="n">
-        <v>-36470865.96372516</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>160000</v>
       </c>
       <c r="G97" t="n">
-        <v>-36310865.96372516</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>116057.7323</v>
       </c>
       <c r="G98" t="n">
-        <v>-36310865.96372516</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>20000</v>
       </c>
       <c r="G99" t="n">
-        <v>-36310865.96372516</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>60000</v>
       </c>
       <c r="G100" t="n">
-        <v>-36310865.96372516</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>5002.9405</v>
       </c>
       <c r="G101" t="n">
-        <v>-36310865.96372516</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>174383</v>
       </c>
       <c r="G102" t="n">
-        <v>-36136482.96372516</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>40000</v>
       </c>
       <c r="G103" t="n">
-        <v>-36136482.96372516</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>4571.2601</v>
       </c>
       <c r="G104" t="n">
-        <v>-36141054.22382516</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>197729.6446</v>
       </c>
       <c r="G105" t="n">
-        <v>-35943324.57922517</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>893452.6376</v>
       </c>
       <c r="G106" t="n">
-        <v>-36836777.21682516</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>200000</v>
       </c>
       <c r="G107" t="n">
-        <v>-36636777.21682516</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>20000</v>
       </c>
       <c r="G108" t="n">
-        <v>-36656777.21682516</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>100000</v>
       </c>
       <c r="G109" t="n">
-        <v>-36756777.21682516</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>11617</v>
       </c>
       <c r="G110" t="n">
-        <v>-36768394.21682516</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>62147</v>
       </c>
       <c r="G111" t="n">
-        <v>-36830541.21682516</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>47675</v>
       </c>
       <c r="G112" t="n">
-        <v>-36830541.21682516</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>280000</v>
       </c>
       <c r="G113" t="n">
-        <v>-36830541.21682516</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>120000</v>
       </c>
       <c r="G114" t="n">
-        <v>-36830541.21682516</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>23620.8097</v>
       </c>
       <c r="G115" t="n">
-        <v>-36830541.21682516</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>211589</v>
       </c>
       <c r="G116" t="n">
-        <v>-36618952.21682516</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>588620.3329</v>
       </c>
       <c r="G117" t="n">
-        <v>-37207572.54972517</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>207160</v>
       </c>
       <c r="G118" t="n">
-        <v>-37207572.54972517</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>11842.2276</v>
       </c>
       <c r="G119" t="n">
-        <v>-37219414.77732517</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>6157051.673</v>
       </c>
       <c r="G120" t="n">
-        <v>-43376466.45032517</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>2833372.5267</v>
       </c>
       <c r="G121" t="n">
-        <v>-46209838.97702517</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>48159.2218</v>
       </c>
       <c r="G122" t="n">
-        <v>-46257998.19882517</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>11854.5136</v>
       </c>
       <c r="G123" t="n">
-        <v>-46257998.19882517</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>156639.0076</v>
       </c>
       <c r="G124" t="n">
-        <v>-46414637.20642517</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>20805.36</v>
       </c>
       <c r="G125" t="n">
-        <v>-46414637.20642517</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>438906.5297</v>
       </c>
       <c r="G126" t="n">
-        <v>-46414637.20642517</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>239364.79</v>
       </c>
       <c r="G127" t="n">
-        <v>-46414637.20642517</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,19 @@
         <v>367.2527</v>
       </c>
       <c r="G128" t="n">
-        <v>-46414269.95372517</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1.682</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.682</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4257,23 @@
         <v>420933.2902</v>
       </c>
       <c r="G129" t="n">
-        <v>-45993336.66352516</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>1.696</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4295,21 @@
         <v>974749.2561999999</v>
       </c>
       <c r="G130" t="n">
-        <v>-46968085.91972516</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4331,19 @@
         <v>430764</v>
       </c>
       <c r="G131" t="n">
-        <v>-46968085.91972516</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.7</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4365,23 @@
         <v>774356.0946</v>
       </c>
       <c r="G132" t="n">
-        <v>-47742442.01432516</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4403,23 @@
         <v>113685.1078</v>
       </c>
       <c r="G133" t="n">
-        <v>-47628756.90652516</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>1.683</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4441,15 @@
         <v>75143.9457</v>
       </c>
       <c r="G134" t="n">
-        <v>-47628756.90652516</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4471,15 @@
         <v>5100</v>
       </c>
       <c r="G135" t="n">
-        <v>-47623656.90652516</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4501,15 @@
         <v>18851</v>
       </c>
       <c r="G136" t="n">
-        <v>-47642507.90652516</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4531,15 @@
         <v>429067.5304</v>
       </c>
       <c r="G137" t="n">
-        <v>-47213440.37612516</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4561,15 @@
         <v>368784.9553</v>
       </c>
       <c r="G138" t="n">
-        <v>-47582225.33142517</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4591,15 @@
         <v>955119.1341</v>
       </c>
       <c r="G139" t="n">
-        <v>-48537344.46552517</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4621,15 @@
         <v>832993.0694</v>
       </c>
       <c r="G140" t="n">
-        <v>-47704351.39612517</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4651,15 @@
         <v>767055.206</v>
       </c>
       <c r="G141" t="n">
-        <v>-47704351.39612517</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4681,15 @@
         <v>383987.8759</v>
       </c>
       <c r="G142" t="n">
-        <v>-47320363.52022517</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4711,15 @@
         <v>646203.6396</v>
       </c>
       <c r="G143" t="n">
-        <v>-47966567.15982517</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4741,15 @@
         <v>461890.1319</v>
       </c>
       <c r="G144" t="n">
-        <v>-47504677.02792517</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4771,15 @@
         <v>268323</v>
       </c>
       <c r="G145" t="n">
-        <v>-47236354.02792517</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4801,15 @@
         <v>281974.5126</v>
       </c>
       <c r="G146" t="n">
-        <v>-47518328.54052517</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4831,15 @@
         <v>380644.89</v>
       </c>
       <c r="G147" t="n">
-        <v>-47137683.65052517</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4861,15 @@
         <v>315015.21</v>
       </c>
       <c r="G148" t="n">
-        <v>-47137683.65052517</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4891,21 @@
         <v>71183.19</v>
       </c>
       <c r="G149" t="n">
-        <v>-47066500.46052517</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1.692</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4927,21 @@
         <v>29516.2089</v>
       </c>
       <c r="G150" t="n">
-        <v>-47096016.66942517</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1.714</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4963,21 @@
         <v>207137.4</v>
       </c>
       <c r="G151" t="n">
-        <v>-47096016.66942517</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1.691</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4999,21 @@
         <v>27745.2</v>
       </c>
       <c r="G152" t="n">
-        <v>-47096016.66942517</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1.691</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5035,19 @@
         <v>534306.4824</v>
       </c>
       <c r="G153" t="n">
-        <v>-46561710.18702517</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5069,19 @@
         <v>650</v>
       </c>
       <c r="G154" t="n">
-        <v>-46562360.18702517</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5103,19 @@
         <v>20000</v>
       </c>
       <c r="G155" t="n">
-        <v>-46562360.18702517</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5137,19 @@
         <v>320281</v>
       </c>
       <c r="G156" t="n">
-        <v>-46562360.18702517</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5171,19 @@
         <v>550286</v>
       </c>
       <c r="G157" t="n">
-        <v>-46562360.18702517</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5205,19 @@
         <v>15162</v>
       </c>
       <c r="G158" t="n">
-        <v>-46562360.18702517</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5239,19 @@
         <v>2343</v>
       </c>
       <c r="G159" t="n">
-        <v>-46564703.18702517</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5273,19 @@
         <v>118279.5292</v>
       </c>
       <c r="G160" t="n">
-        <v>-46446423.65782516</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5307,19 @@
         <v>200000</v>
       </c>
       <c r="G161" t="n">
-        <v>-46646423.65782516</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5341,19 @@
         <v>440000</v>
       </c>
       <c r="G162" t="n">
-        <v>-46646423.65782516</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5375,19 @@
         <v>200000</v>
       </c>
       <c r="G163" t="n">
-        <v>-46646423.65782516</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5409,19 @@
         <v>275444</v>
       </c>
       <c r="G164" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5443,19 @@
         <v>896357.2036</v>
       </c>
       <c r="G165" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5477,19 @@
         <v>1234.166</v>
       </c>
       <c r="G166" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5511,19 @@
         <v>2110</v>
       </c>
       <c r="G167" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5545,19 @@
         <v>4092</v>
       </c>
       <c r="G168" t="n">
-        <v>-46370979.65782516</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,22 +5579,19 @@
         <v>60000</v>
       </c>
       <c r="G169" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J169" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5996,24 +5613,19 @@
         <v>360000</v>
       </c>
       <c r="G170" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6035,24 +5647,19 @@
         <v>240000</v>
       </c>
       <c r="G171" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6074,24 +5681,19 @@
         <v>20000</v>
       </c>
       <c r="G172" t="n">
-        <v>-46430979.65782516</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K172" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6113,24 +5715,19 @@
         <v>20000</v>
       </c>
       <c r="G173" t="n">
-        <v>-46450979.65782516</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K173" t="inlineStr">
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6152,26 +5749,19 @@
         <v>236166</v>
       </c>
       <c r="G174" t="n">
-        <v>-46450979.65782516</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K174" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6193,26 +5783,19 @@
         <v>4574</v>
       </c>
       <c r="G175" t="n">
-        <v>-46450979.65782516</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K175" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6234,26 +5817,19 @@
         <v>40000</v>
       </c>
       <c r="G176" t="n">
-        <v>-46410979.65782516</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K176" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6275,26 +5851,19 @@
         <v>300000</v>
       </c>
       <c r="G177" t="n">
-        <v>-46410979.65782516</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K177" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6316,26 +5885,19 @@
         <v>100000</v>
       </c>
       <c r="G178" t="n">
-        <v>-46310979.65782516</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K178" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6357,26 +5919,19 @@
         <v>129669.1892</v>
       </c>
       <c r="G179" t="n">
-        <v>-46440648.84702516</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K179" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6398,26 +5953,19 @@
         <v>300</v>
       </c>
       <c r="G180" t="n">
-        <v>-46440948.84702516</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="J180" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K180" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6439,26 +5987,19 @@
         <v>38940.1173</v>
       </c>
       <c r="G181" t="n">
-        <v>-46440948.84702516</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K181" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6480,26 +6021,19 @@
         <v>5692.1046</v>
       </c>
       <c r="G182" t="n">
-        <v>-46446640.95162516</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="J182" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K182" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6521,26 +6055,19 @@
         <v>346.4965</v>
       </c>
       <c r="G183" t="n">
-        <v>-46446294.45512516</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K183" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6562,26 +6089,19 @@
         <v>46846.0387</v>
       </c>
       <c r="G184" t="n">
-        <v>-46446294.45512516</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6603,26 +6123,19 @@
         <v>300</v>
       </c>
       <c r="G185" t="n">
-        <v>-46446594.45512516</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="J185" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K185" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6644,26 +6157,19 @@
         <v>1900</v>
       </c>
       <c r="G186" t="n">
-        <v>-46448494.45512516</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="J186" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K186" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6685,26 +6191,19 @@
         <v>474965.6262</v>
       </c>
       <c r="G187" t="n">
-        <v>-45973528.82892516</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="J187" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K187" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6726,26 +6225,19 @@
         <v>825034.3737999999</v>
       </c>
       <c r="G188" t="n">
-        <v>-45973528.82892516</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J188" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K188" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6767,24 +6259,19 @@
         <v>300</v>
       </c>
       <c r="G189" t="n">
-        <v>-45973828.82892516</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K189" t="inlineStr">
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6806,26 +6293,19 @@
         <v>651.3119533527697</v>
       </c>
       <c r="G190" t="n">
-        <v>-45973177.51697181</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="J190" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6847,24 +6327,19 @@
         <v>11854.5136</v>
       </c>
       <c r="G191" t="n">
-        <v>-45985032.03057181</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K191" t="inlineStr">
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6886,26 +6361,19 @@
         <v>300</v>
       </c>
       <c r="G192" t="n">
-        <v>-45984732.03057181</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1.703</v>
-      </c>
-      <c r="J192" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K192" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6927,26 +6395,19 @@
         <v>300</v>
       </c>
       <c r="G193" t="n">
-        <v>-45984432.03057181</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="J193" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K193" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6968,26 +6429,19 @@
         <v>1159946.186484704</v>
       </c>
       <c r="G194" t="n">
-        <v>-44824485.84408711</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="J194" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7009,24 +6463,19 @@
         <v>58061.8188</v>
       </c>
       <c r="G195" t="n">
-        <v>-44882547.66288711</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K195" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7048,24 +6497,19 @@
         <v>300</v>
       </c>
       <c r="G196" t="n">
-        <v>-44882847.66288711</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K196" t="inlineStr">
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7087,26 +6531,19 @@
         <v>41370</v>
       </c>
       <c r="G197" t="n">
-        <v>-44841477.66288711</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1.713</v>
-      </c>
-      <c r="J197" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K197" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7128,24 +6565,19 @@
         <v>165412</v>
       </c>
       <c r="G198" t="n">
-        <v>-44841477.66288711</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K198" t="inlineStr">
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7167,24 +6599,19 @@
         <v>2900000</v>
       </c>
       <c r="G199" t="n">
-        <v>-41941477.66288711</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K199" t="inlineStr">
+      <c r="J199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7206,24 +6633,19 @@
         <v>517372.9384</v>
       </c>
       <c r="G200" t="n">
-        <v>-41424104.72448711</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K200" t="inlineStr">
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7245,24 +6667,17 @@
         <v>106604</v>
       </c>
       <c r="G201" t="n">
-        <v>-41317500.72448711</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K201" t="inlineStr">
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1.034766081871345</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
